--- a/装修中期/桃源小镇6-3-301主材购买清单-於工lyk修改.xlsx
+++ b/装修中期/桃源小镇6-3-301主材购买清单-於工lyk修改.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuankun/MyOwnGit/Indoor-Decoration-Knowlege/装修中期/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzilan/MyGit/MarkdownPhotos/装修中期/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2879AF-3815-E84C-9C1A-CFF54A03C26E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="3340" windowWidth="23200" windowHeight="16920" tabRatio="563" activeTab="3"/>
+    <workbookView xWindow="5600" yWindow="1080" windowWidth="23200" windowHeight="16920" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器+软装" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="主材配套清单" sheetId="6" r:id="rId3"/>
     <sheet name="开关、插座面板清单" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,18 +28,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -48,7 +49,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -59,7 +60,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -68,7 +69,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -78,7 +79,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -185,31 +186,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>大理石门槛石</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗台石</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>拉糟板</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣柜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>飘窗石</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>块</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  洗漱台</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -222,10 +203,6 @@
   </si>
   <si>
     <t>隐形门</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品木饰面</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -394,10 +371,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>6cm实木踢脚线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>8cm阳台石材踢脚线</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -431,10 +404,6 @@
   </si>
   <si>
     <t>窄框中空钛合金移门</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>含门吸、合页（一套需要3个合页，1个门吸）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -517,14 +486,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣柜冷热水龙头、下水</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴室扶手</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>次卫生间</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -538,18 +499,6 @@
   </si>
   <si>
     <t>以定制厨柜实际尺寸为主</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧玻璃门</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧幕墙玻璃</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧卫生间不锈钢门套</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -637,15 +586,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>4公分开关、插座面板螺丝</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>卷</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘胶带（3M)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -657,27 +598,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>4分三角阀</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>4分洗衣机龙头</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>生料带</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>六类网络水晶头</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明玻璃胶</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色玻璃胶</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -715,19 +636,84 @@
     <t>6分洗衣机龙头</t>
   </si>
   <si>
-    <t>壁挂洗衣机</t>
+    <t>4分三角阀</t>
+  </si>
+  <si>
+    <t>1.马桶上水口―――1个单冷 * 2 = 2。（2个双口角阀，配喷枪）
+2.洗脸盆上水口――1冷1热 * 2 = 4。
+3.水槽上水口―――1冷1热 * 3 = 6。（中厨，西厨，阳台）
+4.热水器上水口――1冷1热 = 2
+共14个
+5 小厨宝</t>
+  </si>
+  <si>
+    <t>生料带</t>
+  </si>
+  <si>
+    <t>六类网络水晶头</t>
+  </si>
+  <si>
+    <t>透明玻璃胶</t>
+  </si>
+  <si>
+    <t>白色玻璃胶</t>
+  </si>
+  <si>
+    <t>4公分开关、插座面板螺丝</t>
+  </si>
+  <si>
+    <t>绝缘胶带（3M)</t>
+  </si>
+  <si>
+    <t>6cm实木踢脚线</t>
+  </si>
+  <si>
+    <t>大理石门槛石</t>
+  </si>
+  <si>
+    <t>飘窗石</t>
+  </si>
+  <si>
+    <t>窗台石</t>
+  </si>
+  <si>
+    <t>含门吸、合页（一套需要3个合页，1个门吸）</t>
+  </si>
+  <si>
+    <t>主卧幕墙玻璃</t>
+  </si>
+  <si>
+    <t>主卧玻璃门</t>
+  </si>
+  <si>
+    <t>主卧卫生间不锈钢门套</t>
+  </si>
+  <si>
+    <t>成品木饰面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  洗漱台</t>
+  </si>
+  <si>
+    <t>洗衣柜</t>
+  </si>
+  <si>
+    <t>洗衣柜冷热水龙头、下水</t>
+  </si>
+  <si>
+    <t>浴室扶手</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -846,35 +832,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1293,9 +1291,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1310,54 +1305,6 @@
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,6 +1391,64 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,6 +1458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,14 +1723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="66"/>
     <col min="2" max="2" width="17.1640625" style="63" customWidth="1"/>
@@ -1736,28 +1744,28 @@
     <col min="10" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="63" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="96"/>
-    </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="63" customFormat="1" ht="41" customHeight="1">
+      <c r="A1" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="128"/>
+    </row>
+    <row r="2" spans="1:9" ht="42" customHeight="1">
       <c r="A2" s="64" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2" s="64" t="s">
         <v>3</v>
@@ -1766,37 +1774,37 @@
         <v>2</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="93"/>
-    </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A3" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="125"/>
+    </row>
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="67">
         <v>1</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67">
@@ -1810,12 +1818,12 @@
       <c r="H4" s="68"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="67">
         <v>2</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="67">
@@ -1829,12 +1837,12 @@
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A6" s="67">
         <v>3</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="67">
@@ -1848,44 +1856,44 @@
       <c r="H6" s="68"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="1:9" s="115" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112">
+    <row r="7" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="95">
         <v>4</v>
       </c>
-      <c r="B7" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112">
+      <c r="B7" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95">
         <v>1</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-    </row>
-    <row r="8" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A8" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="125"/>
+    </row>
+    <row r="9" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="67">
         <v>1</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="67">
@@ -1899,12 +1907,12 @@
       <c r="H9" s="68"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A10" s="67">
         <v>2</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="67">
@@ -1918,25 +1926,25 @@
       <c r="H10" s="68"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="12" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A11" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="125"/>
+    </row>
+    <row r="12" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A12" s="67">
         <v>1</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="67">
@@ -1950,44 +1958,44 @@
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="67">
         <v>2</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="67">
         <v>1</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
       <c r="I13" s="69"/>
     </row>
-    <row r="14" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="93"/>
-    </row>
-    <row r="15" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A14" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="125"/>
+    </row>
+    <row r="15" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="67">
         <v>1</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="67">
@@ -2001,251 +2009,251 @@
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="93"/>
-    </row>
-    <row r="17" spans="1:9" s="115" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="112">
+    <row r="16" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A16" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="125"/>
+    </row>
+    <row r="17" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+      <c r="A17" s="95">
         <v>1</v>
       </c>
-      <c r="B17" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112">
+      <c r="B17" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95">
         <v>1</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
-    </row>
-    <row r="18" spans="1:9" s="115" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="112">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+    </row>
+    <row r="18" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+      <c r="A18" s="95">
         <v>2</v>
       </c>
-      <c r="B18" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112">
+      <c r="B18" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95">
         <v>0</v>
       </c>
-      <c r="E18" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-    </row>
-    <row r="19" spans="1:9" s="115" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="112">
+      <c r="E18" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+    </row>
+    <row r="19" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+      <c r="A19" s="95">
         <v>3</v>
       </c>
-      <c r="B19" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112">
+      <c r="B19" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95">
         <v>0</v>
       </c>
-      <c r="E19" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-    </row>
-    <row r="20" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91">
+      <c r="E19" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
+    </row>
+    <row r="20" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A20" s="90">
         <v>4</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="67">
         <v>1</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="91">
+    <row r="21" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A21" s="90">
         <v>5</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="67">
         <v>1</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="91">
+    <row r="22" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A22" s="90">
         <v>6</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="67">
         <v>1</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
       <c r="H22" s="68"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="91">
+    <row r="23" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A23" s="90">
         <v>7</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="67">
         <v>1</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="68"/>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" s="115" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="112">
+    <row r="24" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+      <c r="A24" s="95">
         <v>8</v>
       </c>
-      <c r="B24" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112">
+      <c r="B24" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95">
         <v>0</v>
       </c>
-      <c r="E24" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-    </row>
-    <row r="25" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="91">
+      <c r="E24" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
+    </row>
+    <row r="25" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A25" s="90">
         <v>9</v>
       </c>
-      <c r="B25" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91">
+      <c r="B25" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90">
         <v>1</v>
       </c>
-      <c r="E25" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
+      <c r="E25" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="91">
+    <row r="26" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A26" s="90">
         <v>10</v>
       </c>
-      <c r="B26" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91">
+      <c r="B26" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90">
         <v>1</v>
       </c>
-      <c r="E26" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
+      <c r="E26" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="91">
+    <row r="27" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+      <c r="A27" s="90">
         <v>11</v>
       </c>
-      <c r="B27" s="91" t="s">
-        <v>155</v>
+      <c r="B27" s="90" t="s">
+        <v>135</v>
       </c>
       <c r="C27" s="67"/>
-      <c r="D27" s="91">
+      <c r="D27" s="90">
         <v>1</v>
       </c>
-      <c r="E27" s="91" t="s">
-        <v>62</v>
+      <c r="E27" s="90" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="68"/>
       <c r="G27" s="68"/>
       <c r="H27" s="68"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" s="115" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="112">
+    <row r="28" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+      <c r="A28" s="95">
         <v>12</v>
       </c>
-      <c r="B28" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112">
+      <c r="B28" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95">
         <v>0</v>
       </c>
-      <c r="E28" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
-    </row>
-    <row r="29" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+    </row>
+    <row r="29" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="67"/>
       <c r="B29" s="67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -2258,25 +2266,25 @@
       <c r="H29" s="68"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="63" customFormat="1">
       <c r="C30" s="66"/>
       <c r="F30" s="66"/>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" s="63" customFormat="1">
       <c r="C31" s="66"/>
       <c r="F31" s="66"/>
       <c r="G31" s="70"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" s="63" customFormat="1">
       <c r="C32" s="66"/>
       <c r="F32" s="66"/>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
     </row>
-    <row r="33" spans="3:8" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:8" s="63" customFormat="1">
       <c r="C33" s="66"/>
       <c r="F33" s="66"/>
       <c r="G33" s="70"/>
@@ -2297,14 +2305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="71"/>
     <col min="2" max="2" width="8.83203125" style="74"/>
@@ -2314,31 +2322,31 @@
     <col min="7" max="16384" width="8.83203125" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="75">
         <v>8</v>
       </c>
-      <c r="B1" s="98" t="s">
-        <v>70</v>
+      <c r="B1" s="130" t="s">
+        <v>64</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D1" s="72">
         <v>6.16</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F1" s="73"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="75">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="131"/>
       <c r="C2" s="73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D2" s="72">
         <v>8.0399999999999991</v>
@@ -2348,63 +2356,63 @@
       </c>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109">
+    <row r="3" spans="1:6" s="94" customFormat="1">
+      <c r="A3" s="92">
         <v>10</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="109">
+      <c r="B3" s="131"/>
+      <c r="C3" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="92">
         <v>2</v>
       </c>
-      <c r="E3" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="110"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="75">
         <v>11</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="73" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D4" s="72">
         <v>1</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" s="73"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="75">
         <v>12</v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>78</v>
+      <c r="B5" s="130" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="75">
         <v>3.25</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="73"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="75">
         <v>13</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D6" s="75">
         <v>7.34</v>
@@ -2414,79 +2422,79 @@
       </c>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="109">
+    <row r="7" spans="1:6" s="94" customFormat="1">
+      <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="109">
+      <c r="B7" s="131"/>
+      <c r="C7" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="92">
         <v>1</v>
       </c>
-      <c r="E7" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="110"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="93"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="75">
         <v>15</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D8" s="75">
         <v>1</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" s="73"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="75">
         <v>16</v>
       </c>
-      <c r="B9" s="100"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="73" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D9" s="72">
         <v>3</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F9" s="73"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="75">
         <v>17</v>
       </c>
-      <c r="B10" s="98" t="s">
-        <v>80</v>
+      <c r="B10" s="130" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D10" s="75">
         <v>3.35</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="75">
         <v>18</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D11" s="75">
         <v>6.54</v>
@@ -2496,51 +2504,51 @@
       </c>
       <c r="F11" s="73"/>
     </row>
-    <row r="12" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109">
+    <row r="12" spans="1:6" s="94" customFormat="1">
+      <c r="A12" s="92">
         <v>19</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="109">
+      <c r="B12" s="131"/>
+      <c r="C12" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="92">
         <v>1</v>
       </c>
-      <c r="E12" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="110"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="93"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="75">
         <v>20</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D13" s="75">
         <v>1</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="73"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="75">
         <v>21</v>
       </c>
-      <c r="B14" s="100"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="73" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" s="75">
         <v>2</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14" s="73"/>
     </row>
@@ -2557,14 +2565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IK358"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" style="21" customWidth="1"/>
@@ -2576,7 +2584,7 @@
     <col min="244" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:244" s="1" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -2834,13 +2842,13 @@
       <c r="II1" s="5"/>
       <c r="IJ1" s="41"/>
     </row>
-    <row r="2" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:244" s="1" customFormat="1">
       <c r="A2" s="25"/>
       <c r="B2" s="86" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>5</v>
@@ -3088,533 +3096,533 @@
       <c r="II2" s="5"/>
       <c r="IJ2" s="41"/>
     </row>
-    <row r="3" spans="1:244" s="124" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="117">
+    <row r="3" spans="1:244" s="107" customFormat="1">
+      <c r="A3" s="100">
         <v>7</v>
       </c>
-      <c r="B3" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="119" t="s">
+      <c r="B3" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="120">
+      <c r="E3" s="103">
         <v>86</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="122"/>
-      <c r="AY3" s="122"/>
-      <c r="AZ3" s="122"/>
-      <c r="BA3" s="122"/>
-      <c r="BB3" s="122"/>
-      <c r="BC3" s="122"/>
-      <c r="BD3" s="122"/>
-      <c r="BE3" s="122"/>
-      <c r="BF3" s="122"/>
-      <c r="BG3" s="122"/>
-      <c r="BH3" s="122"/>
-      <c r="BI3" s="122"/>
-      <c r="BJ3" s="122"/>
-      <c r="BK3" s="122"/>
-      <c r="BL3" s="122"/>
-      <c r="BM3" s="122"/>
-      <c r="BN3" s="122"/>
-      <c r="BO3" s="122"/>
-      <c r="BP3" s="122"/>
-      <c r="BQ3" s="122"/>
-      <c r="BR3" s="122"/>
-      <c r="BS3" s="122"/>
-      <c r="BT3" s="122"/>
-      <c r="BU3" s="122"/>
-      <c r="BV3" s="122"/>
-      <c r="BW3" s="122"/>
-      <c r="BX3" s="122"/>
-      <c r="BY3" s="122"/>
-      <c r="BZ3" s="122"/>
-      <c r="CA3" s="122"/>
-      <c r="CB3" s="122"/>
-      <c r="CC3" s="122"/>
-      <c r="CD3" s="122"/>
-      <c r="CE3" s="122"/>
-      <c r="CF3" s="122"/>
-      <c r="CG3" s="122"/>
-      <c r="CH3" s="122"/>
-      <c r="CI3" s="122"/>
-      <c r="CJ3" s="122"/>
-      <c r="CK3" s="122"/>
-      <c r="CL3" s="122"/>
-      <c r="CM3" s="122"/>
-      <c r="CN3" s="122"/>
-      <c r="CO3" s="122"/>
-      <c r="CP3" s="122"/>
-      <c r="CQ3" s="122"/>
-      <c r="CR3" s="122"/>
-      <c r="CS3" s="122"/>
-      <c r="CT3" s="122"/>
-      <c r="CU3" s="122"/>
-      <c r="CV3" s="122"/>
-      <c r="CW3" s="122"/>
-      <c r="CX3" s="122"/>
-      <c r="CY3" s="122"/>
-      <c r="CZ3" s="122"/>
-      <c r="DA3" s="122"/>
-      <c r="DB3" s="122"/>
-      <c r="DC3" s="122"/>
-      <c r="DD3" s="122"/>
-      <c r="DE3" s="122"/>
-      <c r="DF3" s="122"/>
-      <c r="DG3" s="122"/>
-      <c r="DH3" s="122"/>
-      <c r="DI3" s="122"/>
-      <c r="DJ3" s="122"/>
-      <c r="DK3" s="122"/>
-      <c r="DL3" s="122"/>
-      <c r="DM3" s="122"/>
-      <c r="DN3" s="122"/>
-      <c r="DO3" s="122"/>
-      <c r="DP3" s="122"/>
-      <c r="DQ3" s="122"/>
-      <c r="DR3" s="122"/>
-      <c r="DS3" s="122"/>
-      <c r="DT3" s="122"/>
-      <c r="DU3" s="122"/>
-      <c r="DV3" s="122"/>
-      <c r="DW3" s="122"/>
-      <c r="DX3" s="122"/>
-      <c r="DY3" s="122"/>
-      <c r="DZ3" s="122"/>
-      <c r="EA3" s="122"/>
-      <c r="EB3" s="122"/>
-      <c r="EC3" s="122"/>
-      <c r="ED3" s="122"/>
-      <c r="EE3" s="122"/>
-      <c r="EF3" s="122"/>
-      <c r="EG3" s="122"/>
-      <c r="EH3" s="122"/>
-      <c r="EI3" s="122"/>
-      <c r="EJ3" s="122"/>
-      <c r="EK3" s="122"/>
-      <c r="EL3" s="122"/>
-      <c r="EM3" s="122"/>
-      <c r="EN3" s="122"/>
-      <c r="EO3" s="122"/>
-      <c r="EP3" s="122"/>
-      <c r="EQ3" s="122"/>
-      <c r="ER3" s="122"/>
-      <c r="ES3" s="122"/>
-      <c r="ET3" s="122"/>
-      <c r="EU3" s="122"/>
-      <c r="EV3" s="122"/>
-      <c r="EW3" s="122"/>
-      <c r="EX3" s="122"/>
-      <c r="EY3" s="122"/>
-      <c r="EZ3" s="122"/>
-      <c r="FA3" s="122"/>
-      <c r="FB3" s="122"/>
-      <c r="FC3" s="122"/>
-      <c r="FD3" s="122"/>
-      <c r="FE3" s="122"/>
-      <c r="FF3" s="122"/>
-      <c r="FG3" s="122"/>
-      <c r="FH3" s="122"/>
-      <c r="FI3" s="122"/>
-      <c r="FJ3" s="122"/>
-      <c r="FK3" s="122"/>
-      <c r="FL3" s="122"/>
-      <c r="FM3" s="122"/>
-      <c r="FN3" s="122"/>
-      <c r="FO3" s="122"/>
-      <c r="FP3" s="122"/>
-      <c r="FQ3" s="122"/>
-      <c r="FR3" s="122"/>
-      <c r="FS3" s="122"/>
-      <c r="FT3" s="122"/>
-      <c r="FU3" s="122"/>
-      <c r="FV3" s="122"/>
-      <c r="FW3" s="122"/>
-      <c r="FX3" s="122"/>
-      <c r="FY3" s="122"/>
-      <c r="FZ3" s="122"/>
-      <c r="GA3" s="122"/>
-      <c r="GB3" s="122"/>
-      <c r="GC3" s="122"/>
-      <c r="GD3" s="122"/>
-      <c r="GE3" s="122"/>
-      <c r="GF3" s="122"/>
-      <c r="GG3" s="122"/>
-      <c r="GH3" s="122"/>
-      <c r="GI3" s="122"/>
-      <c r="GJ3" s="122"/>
-      <c r="GK3" s="122"/>
-      <c r="GL3" s="122"/>
-      <c r="GM3" s="122"/>
-      <c r="GN3" s="122"/>
-      <c r="GO3" s="122"/>
-      <c r="GP3" s="122"/>
-      <c r="GQ3" s="122"/>
-      <c r="GR3" s="122"/>
-      <c r="GS3" s="122"/>
-      <c r="GT3" s="122"/>
-      <c r="GU3" s="122"/>
-      <c r="GV3" s="122"/>
-      <c r="GW3" s="122"/>
-      <c r="GX3" s="122"/>
-      <c r="GY3" s="122"/>
-      <c r="GZ3" s="122"/>
-      <c r="HA3" s="122"/>
-      <c r="HB3" s="122"/>
-      <c r="HC3" s="122"/>
-      <c r="HD3" s="122"/>
-      <c r="HE3" s="122"/>
-      <c r="HF3" s="122"/>
-      <c r="HG3" s="122"/>
-      <c r="HH3" s="122"/>
-      <c r="HI3" s="122"/>
-      <c r="HJ3" s="122"/>
-      <c r="HK3" s="122"/>
-      <c r="HL3" s="122"/>
-      <c r="HM3" s="122"/>
-      <c r="HN3" s="122"/>
-      <c r="HO3" s="122"/>
-      <c r="HP3" s="122"/>
-      <c r="HQ3" s="122"/>
-      <c r="HR3" s="122"/>
-      <c r="HS3" s="122"/>
-      <c r="HT3" s="122"/>
-      <c r="HU3" s="122"/>
-      <c r="HV3" s="122"/>
-      <c r="HW3" s="122"/>
-      <c r="HX3" s="122"/>
-      <c r="HY3" s="122"/>
-      <c r="HZ3" s="122"/>
-      <c r="IA3" s="122"/>
-      <c r="IB3" s="122"/>
-      <c r="IC3" s="122"/>
-      <c r="ID3" s="122"/>
-      <c r="IE3" s="122"/>
-      <c r="IF3" s="122"/>
-      <c r="IG3" s="122"/>
-      <c r="IH3" s="122"/>
-      <c r="II3" s="122"/>
-      <c r="IJ3" s="123"/>
-    </row>
-    <row r="4" spans="1:244" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="117">
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="105"/>
+      <c r="BD3" s="105"/>
+      <c r="BE3" s="105"/>
+      <c r="BF3" s="105"/>
+      <c r="BG3" s="105"/>
+      <c r="BH3" s="105"/>
+      <c r="BI3" s="105"/>
+      <c r="BJ3" s="105"/>
+      <c r="BK3" s="105"/>
+      <c r="BL3" s="105"/>
+      <c r="BM3" s="105"/>
+      <c r="BN3" s="105"/>
+      <c r="BO3" s="105"/>
+      <c r="BP3" s="105"/>
+      <c r="BQ3" s="105"/>
+      <c r="BR3" s="105"/>
+      <c r="BS3" s="105"/>
+      <c r="BT3" s="105"/>
+      <c r="BU3" s="105"/>
+      <c r="BV3" s="105"/>
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="105"/>
+      <c r="BY3" s="105"/>
+      <c r="BZ3" s="105"/>
+      <c r="CA3" s="105"/>
+      <c r="CB3" s="105"/>
+      <c r="CC3" s="105"/>
+      <c r="CD3" s="105"/>
+      <c r="CE3" s="105"/>
+      <c r="CF3" s="105"/>
+      <c r="CG3" s="105"/>
+      <c r="CH3" s="105"/>
+      <c r="CI3" s="105"/>
+      <c r="CJ3" s="105"/>
+      <c r="CK3" s="105"/>
+      <c r="CL3" s="105"/>
+      <c r="CM3" s="105"/>
+      <c r="CN3" s="105"/>
+      <c r="CO3" s="105"/>
+      <c r="CP3" s="105"/>
+      <c r="CQ3" s="105"/>
+      <c r="CR3" s="105"/>
+      <c r="CS3" s="105"/>
+      <c r="CT3" s="105"/>
+      <c r="CU3" s="105"/>
+      <c r="CV3" s="105"/>
+      <c r="CW3" s="105"/>
+      <c r="CX3" s="105"/>
+      <c r="CY3" s="105"/>
+      <c r="CZ3" s="105"/>
+      <c r="DA3" s="105"/>
+      <c r="DB3" s="105"/>
+      <c r="DC3" s="105"/>
+      <c r="DD3" s="105"/>
+      <c r="DE3" s="105"/>
+      <c r="DF3" s="105"/>
+      <c r="DG3" s="105"/>
+      <c r="DH3" s="105"/>
+      <c r="DI3" s="105"/>
+      <c r="DJ3" s="105"/>
+      <c r="DK3" s="105"/>
+      <c r="DL3" s="105"/>
+      <c r="DM3" s="105"/>
+      <c r="DN3" s="105"/>
+      <c r="DO3" s="105"/>
+      <c r="DP3" s="105"/>
+      <c r="DQ3" s="105"/>
+      <c r="DR3" s="105"/>
+      <c r="DS3" s="105"/>
+      <c r="DT3" s="105"/>
+      <c r="DU3" s="105"/>
+      <c r="DV3" s="105"/>
+      <c r="DW3" s="105"/>
+      <c r="DX3" s="105"/>
+      <c r="DY3" s="105"/>
+      <c r="DZ3" s="105"/>
+      <c r="EA3" s="105"/>
+      <c r="EB3" s="105"/>
+      <c r="EC3" s="105"/>
+      <c r="ED3" s="105"/>
+      <c r="EE3" s="105"/>
+      <c r="EF3" s="105"/>
+      <c r="EG3" s="105"/>
+      <c r="EH3" s="105"/>
+      <c r="EI3" s="105"/>
+      <c r="EJ3" s="105"/>
+      <c r="EK3" s="105"/>
+      <c r="EL3" s="105"/>
+      <c r="EM3" s="105"/>
+      <c r="EN3" s="105"/>
+      <c r="EO3" s="105"/>
+      <c r="EP3" s="105"/>
+      <c r="EQ3" s="105"/>
+      <c r="ER3" s="105"/>
+      <c r="ES3" s="105"/>
+      <c r="ET3" s="105"/>
+      <c r="EU3" s="105"/>
+      <c r="EV3" s="105"/>
+      <c r="EW3" s="105"/>
+      <c r="EX3" s="105"/>
+      <c r="EY3" s="105"/>
+      <c r="EZ3" s="105"/>
+      <c r="FA3" s="105"/>
+      <c r="FB3" s="105"/>
+      <c r="FC3" s="105"/>
+      <c r="FD3" s="105"/>
+      <c r="FE3" s="105"/>
+      <c r="FF3" s="105"/>
+      <c r="FG3" s="105"/>
+      <c r="FH3" s="105"/>
+      <c r="FI3" s="105"/>
+      <c r="FJ3" s="105"/>
+      <c r="FK3" s="105"/>
+      <c r="FL3" s="105"/>
+      <c r="FM3" s="105"/>
+      <c r="FN3" s="105"/>
+      <c r="FO3" s="105"/>
+      <c r="FP3" s="105"/>
+      <c r="FQ3" s="105"/>
+      <c r="FR3" s="105"/>
+      <c r="FS3" s="105"/>
+      <c r="FT3" s="105"/>
+      <c r="FU3" s="105"/>
+      <c r="FV3" s="105"/>
+      <c r="FW3" s="105"/>
+      <c r="FX3" s="105"/>
+      <c r="FY3" s="105"/>
+      <c r="FZ3" s="105"/>
+      <c r="GA3" s="105"/>
+      <c r="GB3" s="105"/>
+      <c r="GC3" s="105"/>
+      <c r="GD3" s="105"/>
+      <c r="GE3" s="105"/>
+      <c r="GF3" s="105"/>
+      <c r="GG3" s="105"/>
+      <c r="GH3" s="105"/>
+      <c r="GI3" s="105"/>
+      <c r="GJ3" s="105"/>
+      <c r="GK3" s="105"/>
+      <c r="GL3" s="105"/>
+      <c r="GM3" s="105"/>
+      <c r="GN3" s="105"/>
+      <c r="GO3" s="105"/>
+      <c r="GP3" s="105"/>
+      <c r="GQ3" s="105"/>
+      <c r="GR3" s="105"/>
+      <c r="GS3" s="105"/>
+      <c r="GT3" s="105"/>
+      <c r="GU3" s="105"/>
+      <c r="GV3" s="105"/>
+      <c r="GW3" s="105"/>
+      <c r="GX3" s="105"/>
+      <c r="GY3" s="105"/>
+      <c r="GZ3" s="105"/>
+      <c r="HA3" s="105"/>
+      <c r="HB3" s="105"/>
+      <c r="HC3" s="105"/>
+      <c r="HD3" s="105"/>
+      <c r="HE3" s="105"/>
+      <c r="HF3" s="105"/>
+      <c r="HG3" s="105"/>
+      <c r="HH3" s="105"/>
+      <c r="HI3" s="105"/>
+      <c r="HJ3" s="105"/>
+      <c r="HK3" s="105"/>
+      <c r="HL3" s="105"/>
+      <c r="HM3" s="105"/>
+      <c r="HN3" s="105"/>
+      <c r="HO3" s="105"/>
+      <c r="HP3" s="105"/>
+      <c r="HQ3" s="105"/>
+      <c r="HR3" s="105"/>
+      <c r="HS3" s="105"/>
+      <c r="HT3" s="105"/>
+      <c r="HU3" s="105"/>
+      <c r="HV3" s="105"/>
+      <c r="HW3" s="105"/>
+      <c r="HX3" s="105"/>
+      <c r="HY3" s="105"/>
+      <c r="HZ3" s="105"/>
+      <c r="IA3" s="105"/>
+      <c r="IB3" s="105"/>
+      <c r="IC3" s="105"/>
+      <c r="ID3" s="105"/>
+      <c r="IE3" s="105"/>
+      <c r="IF3" s="105"/>
+      <c r="IG3" s="105"/>
+      <c r="IH3" s="105"/>
+      <c r="II3" s="105"/>
+      <c r="IJ3" s="106"/>
+    </row>
+    <row r="4" spans="1:244" s="106" customFormat="1">
+      <c r="A4" s="100">
         <v>8</v>
       </c>
-      <c r="B4" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="119" t="s">
+      <c r="B4" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="120">
+      <c r="E4" s="103">
         <v>12</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="122"/>
-      <c r="BU4" s="122"/>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="122"/>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="122"/>
-      <c r="CC4" s="122"/>
-      <c r="CD4" s="122"/>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="122"/>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="122"/>
-      <c r="CK4" s="122"/>
-      <c r="CL4" s="122"/>
-      <c r="CM4" s="122"/>
-      <c r="CN4" s="122"/>
-      <c r="CO4" s="122"/>
-      <c r="CP4" s="122"/>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="122"/>
-      <c r="CS4" s="122"/>
-      <c r="CT4" s="122"/>
-      <c r="CU4" s="122"/>
-      <c r="CV4" s="122"/>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="122"/>
-      <c r="CZ4" s="122"/>
-      <c r="DA4" s="122"/>
-      <c r="DB4" s="122"/>
-      <c r="DC4" s="122"/>
-      <c r="DD4" s="122"/>
-      <c r="DE4" s="122"/>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="122"/>
-      <c r="DI4" s="122"/>
-      <c r="DJ4" s="122"/>
-      <c r="DK4" s="122"/>
-      <c r="DL4" s="122"/>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="122"/>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="122"/>
-      <c r="DQ4" s="122"/>
-      <c r="DR4" s="122"/>
-      <c r="DS4" s="122"/>
-      <c r="DT4" s="122"/>
-      <c r="DU4" s="122"/>
-      <c r="DV4" s="122"/>
-      <c r="DW4" s="122"/>
-      <c r="DX4" s="122"/>
-      <c r="DY4" s="122"/>
-      <c r="DZ4" s="122"/>
-      <c r="EA4" s="122"/>
-      <c r="EB4" s="122"/>
-      <c r="EC4" s="122"/>
-      <c r="ED4" s="122"/>
-      <c r="EE4" s="122"/>
-      <c r="EF4" s="122"/>
-      <c r="EG4" s="122"/>
-      <c r="EH4" s="122"/>
-      <c r="EI4" s="122"/>
-      <c r="EJ4" s="122"/>
-      <c r="EK4" s="122"/>
-      <c r="EL4" s="122"/>
-      <c r="EM4" s="122"/>
-      <c r="EN4" s="122"/>
-      <c r="EO4" s="122"/>
-      <c r="EP4" s="122"/>
-      <c r="EQ4" s="122"/>
-      <c r="ER4" s="122"/>
-      <c r="ES4" s="122"/>
-      <c r="ET4" s="122"/>
-      <c r="EU4" s="122"/>
-      <c r="EV4" s="122"/>
-      <c r="EW4" s="122"/>
-      <c r="EX4" s="122"/>
-      <c r="EY4" s="122"/>
-      <c r="EZ4" s="122"/>
-      <c r="FA4" s="122"/>
-      <c r="FB4" s="122"/>
-      <c r="FC4" s="122"/>
-      <c r="FD4" s="122"/>
-      <c r="FE4" s="122"/>
-      <c r="FF4" s="122"/>
-      <c r="FG4" s="122"/>
-      <c r="FH4" s="122"/>
-      <c r="FI4" s="122"/>
-      <c r="FJ4" s="122"/>
-      <c r="FK4" s="122"/>
-      <c r="FL4" s="122"/>
-      <c r="FM4" s="122"/>
-      <c r="FN4" s="122"/>
-      <c r="FO4" s="122"/>
-      <c r="FP4" s="122"/>
-      <c r="FQ4" s="122"/>
-      <c r="FR4" s="122"/>
-      <c r="FS4" s="122"/>
-      <c r="FT4" s="122"/>
-      <c r="FU4" s="122"/>
-      <c r="FV4" s="122"/>
-      <c r="FW4" s="122"/>
-      <c r="FX4" s="122"/>
-      <c r="FY4" s="122"/>
-      <c r="FZ4" s="122"/>
-      <c r="GA4" s="122"/>
-      <c r="GB4" s="122"/>
-      <c r="GC4" s="122"/>
-      <c r="GD4" s="122"/>
-      <c r="GE4" s="122"/>
-      <c r="GF4" s="122"/>
-      <c r="GG4" s="122"/>
-      <c r="GH4" s="122"/>
-      <c r="GI4" s="122"/>
-      <c r="GJ4" s="122"/>
-      <c r="GK4" s="122"/>
-      <c r="GL4" s="122"/>
-      <c r="GM4" s="122"/>
-      <c r="GN4" s="122"/>
-      <c r="GO4" s="122"/>
-      <c r="GP4" s="122"/>
-      <c r="GQ4" s="122"/>
-      <c r="GR4" s="122"/>
-      <c r="GS4" s="122"/>
-      <c r="GT4" s="122"/>
-      <c r="GU4" s="122"/>
-      <c r="GV4" s="122"/>
-      <c r="GW4" s="122"/>
-      <c r="GX4" s="122"/>
-      <c r="GY4" s="122"/>
-      <c r="GZ4" s="122"/>
-      <c r="HA4" s="122"/>
-      <c r="HB4" s="122"/>
-      <c r="HC4" s="122"/>
-      <c r="HD4" s="122"/>
-      <c r="HE4" s="122"/>
-      <c r="HF4" s="122"/>
-      <c r="HG4" s="122"/>
-      <c r="HH4" s="122"/>
-      <c r="HI4" s="122"/>
-      <c r="HJ4" s="122"/>
-      <c r="HK4" s="122"/>
-      <c r="HL4" s="122"/>
-      <c r="HM4" s="122"/>
-      <c r="HN4" s="122"/>
-      <c r="HO4" s="122"/>
-      <c r="HP4" s="122"/>
-      <c r="HQ4" s="122"/>
-      <c r="HR4" s="122"/>
-      <c r="HS4" s="122"/>
-      <c r="HT4" s="122"/>
-      <c r="HU4" s="122"/>
-      <c r="HV4" s="122"/>
-      <c r="HW4" s="122"/>
-      <c r="HX4" s="122"/>
-      <c r="HY4" s="122"/>
-      <c r="HZ4" s="122"/>
-      <c r="IA4" s="122"/>
-      <c r="IB4" s="122"/>
-      <c r="IC4" s="122"/>
-      <c r="ID4" s="122"/>
-      <c r="IE4" s="122"/>
-      <c r="IF4" s="122"/>
-      <c r="IG4" s="122"/>
-      <c r="IH4" s="122"/>
-      <c r="II4" s="122"/>
-    </row>
-    <row r="5" spans="1:244" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="105"/>
+      <c r="BM4" s="105"/>
+      <c r="BN4" s="105"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="105"/>
+      <c r="BQ4" s="105"/>
+      <c r="BR4" s="105"/>
+      <c r="BS4" s="105"/>
+      <c r="BT4" s="105"/>
+      <c r="BU4" s="105"/>
+      <c r="BV4" s="105"/>
+      <c r="BW4" s="105"/>
+      <c r="BX4" s="105"/>
+      <c r="BY4" s="105"/>
+      <c r="BZ4" s="105"/>
+      <c r="CA4" s="105"/>
+      <c r="CB4" s="105"/>
+      <c r="CC4" s="105"/>
+      <c r="CD4" s="105"/>
+      <c r="CE4" s="105"/>
+      <c r="CF4" s="105"/>
+      <c r="CG4" s="105"/>
+      <c r="CH4" s="105"/>
+      <c r="CI4" s="105"/>
+      <c r="CJ4" s="105"/>
+      <c r="CK4" s="105"/>
+      <c r="CL4" s="105"/>
+      <c r="CM4" s="105"/>
+      <c r="CN4" s="105"/>
+      <c r="CO4" s="105"/>
+      <c r="CP4" s="105"/>
+      <c r="CQ4" s="105"/>
+      <c r="CR4" s="105"/>
+      <c r="CS4" s="105"/>
+      <c r="CT4" s="105"/>
+      <c r="CU4" s="105"/>
+      <c r="CV4" s="105"/>
+      <c r="CW4" s="105"/>
+      <c r="CX4" s="105"/>
+      <c r="CY4" s="105"/>
+      <c r="CZ4" s="105"/>
+      <c r="DA4" s="105"/>
+      <c r="DB4" s="105"/>
+      <c r="DC4" s="105"/>
+      <c r="DD4" s="105"/>
+      <c r="DE4" s="105"/>
+      <c r="DF4" s="105"/>
+      <c r="DG4" s="105"/>
+      <c r="DH4" s="105"/>
+      <c r="DI4" s="105"/>
+      <c r="DJ4" s="105"/>
+      <c r="DK4" s="105"/>
+      <c r="DL4" s="105"/>
+      <c r="DM4" s="105"/>
+      <c r="DN4" s="105"/>
+      <c r="DO4" s="105"/>
+      <c r="DP4" s="105"/>
+      <c r="DQ4" s="105"/>
+      <c r="DR4" s="105"/>
+      <c r="DS4" s="105"/>
+      <c r="DT4" s="105"/>
+      <c r="DU4" s="105"/>
+      <c r="DV4" s="105"/>
+      <c r="DW4" s="105"/>
+      <c r="DX4" s="105"/>
+      <c r="DY4" s="105"/>
+      <c r="DZ4" s="105"/>
+      <c r="EA4" s="105"/>
+      <c r="EB4" s="105"/>
+      <c r="EC4" s="105"/>
+      <c r="ED4" s="105"/>
+      <c r="EE4" s="105"/>
+      <c r="EF4" s="105"/>
+      <c r="EG4" s="105"/>
+      <c r="EH4" s="105"/>
+      <c r="EI4" s="105"/>
+      <c r="EJ4" s="105"/>
+      <c r="EK4" s="105"/>
+      <c r="EL4" s="105"/>
+      <c r="EM4" s="105"/>
+      <c r="EN4" s="105"/>
+      <c r="EO4" s="105"/>
+      <c r="EP4" s="105"/>
+      <c r="EQ4" s="105"/>
+      <c r="ER4" s="105"/>
+      <c r="ES4" s="105"/>
+      <c r="ET4" s="105"/>
+      <c r="EU4" s="105"/>
+      <c r="EV4" s="105"/>
+      <c r="EW4" s="105"/>
+      <c r="EX4" s="105"/>
+      <c r="EY4" s="105"/>
+      <c r="EZ4" s="105"/>
+      <c r="FA4" s="105"/>
+      <c r="FB4" s="105"/>
+      <c r="FC4" s="105"/>
+      <c r="FD4" s="105"/>
+      <c r="FE4" s="105"/>
+      <c r="FF4" s="105"/>
+      <c r="FG4" s="105"/>
+      <c r="FH4" s="105"/>
+      <c r="FI4" s="105"/>
+      <c r="FJ4" s="105"/>
+      <c r="FK4" s="105"/>
+      <c r="FL4" s="105"/>
+      <c r="FM4" s="105"/>
+      <c r="FN4" s="105"/>
+      <c r="FO4" s="105"/>
+      <c r="FP4" s="105"/>
+      <c r="FQ4" s="105"/>
+      <c r="FR4" s="105"/>
+      <c r="FS4" s="105"/>
+      <c r="FT4" s="105"/>
+      <c r="FU4" s="105"/>
+      <c r="FV4" s="105"/>
+      <c r="FW4" s="105"/>
+      <c r="FX4" s="105"/>
+      <c r="FY4" s="105"/>
+      <c r="FZ4" s="105"/>
+      <c r="GA4" s="105"/>
+      <c r="GB4" s="105"/>
+      <c r="GC4" s="105"/>
+      <c r="GD4" s="105"/>
+      <c r="GE4" s="105"/>
+      <c r="GF4" s="105"/>
+      <c r="GG4" s="105"/>
+      <c r="GH4" s="105"/>
+      <c r="GI4" s="105"/>
+      <c r="GJ4" s="105"/>
+      <c r="GK4" s="105"/>
+      <c r="GL4" s="105"/>
+      <c r="GM4" s="105"/>
+      <c r="GN4" s="105"/>
+      <c r="GO4" s="105"/>
+      <c r="GP4" s="105"/>
+      <c r="GQ4" s="105"/>
+      <c r="GR4" s="105"/>
+      <c r="GS4" s="105"/>
+      <c r="GT4" s="105"/>
+      <c r="GU4" s="105"/>
+      <c r="GV4" s="105"/>
+      <c r="GW4" s="105"/>
+      <c r="GX4" s="105"/>
+      <c r="GY4" s="105"/>
+      <c r="GZ4" s="105"/>
+      <c r="HA4" s="105"/>
+      <c r="HB4" s="105"/>
+      <c r="HC4" s="105"/>
+      <c r="HD4" s="105"/>
+      <c r="HE4" s="105"/>
+      <c r="HF4" s="105"/>
+      <c r="HG4" s="105"/>
+      <c r="HH4" s="105"/>
+      <c r="HI4" s="105"/>
+      <c r="HJ4" s="105"/>
+      <c r="HK4" s="105"/>
+      <c r="HL4" s="105"/>
+      <c r="HM4" s="105"/>
+      <c r="HN4" s="105"/>
+      <c r="HO4" s="105"/>
+      <c r="HP4" s="105"/>
+      <c r="HQ4" s="105"/>
+      <c r="HR4" s="105"/>
+      <c r="HS4" s="105"/>
+      <c r="HT4" s="105"/>
+      <c r="HU4" s="105"/>
+      <c r="HV4" s="105"/>
+      <c r="HW4" s="105"/>
+      <c r="HX4" s="105"/>
+      <c r="HY4" s="105"/>
+      <c r="HZ4" s="105"/>
+      <c r="IA4" s="105"/>
+      <c r="IB4" s="105"/>
+      <c r="IC4" s="105"/>
+      <c r="ID4" s="105"/>
+      <c r="IE4" s="105"/>
+      <c r="IF4" s="105"/>
+      <c r="IG4" s="105"/>
+      <c r="IH4" s="105"/>
+      <c r="II4" s="105"/>
+    </row>
+    <row r="5" spans="1:244" s="2" customFormat="1">
       <c r="A5" s="25">
         <v>9</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="101" t="s">
-        <v>84</v>
+        <v>148</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -3854,773 +3862,773 @@
       <c r="IH5" s="20"/>
       <c r="II5" s="20"/>
     </row>
-    <row r="6" spans="1:244" s="129" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="117">
+    <row r="6" spans="1:244" s="112" customFormat="1">
+      <c r="A6" s="100">
         <v>10</v>
       </c>
-      <c r="B6" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="128"/>
-      <c r="AP6" s="128"/>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="128"/>
-      <c r="AS6" s="128"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="128"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="128"/>
-      <c r="AY6" s="128"/>
-      <c r="AZ6" s="128"/>
-      <c r="BA6" s="128"/>
-      <c r="BB6" s="128"/>
-      <c r="BC6" s="128"/>
-      <c r="BD6" s="128"/>
-      <c r="BE6" s="128"/>
-      <c r="BF6" s="128"/>
-      <c r="BG6" s="128"/>
-      <c r="BH6" s="128"/>
-      <c r="BI6" s="128"/>
-      <c r="BJ6" s="128"/>
-      <c r="BK6" s="128"/>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="128"/>
-      <c r="BO6" s="128"/>
-      <c r="BP6" s="128"/>
-      <c r="BQ6" s="128"/>
-      <c r="BR6" s="128"/>
-      <c r="BS6" s="128"/>
-      <c r="BT6" s="128"/>
-      <c r="BU6" s="128"/>
-      <c r="BV6" s="128"/>
-      <c r="BW6" s="128"/>
-      <c r="BX6" s="128"/>
-      <c r="BY6" s="128"/>
-      <c r="BZ6" s="128"/>
-      <c r="CA6" s="128"/>
-      <c r="CB6" s="128"/>
-      <c r="CC6" s="128"/>
-      <c r="CD6" s="128"/>
-      <c r="CE6" s="128"/>
-      <c r="CF6" s="128"/>
-      <c r="CG6" s="128"/>
-      <c r="CH6" s="128"/>
-      <c r="CI6" s="128"/>
-      <c r="CJ6" s="128"/>
-      <c r="CK6" s="128"/>
-      <c r="CL6" s="128"/>
-      <c r="CM6" s="128"/>
-      <c r="CN6" s="128"/>
-      <c r="CO6" s="128"/>
-      <c r="CP6" s="128"/>
-      <c r="CQ6" s="128"/>
-      <c r="CR6" s="128"/>
-      <c r="CS6" s="128"/>
-      <c r="CT6" s="128"/>
-      <c r="CU6" s="128"/>
-      <c r="CV6" s="128"/>
-      <c r="CW6" s="128"/>
-      <c r="CX6" s="128"/>
-      <c r="CY6" s="128"/>
-      <c r="CZ6" s="128"/>
-      <c r="DA6" s="128"/>
-      <c r="DB6" s="128"/>
-      <c r="DC6" s="128"/>
-      <c r="DD6" s="128"/>
-      <c r="DE6" s="128"/>
-      <c r="DF6" s="128"/>
-      <c r="DG6" s="128"/>
-      <c r="DH6" s="128"/>
-      <c r="DI6" s="128"/>
-      <c r="DJ6" s="128"/>
-      <c r="DK6" s="128"/>
-      <c r="DL6" s="128"/>
-      <c r="DM6" s="128"/>
-      <c r="DN6" s="128"/>
-      <c r="DO6" s="128"/>
-      <c r="DP6" s="128"/>
-      <c r="DQ6" s="128"/>
-      <c r="DR6" s="128"/>
-      <c r="DS6" s="128"/>
-      <c r="DT6" s="128"/>
-      <c r="DU6" s="128"/>
-      <c r="DV6" s="128"/>
-      <c r="DW6" s="128"/>
-      <c r="DX6" s="128"/>
-      <c r="DY6" s="128"/>
-      <c r="DZ6" s="128"/>
-      <c r="EA6" s="128"/>
-      <c r="EB6" s="128"/>
-      <c r="EC6" s="128"/>
-      <c r="ED6" s="128"/>
-      <c r="EE6" s="128"/>
-      <c r="EF6" s="128"/>
-      <c r="EG6" s="128"/>
-      <c r="EH6" s="128"/>
-      <c r="EI6" s="128"/>
-      <c r="EJ6" s="128"/>
-      <c r="EK6" s="128"/>
-      <c r="EL6" s="128"/>
-      <c r="EM6" s="128"/>
-      <c r="EN6" s="128"/>
-      <c r="EO6" s="128"/>
-      <c r="EP6" s="128"/>
-      <c r="EQ6" s="128"/>
-      <c r="ER6" s="128"/>
-      <c r="ES6" s="128"/>
-      <c r="ET6" s="128"/>
-      <c r="EU6" s="128"/>
-      <c r="EV6" s="128"/>
-      <c r="EW6" s="128"/>
-      <c r="EX6" s="128"/>
-      <c r="EY6" s="128"/>
-      <c r="EZ6" s="128"/>
-      <c r="FA6" s="128"/>
-      <c r="FB6" s="128"/>
-      <c r="FC6" s="128"/>
-      <c r="FD6" s="128"/>
-      <c r="FE6" s="128"/>
-      <c r="FF6" s="128"/>
-      <c r="FG6" s="128"/>
-      <c r="FH6" s="128"/>
-      <c r="FI6" s="128"/>
-      <c r="FJ6" s="128"/>
-      <c r="FK6" s="128"/>
-      <c r="FL6" s="128"/>
-      <c r="FM6" s="128"/>
-      <c r="FN6" s="128"/>
-      <c r="FO6" s="128"/>
-      <c r="FP6" s="128"/>
-      <c r="FQ6" s="128"/>
-      <c r="FR6" s="128"/>
-      <c r="FS6" s="128"/>
-      <c r="FT6" s="128"/>
-      <c r="FU6" s="128"/>
-      <c r="FV6" s="128"/>
-      <c r="FW6" s="128"/>
-      <c r="FX6" s="128"/>
-      <c r="FY6" s="128"/>
-      <c r="FZ6" s="128"/>
-      <c r="GA6" s="128"/>
-      <c r="GB6" s="128"/>
-      <c r="GC6" s="128"/>
-      <c r="GD6" s="128"/>
-      <c r="GE6" s="128"/>
-      <c r="GF6" s="128"/>
-      <c r="GG6" s="128"/>
-      <c r="GH6" s="128"/>
-      <c r="GI6" s="128"/>
-      <c r="GJ6" s="128"/>
-      <c r="GK6" s="128"/>
-      <c r="GL6" s="128"/>
-      <c r="GM6" s="128"/>
-      <c r="GN6" s="128"/>
-      <c r="GO6" s="128"/>
-      <c r="GP6" s="128"/>
-      <c r="GQ6" s="128"/>
-      <c r="GR6" s="128"/>
-      <c r="GS6" s="128"/>
-      <c r="GT6" s="128"/>
-      <c r="GU6" s="128"/>
-      <c r="GV6" s="128"/>
-      <c r="GW6" s="128"/>
-      <c r="GX6" s="128"/>
-      <c r="GY6" s="128"/>
-      <c r="GZ6" s="128"/>
-      <c r="HA6" s="128"/>
-      <c r="HB6" s="128"/>
-      <c r="HC6" s="128"/>
-      <c r="HD6" s="128"/>
-      <c r="HE6" s="128"/>
-      <c r="HF6" s="128"/>
-      <c r="HG6" s="128"/>
-      <c r="HH6" s="128"/>
-      <c r="HI6" s="128"/>
-      <c r="HJ6" s="128"/>
-      <c r="HK6" s="128"/>
-      <c r="HL6" s="128"/>
-      <c r="HM6" s="128"/>
-      <c r="HN6" s="128"/>
-      <c r="HO6" s="128"/>
-      <c r="HP6" s="128"/>
-      <c r="HQ6" s="128"/>
-      <c r="HR6" s="128"/>
-      <c r="HS6" s="128"/>
-      <c r="HT6" s="128"/>
-      <c r="HU6" s="128"/>
-      <c r="HV6" s="128"/>
-      <c r="HW6" s="128"/>
-      <c r="HX6" s="128"/>
-      <c r="HY6" s="128"/>
-      <c r="HZ6" s="128"/>
-      <c r="IA6" s="128"/>
-      <c r="IB6" s="128"/>
-      <c r="IC6" s="128"/>
-      <c r="ID6" s="128"/>
-      <c r="IE6" s="128"/>
-      <c r="IF6" s="128"/>
-      <c r="IG6" s="128"/>
-      <c r="IH6" s="128"/>
-      <c r="II6" s="128"/>
-    </row>
-    <row r="7" spans="1:244" s="129" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="117">
+      <c r="B6" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="110"/>
+      <c r="F6" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="111"/>
+      <c r="BJ6" s="111"/>
+      <c r="BK6" s="111"/>
+      <c r="BL6" s="111"/>
+      <c r="BM6" s="111"/>
+      <c r="BN6" s="111"/>
+      <c r="BO6" s="111"/>
+      <c r="BP6" s="111"/>
+      <c r="BQ6" s="111"/>
+      <c r="BR6" s="111"/>
+      <c r="BS6" s="111"/>
+      <c r="BT6" s="111"/>
+      <c r="BU6" s="111"/>
+      <c r="BV6" s="111"/>
+      <c r="BW6" s="111"/>
+      <c r="BX6" s="111"/>
+      <c r="BY6" s="111"/>
+      <c r="BZ6" s="111"/>
+      <c r="CA6" s="111"/>
+      <c r="CB6" s="111"/>
+      <c r="CC6" s="111"/>
+      <c r="CD6" s="111"/>
+      <c r="CE6" s="111"/>
+      <c r="CF6" s="111"/>
+      <c r="CG6" s="111"/>
+      <c r="CH6" s="111"/>
+      <c r="CI6" s="111"/>
+      <c r="CJ6" s="111"/>
+      <c r="CK6" s="111"/>
+      <c r="CL6" s="111"/>
+      <c r="CM6" s="111"/>
+      <c r="CN6" s="111"/>
+      <c r="CO6" s="111"/>
+      <c r="CP6" s="111"/>
+      <c r="CQ6" s="111"/>
+      <c r="CR6" s="111"/>
+      <c r="CS6" s="111"/>
+      <c r="CT6" s="111"/>
+      <c r="CU6" s="111"/>
+      <c r="CV6" s="111"/>
+      <c r="CW6" s="111"/>
+      <c r="CX6" s="111"/>
+      <c r="CY6" s="111"/>
+      <c r="CZ6" s="111"/>
+      <c r="DA6" s="111"/>
+      <c r="DB6" s="111"/>
+      <c r="DC6" s="111"/>
+      <c r="DD6" s="111"/>
+      <c r="DE6" s="111"/>
+      <c r="DF6" s="111"/>
+      <c r="DG6" s="111"/>
+      <c r="DH6" s="111"/>
+      <c r="DI6" s="111"/>
+      <c r="DJ6" s="111"/>
+      <c r="DK6" s="111"/>
+      <c r="DL6" s="111"/>
+      <c r="DM6" s="111"/>
+      <c r="DN6" s="111"/>
+      <c r="DO6" s="111"/>
+      <c r="DP6" s="111"/>
+      <c r="DQ6" s="111"/>
+      <c r="DR6" s="111"/>
+      <c r="DS6" s="111"/>
+      <c r="DT6" s="111"/>
+      <c r="DU6" s="111"/>
+      <c r="DV6" s="111"/>
+      <c r="DW6" s="111"/>
+      <c r="DX6" s="111"/>
+      <c r="DY6" s="111"/>
+      <c r="DZ6" s="111"/>
+      <c r="EA6" s="111"/>
+      <c r="EB6" s="111"/>
+      <c r="EC6" s="111"/>
+      <c r="ED6" s="111"/>
+      <c r="EE6" s="111"/>
+      <c r="EF6" s="111"/>
+      <c r="EG6" s="111"/>
+      <c r="EH6" s="111"/>
+      <c r="EI6" s="111"/>
+      <c r="EJ6" s="111"/>
+      <c r="EK6" s="111"/>
+      <c r="EL6" s="111"/>
+      <c r="EM6" s="111"/>
+      <c r="EN6" s="111"/>
+      <c r="EO6" s="111"/>
+      <c r="EP6" s="111"/>
+      <c r="EQ6" s="111"/>
+      <c r="ER6" s="111"/>
+      <c r="ES6" s="111"/>
+      <c r="ET6" s="111"/>
+      <c r="EU6" s="111"/>
+      <c r="EV6" s="111"/>
+      <c r="EW6" s="111"/>
+      <c r="EX6" s="111"/>
+      <c r="EY6" s="111"/>
+      <c r="EZ6" s="111"/>
+      <c r="FA6" s="111"/>
+      <c r="FB6" s="111"/>
+      <c r="FC6" s="111"/>
+      <c r="FD6" s="111"/>
+      <c r="FE6" s="111"/>
+      <c r="FF6" s="111"/>
+      <c r="FG6" s="111"/>
+      <c r="FH6" s="111"/>
+      <c r="FI6" s="111"/>
+      <c r="FJ6" s="111"/>
+      <c r="FK6" s="111"/>
+      <c r="FL6" s="111"/>
+      <c r="FM6" s="111"/>
+      <c r="FN6" s="111"/>
+      <c r="FO6" s="111"/>
+      <c r="FP6" s="111"/>
+      <c r="FQ6" s="111"/>
+      <c r="FR6" s="111"/>
+      <c r="FS6" s="111"/>
+      <c r="FT6" s="111"/>
+      <c r="FU6" s="111"/>
+      <c r="FV6" s="111"/>
+      <c r="FW6" s="111"/>
+      <c r="FX6" s="111"/>
+      <c r="FY6" s="111"/>
+      <c r="FZ6" s="111"/>
+      <c r="GA6" s="111"/>
+      <c r="GB6" s="111"/>
+      <c r="GC6" s="111"/>
+      <c r="GD6" s="111"/>
+      <c r="GE6" s="111"/>
+      <c r="GF6" s="111"/>
+      <c r="GG6" s="111"/>
+      <c r="GH6" s="111"/>
+      <c r="GI6" s="111"/>
+      <c r="GJ6" s="111"/>
+      <c r="GK6" s="111"/>
+      <c r="GL6" s="111"/>
+      <c r="GM6" s="111"/>
+      <c r="GN6" s="111"/>
+      <c r="GO6" s="111"/>
+      <c r="GP6" s="111"/>
+      <c r="GQ6" s="111"/>
+      <c r="GR6" s="111"/>
+      <c r="GS6" s="111"/>
+      <c r="GT6" s="111"/>
+      <c r="GU6" s="111"/>
+      <c r="GV6" s="111"/>
+      <c r="GW6" s="111"/>
+      <c r="GX6" s="111"/>
+      <c r="GY6" s="111"/>
+      <c r="GZ6" s="111"/>
+      <c r="HA6" s="111"/>
+      <c r="HB6" s="111"/>
+      <c r="HC6" s="111"/>
+      <c r="HD6" s="111"/>
+      <c r="HE6" s="111"/>
+      <c r="HF6" s="111"/>
+      <c r="HG6" s="111"/>
+      <c r="HH6" s="111"/>
+      <c r="HI6" s="111"/>
+      <c r="HJ6" s="111"/>
+      <c r="HK6" s="111"/>
+      <c r="HL6" s="111"/>
+      <c r="HM6" s="111"/>
+      <c r="HN6" s="111"/>
+      <c r="HO6" s="111"/>
+      <c r="HP6" s="111"/>
+      <c r="HQ6" s="111"/>
+      <c r="HR6" s="111"/>
+      <c r="HS6" s="111"/>
+      <c r="HT6" s="111"/>
+      <c r="HU6" s="111"/>
+      <c r="HV6" s="111"/>
+      <c r="HW6" s="111"/>
+      <c r="HX6" s="111"/>
+      <c r="HY6" s="111"/>
+      <c r="HZ6" s="111"/>
+      <c r="IA6" s="111"/>
+      <c r="IB6" s="111"/>
+      <c r="IC6" s="111"/>
+      <c r="ID6" s="111"/>
+      <c r="IE6" s="111"/>
+      <c r="IF6" s="111"/>
+      <c r="IG6" s="111"/>
+      <c r="IH6" s="111"/>
+      <c r="II6" s="111"/>
+    </row>
+    <row r="7" spans="1:244" s="112" customFormat="1">
+      <c r="A7" s="100">
         <v>11</v>
       </c>
-      <c r="B7" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="131" t="s">
+      <c r="B7" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="128"/>
-      <c r="AS7" s="128"/>
-      <c r="AT7" s="128"/>
-      <c r="AU7" s="128"/>
-      <c r="AV7" s="128"/>
-      <c r="AW7" s="128"/>
-      <c r="AX7" s="128"/>
-      <c r="AY7" s="128"/>
-      <c r="AZ7" s="128"/>
-      <c r="BA7" s="128"/>
-      <c r="BB7" s="128"/>
-      <c r="BC7" s="128"/>
-      <c r="BD7" s="128"/>
-      <c r="BE7" s="128"/>
-      <c r="BF7" s="128"/>
-      <c r="BG7" s="128"/>
-      <c r="BH7" s="128"/>
-      <c r="BI7" s="128"/>
-      <c r="BJ7" s="128"/>
-      <c r="BK7" s="128"/>
-      <c r="BL7" s="128"/>
-      <c r="BM7" s="128"/>
-      <c r="BN7" s="128"/>
-      <c r="BO7" s="128"/>
-      <c r="BP7" s="128"/>
-      <c r="BQ7" s="128"/>
-      <c r="BR7" s="128"/>
-      <c r="BS7" s="128"/>
-      <c r="BT7" s="128"/>
-      <c r="BU7" s="128"/>
-      <c r="BV7" s="128"/>
-      <c r="BW7" s="128"/>
-      <c r="BX7" s="128"/>
-      <c r="BY7" s="128"/>
-      <c r="BZ7" s="128"/>
-      <c r="CA7" s="128"/>
-      <c r="CB7" s="128"/>
-      <c r="CC7" s="128"/>
-      <c r="CD7" s="128"/>
-      <c r="CE7" s="128"/>
-      <c r="CF7" s="128"/>
-      <c r="CG7" s="128"/>
-      <c r="CH7" s="128"/>
-      <c r="CI7" s="128"/>
-      <c r="CJ7" s="128"/>
-      <c r="CK7" s="128"/>
-      <c r="CL7" s="128"/>
-      <c r="CM7" s="128"/>
-      <c r="CN7" s="128"/>
-      <c r="CO7" s="128"/>
-      <c r="CP7" s="128"/>
-      <c r="CQ7" s="128"/>
-      <c r="CR7" s="128"/>
-      <c r="CS7" s="128"/>
-      <c r="CT7" s="128"/>
-      <c r="CU7" s="128"/>
-      <c r="CV7" s="128"/>
-      <c r="CW7" s="128"/>
-      <c r="CX7" s="128"/>
-      <c r="CY7" s="128"/>
-      <c r="CZ7" s="128"/>
-      <c r="DA7" s="128"/>
-      <c r="DB7" s="128"/>
-      <c r="DC7" s="128"/>
-      <c r="DD7" s="128"/>
-      <c r="DE7" s="128"/>
-      <c r="DF7" s="128"/>
-      <c r="DG7" s="128"/>
-      <c r="DH7" s="128"/>
-      <c r="DI7" s="128"/>
-      <c r="DJ7" s="128"/>
-      <c r="DK7" s="128"/>
-      <c r="DL7" s="128"/>
-      <c r="DM7" s="128"/>
-      <c r="DN7" s="128"/>
-      <c r="DO7" s="128"/>
-      <c r="DP7" s="128"/>
-      <c r="DQ7" s="128"/>
-      <c r="DR7" s="128"/>
-      <c r="DS7" s="128"/>
-      <c r="DT7" s="128"/>
-      <c r="DU7" s="128"/>
-      <c r="DV7" s="128"/>
-      <c r="DW7" s="128"/>
-      <c r="DX7" s="128"/>
-      <c r="DY7" s="128"/>
-      <c r="DZ7" s="128"/>
-      <c r="EA7" s="128"/>
-      <c r="EB7" s="128"/>
-      <c r="EC7" s="128"/>
-      <c r="ED7" s="128"/>
-      <c r="EE7" s="128"/>
-      <c r="EF7" s="128"/>
-      <c r="EG7" s="128"/>
-      <c r="EH7" s="128"/>
-      <c r="EI7" s="128"/>
-      <c r="EJ7" s="128"/>
-      <c r="EK7" s="128"/>
-      <c r="EL7" s="128"/>
-      <c r="EM7" s="128"/>
-      <c r="EN7" s="128"/>
-      <c r="EO7" s="128"/>
-      <c r="EP7" s="128"/>
-      <c r="EQ7" s="128"/>
-      <c r="ER7" s="128"/>
-      <c r="ES7" s="128"/>
-      <c r="ET7" s="128"/>
-      <c r="EU7" s="128"/>
-      <c r="EV7" s="128"/>
-      <c r="EW7" s="128"/>
-      <c r="EX7" s="128"/>
-      <c r="EY7" s="128"/>
-      <c r="EZ7" s="128"/>
-      <c r="FA7" s="128"/>
-      <c r="FB7" s="128"/>
-      <c r="FC7" s="128"/>
-      <c r="FD7" s="128"/>
-      <c r="FE7" s="128"/>
-      <c r="FF7" s="128"/>
-      <c r="FG7" s="128"/>
-      <c r="FH7" s="128"/>
-      <c r="FI7" s="128"/>
-      <c r="FJ7" s="128"/>
-      <c r="FK7" s="128"/>
-      <c r="FL7" s="128"/>
-      <c r="FM7" s="128"/>
-      <c r="FN7" s="128"/>
-      <c r="FO7" s="128"/>
-      <c r="FP7" s="128"/>
-      <c r="FQ7" s="128"/>
-      <c r="FR7" s="128"/>
-      <c r="FS7" s="128"/>
-      <c r="FT7" s="128"/>
-      <c r="FU7" s="128"/>
-      <c r="FV7" s="128"/>
-      <c r="FW7" s="128"/>
-      <c r="FX7" s="128"/>
-      <c r="FY7" s="128"/>
-      <c r="FZ7" s="128"/>
-      <c r="GA7" s="128"/>
-      <c r="GB7" s="128"/>
-      <c r="GC7" s="128"/>
-      <c r="GD7" s="128"/>
-      <c r="GE7" s="128"/>
-      <c r="GF7" s="128"/>
-      <c r="GG7" s="128"/>
-      <c r="GH7" s="128"/>
-      <c r="GI7" s="128"/>
-      <c r="GJ7" s="128"/>
-      <c r="GK7" s="128"/>
-      <c r="GL7" s="128"/>
-      <c r="GM7" s="128"/>
-      <c r="GN7" s="128"/>
-      <c r="GO7" s="128"/>
-      <c r="GP7" s="128"/>
-      <c r="GQ7" s="128"/>
-      <c r="GR7" s="128"/>
-      <c r="GS7" s="128"/>
-      <c r="GT7" s="128"/>
-      <c r="GU7" s="128"/>
-      <c r="GV7" s="128"/>
-      <c r="GW7" s="128"/>
-      <c r="GX7" s="128"/>
-      <c r="GY7" s="128"/>
-      <c r="GZ7" s="128"/>
-      <c r="HA7" s="128"/>
-      <c r="HB7" s="128"/>
-      <c r="HC7" s="128"/>
-      <c r="HD7" s="128"/>
-      <c r="HE7" s="128"/>
-      <c r="HF7" s="128"/>
-      <c r="HG7" s="128"/>
-      <c r="HH7" s="128"/>
-      <c r="HI7" s="128"/>
-      <c r="HJ7" s="128"/>
-      <c r="HK7" s="128"/>
-      <c r="HL7" s="128"/>
-      <c r="HM7" s="128"/>
-      <c r="HN7" s="128"/>
-      <c r="HO7" s="128"/>
-      <c r="HP7" s="128"/>
-      <c r="HQ7" s="128"/>
-      <c r="HR7" s="128"/>
-      <c r="HS7" s="128"/>
-      <c r="HT7" s="128"/>
-      <c r="HU7" s="128"/>
-      <c r="HV7" s="128"/>
-      <c r="HW7" s="128"/>
-      <c r="HX7" s="128"/>
-      <c r="HY7" s="128"/>
-      <c r="HZ7" s="128"/>
-      <c r="IA7" s="128"/>
-      <c r="IB7" s="128"/>
-      <c r="IC7" s="128"/>
-      <c r="ID7" s="128"/>
-      <c r="IE7" s="128"/>
-      <c r="IF7" s="128"/>
-      <c r="IG7" s="128"/>
-      <c r="IH7" s="128"/>
-      <c r="II7" s="128"/>
-    </row>
-    <row r="8" spans="1:244" s="129" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="117">
+      <c r="E7" s="110"/>
+      <c r="F7" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
+      <c r="BP7" s="111"/>
+      <c r="BQ7" s="111"/>
+      <c r="BR7" s="111"/>
+      <c r="BS7" s="111"/>
+      <c r="BT7" s="111"/>
+      <c r="BU7" s="111"/>
+      <c r="BV7" s="111"/>
+      <c r="BW7" s="111"/>
+      <c r="BX7" s="111"/>
+      <c r="BY7" s="111"/>
+      <c r="BZ7" s="111"/>
+      <c r="CA7" s="111"/>
+      <c r="CB7" s="111"/>
+      <c r="CC7" s="111"/>
+      <c r="CD7" s="111"/>
+      <c r="CE7" s="111"/>
+      <c r="CF7" s="111"/>
+      <c r="CG7" s="111"/>
+      <c r="CH7" s="111"/>
+      <c r="CI7" s="111"/>
+      <c r="CJ7" s="111"/>
+      <c r="CK7" s="111"/>
+      <c r="CL7" s="111"/>
+      <c r="CM7" s="111"/>
+      <c r="CN7" s="111"/>
+      <c r="CO7" s="111"/>
+      <c r="CP7" s="111"/>
+      <c r="CQ7" s="111"/>
+      <c r="CR7" s="111"/>
+      <c r="CS7" s="111"/>
+      <c r="CT7" s="111"/>
+      <c r="CU7" s="111"/>
+      <c r="CV7" s="111"/>
+      <c r="CW7" s="111"/>
+      <c r="CX7" s="111"/>
+      <c r="CY7" s="111"/>
+      <c r="CZ7" s="111"/>
+      <c r="DA7" s="111"/>
+      <c r="DB7" s="111"/>
+      <c r="DC7" s="111"/>
+      <c r="DD7" s="111"/>
+      <c r="DE7" s="111"/>
+      <c r="DF7" s="111"/>
+      <c r="DG7" s="111"/>
+      <c r="DH7" s="111"/>
+      <c r="DI7" s="111"/>
+      <c r="DJ7" s="111"/>
+      <c r="DK7" s="111"/>
+      <c r="DL7" s="111"/>
+      <c r="DM7" s="111"/>
+      <c r="DN7" s="111"/>
+      <c r="DO7" s="111"/>
+      <c r="DP7" s="111"/>
+      <c r="DQ7" s="111"/>
+      <c r="DR7" s="111"/>
+      <c r="DS7" s="111"/>
+      <c r="DT7" s="111"/>
+      <c r="DU7" s="111"/>
+      <c r="DV7" s="111"/>
+      <c r="DW7" s="111"/>
+      <c r="DX7" s="111"/>
+      <c r="DY7" s="111"/>
+      <c r="DZ7" s="111"/>
+      <c r="EA7" s="111"/>
+      <c r="EB7" s="111"/>
+      <c r="EC7" s="111"/>
+      <c r="ED7" s="111"/>
+      <c r="EE7" s="111"/>
+      <c r="EF7" s="111"/>
+      <c r="EG7" s="111"/>
+      <c r="EH7" s="111"/>
+      <c r="EI7" s="111"/>
+      <c r="EJ7" s="111"/>
+      <c r="EK7" s="111"/>
+      <c r="EL7" s="111"/>
+      <c r="EM7" s="111"/>
+      <c r="EN7" s="111"/>
+      <c r="EO7" s="111"/>
+      <c r="EP7" s="111"/>
+      <c r="EQ7" s="111"/>
+      <c r="ER7" s="111"/>
+      <c r="ES7" s="111"/>
+      <c r="ET7" s="111"/>
+      <c r="EU7" s="111"/>
+      <c r="EV7" s="111"/>
+      <c r="EW7" s="111"/>
+      <c r="EX7" s="111"/>
+      <c r="EY7" s="111"/>
+      <c r="EZ7" s="111"/>
+      <c r="FA7" s="111"/>
+      <c r="FB7" s="111"/>
+      <c r="FC7" s="111"/>
+      <c r="FD7" s="111"/>
+      <c r="FE7" s="111"/>
+      <c r="FF7" s="111"/>
+      <c r="FG7" s="111"/>
+      <c r="FH7" s="111"/>
+      <c r="FI7" s="111"/>
+      <c r="FJ7" s="111"/>
+      <c r="FK7" s="111"/>
+      <c r="FL7" s="111"/>
+      <c r="FM7" s="111"/>
+      <c r="FN7" s="111"/>
+      <c r="FO7" s="111"/>
+      <c r="FP7" s="111"/>
+      <c r="FQ7" s="111"/>
+      <c r="FR7" s="111"/>
+      <c r="FS7" s="111"/>
+      <c r="FT7" s="111"/>
+      <c r="FU7" s="111"/>
+      <c r="FV7" s="111"/>
+      <c r="FW7" s="111"/>
+      <c r="FX7" s="111"/>
+      <c r="FY7" s="111"/>
+      <c r="FZ7" s="111"/>
+      <c r="GA7" s="111"/>
+      <c r="GB7" s="111"/>
+      <c r="GC7" s="111"/>
+      <c r="GD7" s="111"/>
+      <c r="GE7" s="111"/>
+      <c r="GF7" s="111"/>
+      <c r="GG7" s="111"/>
+      <c r="GH7" s="111"/>
+      <c r="GI7" s="111"/>
+      <c r="GJ7" s="111"/>
+      <c r="GK7" s="111"/>
+      <c r="GL7" s="111"/>
+      <c r="GM7" s="111"/>
+      <c r="GN7" s="111"/>
+      <c r="GO7" s="111"/>
+      <c r="GP7" s="111"/>
+      <c r="GQ7" s="111"/>
+      <c r="GR7" s="111"/>
+      <c r="GS7" s="111"/>
+      <c r="GT7" s="111"/>
+      <c r="GU7" s="111"/>
+      <c r="GV7" s="111"/>
+      <c r="GW7" s="111"/>
+      <c r="GX7" s="111"/>
+      <c r="GY7" s="111"/>
+      <c r="GZ7" s="111"/>
+      <c r="HA7" s="111"/>
+      <c r="HB7" s="111"/>
+      <c r="HC7" s="111"/>
+      <c r="HD7" s="111"/>
+      <c r="HE7" s="111"/>
+      <c r="HF7" s="111"/>
+      <c r="HG7" s="111"/>
+      <c r="HH7" s="111"/>
+      <c r="HI7" s="111"/>
+      <c r="HJ7" s="111"/>
+      <c r="HK7" s="111"/>
+      <c r="HL7" s="111"/>
+      <c r="HM7" s="111"/>
+      <c r="HN7" s="111"/>
+      <c r="HO7" s="111"/>
+      <c r="HP7" s="111"/>
+      <c r="HQ7" s="111"/>
+      <c r="HR7" s="111"/>
+      <c r="HS7" s="111"/>
+      <c r="HT7" s="111"/>
+      <c r="HU7" s="111"/>
+      <c r="HV7" s="111"/>
+      <c r="HW7" s="111"/>
+      <c r="HX7" s="111"/>
+      <c r="HY7" s="111"/>
+      <c r="HZ7" s="111"/>
+      <c r="IA7" s="111"/>
+      <c r="IB7" s="111"/>
+      <c r="IC7" s="111"/>
+      <c r="ID7" s="111"/>
+      <c r="IE7" s="111"/>
+      <c r="IF7" s="111"/>
+      <c r="IG7" s="111"/>
+      <c r="IH7" s="111"/>
+      <c r="II7" s="111"/>
+    </row>
+    <row r="8" spans="1:244" s="112" customFormat="1">
+      <c r="A8" s="100">
         <v>12</v>
       </c>
-      <c r="B8" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="132" t="s">
+      <c r="B8" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="134"/>
+      <c r="D8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="128"/>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="128"/>
-      <c r="AJ8" s="128"/>
-      <c r="AK8" s="128"/>
-      <c r="AL8" s="128"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="128"/>
-      <c r="AO8" s="128"/>
-      <c r="AP8" s="128"/>
-      <c r="AQ8" s="128"/>
-      <c r="AR8" s="128"/>
-      <c r="AS8" s="128"/>
-      <c r="AT8" s="128"/>
-      <c r="AU8" s="128"/>
-      <c r="AV8" s="128"/>
-      <c r="AW8" s="128"/>
-      <c r="AX8" s="128"/>
-      <c r="AY8" s="128"/>
-      <c r="AZ8" s="128"/>
-      <c r="BA8" s="128"/>
-      <c r="BB8" s="128"/>
-      <c r="BC8" s="128"/>
-      <c r="BD8" s="128"/>
-      <c r="BE8" s="128"/>
-      <c r="BF8" s="128"/>
-      <c r="BG8" s="128"/>
-      <c r="BH8" s="128"/>
-      <c r="BI8" s="128"/>
-      <c r="BJ8" s="128"/>
-      <c r="BK8" s="128"/>
-      <c r="BL8" s="128"/>
-      <c r="BM8" s="128"/>
-      <c r="BN8" s="128"/>
-      <c r="BO8" s="128"/>
-      <c r="BP8" s="128"/>
-      <c r="BQ8" s="128"/>
-      <c r="BR8" s="128"/>
-      <c r="BS8" s="128"/>
-      <c r="BT8" s="128"/>
-      <c r="BU8" s="128"/>
-      <c r="BV8" s="128"/>
-      <c r="BW8" s="128"/>
-      <c r="BX8" s="128"/>
-      <c r="BY8" s="128"/>
-      <c r="BZ8" s="128"/>
-      <c r="CA8" s="128"/>
-      <c r="CB8" s="128"/>
-      <c r="CC8" s="128"/>
-      <c r="CD8" s="128"/>
-      <c r="CE8" s="128"/>
-      <c r="CF8" s="128"/>
-      <c r="CG8" s="128"/>
-      <c r="CH8" s="128"/>
-      <c r="CI8" s="128"/>
-      <c r="CJ8" s="128"/>
-      <c r="CK8" s="128"/>
-      <c r="CL8" s="128"/>
-      <c r="CM8" s="128"/>
-      <c r="CN8" s="128"/>
-      <c r="CO8" s="128"/>
-      <c r="CP8" s="128"/>
-      <c r="CQ8" s="128"/>
-      <c r="CR8" s="128"/>
-      <c r="CS8" s="128"/>
-      <c r="CT8" s="128"/>
-      <c r="CU8" s="128"/>
-      <c r="CV8" s="128"/>
-      <c r="CW8" s="128"/>
-      <c r="CX8" s="128"/>
-      <c r="CY8" s="128"/>
-      <c r="CZ8" s="128"/>
-      <c r="DA8" s="128"/>
-      <c r="DB8" s="128"/>
-      <c r="DC8" s="128"/>
-      <c r="DD8" s="128"/>
-      <c r="DE8" s="128"/>
-      <c r="DF8" s="128"/>
-      <c r="DG8" s="128"/>
-      <c r="DH8" s="128"/>
-      <c r="DI8" s="128"/>
-      <c r="DJ8" s="128"/>
-      <c r="DK8" s="128"/>
-      <c r="DL8" s="128"/>
-      <c r="DM8" s="128"/>
-      <c r="DN8" s="128"/>
-      <c r="DO8" s="128"/>
-      <c r="DP8" s="128"/>
-      <c r="DQ8" s="128"/>
-      <c r="DR8" s="128"/>
-      <c r="DS8" s="128"/>
-      <c r="DT8" s="128"/>
-      <c r="DU8" s="128"/>
-      <c r="DV8" s="128"/>
-      <c r="DW8" s="128"/>
-      <c r="DX8" s="128"/>
-      <c r="DY8" s="128"/>
-      <c r="DZ8" s="128"/>
-      <c r="EA8" s="128"/>
-      <c r="EB8" s="128"/>
-      <c r="EC8" s="128"/>
-      <c r="ED8" s="128"/>
-      <c r="EE8" s="128"/>
-      <c r="EF8" s="128"/>
-      <c r="EG8" s="128"/>
-      <c r="EH8" s="128"/>
-      <c r="EI8" s="128"/>
-      <c r="EJ8" s="128"/>
-      <c r="EK8" s="128"/>
-      <c r="EL8" s="128"/>
-      <c r="EM8" s="128"/>
-      <c r="EN8" s="128"/>
-      <c r="EO8" s="128"/>
-      <c r="EP8" s="128"/>
-      <c r="EQ8" s="128"/>
-      <c r="ER8" s="128"/>
-      <c r="ES8" s="128"/>
-      <c r="ET8" s="128"/>
-      <c r="EU8" s="128"/>
-      <c r="EV8" s="128"/>
-      <c r="EW8" s="128"/>
-      <c r="EX8" s="128"/>
-      <c r="EY8" s="128"/>
-      <c r="EZ8" s="128"/>
-      <c r="FA8" s="128"/>
-      <c r="FB8" s="128"/>
-      <c r="FC8" s="128"/>
-      <c r="FD8" s="128"/>
-      <c r="FE8" s="128"/>
-      <c r="FF8" s="128"/>
-      <c r="FG8" s="128"/>
-      <c r="FH8" s="128"/>
-      <c r="FI8" s="128"/>
-      <c r="FJ8" s="128"/>
-      <c r="FK8" s="128"/>
-      <c r="FL8" s="128"/>
-      <c r="FM8" s="128"/>
-      <c r="FN8" s="128"/>
-      <c r="FO8" s="128"/>
-      <c r="FP8" s="128"/>
-      <c r="FQ8" s="128"/>
-      <c r="FR8" s="128"/>
-      <c r="FS8" s="128"/>
-      <c r="FT8" s="128"/>
-      <c r="FU8" s="128"/>
-      <c r="FV8" s="128"/>
-      <c r="FW8" s="128"/>
-      <c r="FX8" s="128"/>
-      <c r="FY8" s="128"/>
-      <c r="FZ8" s="128"/>
-      <c r="GA8" s="128"/>
-      <c r="GB8" s="128"/>
-      <c r="GC8" s="128"/>
-      <c r="GD8" s="128"/>
-      <c r="GE8" s="128"/>
-      <c r="GF8" s="128"/>
-      <c r="GG8" s="128"/>
-      <c r="GH8" s="128"/>
-      <c r="GI8" s="128"/>
-      <c r="GJ8" s="128"/>
-      <c r="GK8" s="128"/>
-      <c r="GL8" s="128"/>
-      <c r="GM8" s="128"/>
-      <c r="GN8" s="128"/>
-      <c r="GO8" s="128"/>
-      <c r="GP8" s="128"/>
-      <c r="GQ8" s="128"/>
-      <c r="GR8" s="128"/>
-      <c r="GS8" s="128"/>
-      <c r="GT8" s="128"/>
-      <c r="GU8" s="128"/>
-      <c r="GV8" s="128"/>
-      <c r="GW8" s="128"/>
-      <c r="GX8" s="128"/>
-      <c r="GY8" s="128"/>
-      <c r="GZ8" s="128"/>
-      <c r="HA8" s="128"/>
-      <c r="HB8" s="128"/>
-      <c r="HC8" s="128"/>
-      <c r="HD8" s="128"/>
-      <c r="HE8" s="128"/>
-      <c r="HF8" s="128"/>
-      <c r="HG8" s="128"/>
-      <c r="HH8" s="128"/>
-      <c r="HI8" s="128"/>
-      <c r="HJ8" s="128"/>
-      <c r="HK8" s="128"/>
-      <c r="HL8" s="128"/>
-      <c r="HM8" s="128"/>
-      <c r="HN8" s="128"/>
-      <c r="HO8" s="128"/>
-      <c r="HP8" s="128"/>
-      <c r="HQ8" s="128"/>
-      <c r="HR8" s="128"/>
-      <c r="HS8" s="128"/>
-      <c r="HT8" s="128"/>
-      <c r="HU8" s="128"/>
-      <c r="HV8" s="128"/>
-      <c r="HW8" s="128"/>
-      <c r="HX8" s="128"/>
-      <c r="HY8" s="128"/>
-      <c r="HZ8" s="128"/>
-      <c r="IA8" s="128"/>
-      <c r="IB8" s="128"/>
-      <c r="IC8" s="128"/>
-      <c r="ID8" s="128"/>
-      <c r="IE8" s="128"/>
-      <c r="IF8" s="128"/>
-      <c r="IG8" s="128"/>
-      <c r="IH8" s="128"/>
-      <c r="II8" s="128"/>
-    </row>
-    <row r="9" spans="1:244" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="110"/>
+      <c r="F8" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="111"/>
+      <c r="BR8" s="111"/>
+      <c r="BS8" s="111"/>
+      <c r="BT8" s="111"/>
+      <c r="BU8" s="111"/>
+      <c r="BV8" s="111"/>
+      <c r="BW8" s="111"/>
+      <c r="BX8" s="111"/>
+      <c r="BY8" s="111"/>
+      <c r="BZ8" s="111"/>
+      <c r="CA8" s="111"/>
+      <c r="CB8" s="111"/>
+      <c r="CC8" s="111"/>
+      <c r="CD8" s="111"/>
+      <c r="CE8" s="111"/>
+      <c r="CF8" s="111"/>
+      <c r="CG8" s="111"/>
+      <c r="CH8" s="111"/>
+      <c r="CI8" s="111"/>
+      <c r="CJ8" s="111"/>
+      <c r="CK8" s="111"/>
+      <c r="CL8" s="111"/>
+      <c r="CM8" s="111"/>
+      <c r="CN8" s="111"/>
+      <c r="CO8" s="111"/>
+      <c r="CP8" s="111"/>
+      <c r="CQ8" s="111"/>
+      <c r="CR8" s="111"/>
+      <c r="CS8" s="111"/>
+      <c r="CT8" s="111"/>
+      <c r="CU8" s="111"/>
+      <c r="CV8" s="111"/>
+      <c r="CW8" s="111"/>
+      <c r="CX8" s="111"/>
+      <c r="CY8" s="111"/>
+      <c r="CZ8" s="111"/>
+      <c r="DA8" s="111"/>
+      <c r="DB8" s="111"/>
+      <c r="DC8" s="111"/>
+      <c r="DD8" s="111"/>
+      <c r="DE8" s="111"/>
+      <c r="DF8" s="111"/>
+      <c r="DG8" s="111"/>
+      <c r="DH8" s="111"/>
+      <c r="DI8" s="111"/>
+      <c r="DJ8" s="111"/>
+      <c r="DK8" s="111"/>
+      <c r="DL8" s="111"/>
+      <c r="DM8" s="111"/>
+      <c r="DN8" s="111"/>
+      <c r="DO8" s="111"/>
+      <c r="DP8" s="111"/>
+      <c r="DQ8" s="111"/>
+      <c r="DR8" s="111"/>
+      <c r="DS8" s="111"/>
+      <c r="DT8" s="111"/>
+      <c r="DU8" s="111"/>
+      <c r="DV8" s="111"/>
+      <c r="DW8" s="111"/>
+      <c r="DX8" s="111"/>
+      <c r="DY8" s="111"/>
+      <c r="DZ8" s="111"/>
+      <c r="EA8" s="111"/>
+      <c r="EB8" s="111"/>
+      <c r="EC8" s="111"/>
+      <c r="ED8" s="111"/>
+      <c r="EE8" s="111"/>
+      <c r="EF8" s="111"/>
+      <c r="EG8" s="111"/>
+      <c r="EH8" s="111"/>
+      <c r="EI8" s="111"/>
+      <c r="EJ8" s="111"/>
+      <c r="EK8" s="111"/>
+      <c r="EL8" s="111"/>
+      <c r="EM8" s="111"/>
+      <c r="EN8" s="111"/>
+      <c r="EO8" s="111"/>
+      <c r="EP8" s="111"/>
+      <c r="EQ8" s="111"/>
+      <c r="ER8" s="111"/>
+      <c r="ES8" s="111"/>
+      <c r="ET8" s="111"/>
+      <c r="EU8" s="111"/>
+      <c r="EV8" s="111"/>
+      <c r="EW8" s="111"/>
+      <c r="EX8" s="111"/>
+      <c r="EY8" s="111"/>
+      <c r="EZ8" s="111"/>
+      <c r="FA8" s="111"/>
+      <c r="FB8" s="111"/>
+      <c r="FC8" s="111"/>
+      <c r="FD8" s="111"/>
+      <c r="FE8" s="111"/>
+      <c r="FF8" s="111"/>
+      <c r="FG8" s="111"/>
+      <c r="FH8" s="111"/>
+      <c r="FI8" s="111"/>
+      <c r="FJ8" s="111"/>
+      <c r="FK8" s="111"/>
+      <c r="FL8" s="111"/>
+      <c r="FM8" s="111"/>
+      <c r="FN8" s="111"/>
+      <c r="FO8" s="111"/>
+      <c r="FP8" s="111"/>
+      <c r="FQ8" s="111"/>
+      <c r="FR8" s="111"/>
+      <c r="FS8" s="111"/>
+      <c r="FT8" s="111"/>
+      <c r="FU8" s="111"/>
+      <c r="FV8" s="111"/>
+      <c r="FW8" s="111"/>
+      <c r="FX8" s="111"/>
+      <c r="FY8" s="111"/>
+      <c r="FZ8" s="111"/>
+      <c r="GA8" s="111"/>
+      <c r="GB8" s="111"/>
+      <c r="GC8" s="111"/>
+      <c r="GD8" s="111"/>
+      <c r="GE8" s="111"/>
+      <c r="GF8" s="111"/>
+      <c r="GG8" s="111"/>
+      <c r="GH8" s="111"/>
+      <c r="GI8" s="111"/>
+      <c r="GJ8" s="111"/>
+      <c r="GK8" s="111"/>
+      <c r="GL8" s="111"/>
+      <c r="GM8" s="111"/>
+      <c r="GN8" s="111"/>
+      <c r="GO8" s="111"/>
+      <c r="GP8" s="111"/>
+      <c r="GQ8" s="111"/>
+      <c r="GR8" s="111"/>
+      <c r="GS8" s="111"/>
+      <c r="GT8" s="111"/>
+      <c r="GU8" s="111"/>
+      <c r="GV8" s="111"/>
+      <c r="GW8" s="111"/>
+      <c r="GX8" s="111"/>
+      <c r="GY8" s="111"/>
+      <c r="GZ8" s="111"/>
+      <c r="HA8" s="111"/>
+      <c r="HB8" s="111"/>
+      <c r="HC8" s="111"/>
+      <c r="HD8" s="111"/>
+      <c r="HE8" s="111"/>
+      <c r="HF8" s="111"/>
+      <c r="HG8" s="111"/>
+      <c r="HH8" s="111"/>
+      <c r="HI8" s="111"/>
+      <c r="HJ8" s="111"/>
+      <c r="HK8" s="111"/>
+      <c r="HL8" s="111"/>
+      <c r="HM8" s="111"/>
+      <c r="HN8" s="111"/>
+      <c r="HO8" s="111"/>
+      <c r="HP8" s="111"/>
+      <c r="HQ8" s="111"/>
+      <c r="HR8" s="111"/>
+      <c r="HS8" s="111"/>
+      <c r="HT8" s="111"/>
+      <c r="HU8" s="111"/>
+      <c r="HV8" s="111"/>
+      <c r="HW8" s="111"/>
+      <c r="HX8" s="111"/>
+      <c r="HY8" s="111"/>
+      <c r="HZ8" s="111"/>
+      <c r="IA8" s="111"/>
+      <c r="IB8" s="111"/>
+      <c r="IC8" s="111"/>
+      <c r="ID8" s="111"/>
+      <c r="IE8" s="111"/>
+      <c r="IF8" s="111"/>
+      <c r="IG8" s="111"/>
+      <c r="IH8" s="111"/>
+      <c r="II8" s="111"/>
+    </row>
+    <row r="9" spans="1:244" s="2" customFormat="1">
       <c r="A9" s="25">
         <v>13</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
@@ -4868,22 +4876,22 @@
       <c r="IH9" s="20"/>
       <c r="II9" s="20"/>
     </row>
-    <row r="10" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:244" s="1" customFormat="1">
       <c r="A10" s="25">
         <v>14</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="104" t="s">
-        <v>93</v>
+      <c r="C10" s="136" t="s">
+        <v>86</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="33" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -5124,30 +5132,30 @@
       <c r="II10" s="5"/>
       <c r="IJ10" s="41"/>
     </row>
-    <row r="11" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:244" s="5" customFormat="1">
       <c r="A11" s="25">
         <v>15</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="55" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:244" s="3" customFormat="1">
       <c r="A12" s="25">
         <v>16</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="105"/>
+        <v>84</v>
+      </c>
+      <c r="C12" s="137"/>
       <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
@@ -5394,14 +5402,14 @@
       <c r="II12"/>
       <c r="IJ12"/>
     </row>
-    <row r="13" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:244" s="3" customFormat="1">
       <c r="A13" s="25">
         <v>17</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="105"/>
+        <v>83</v>
+      </c>
+      <c r="C13" s="137"/>
       <c r="D13" s="34" t="s">
         <v>10</v>
       </c>
@@ -5648,14 +5656,14 @@
       <c r="II13"/>
       <c r="IJ13"/>
     </row>
-    <row r="14" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:244" s="3" customFormat="1">
       <c r="A14" s="25">
         <v>18</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="106"/>
+        <v>75</v>
+      </c>
+      <c r="C14" s="138"/>
       <c r="D14" s="81" t="s">
         <v>22</v>
       </c>
@@ -5663,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5904,15 +5912,15 @@
       <c r="II14"/>
       <c r="IJ14"/>
     </row>
-    <row r="15" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:244" s="4" customFormat="1">
       <c r="A15" s="25">
         <v>19</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="107" t="s">
-        <v>84</v>
+      <c r="C15" s="139" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>9</v>
@@ -5921,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6161,14 +6169,14 @@
       <c r="IH15" s="15"/>
       <c r="II15" s="15"/>
     </row>
-    <row r="16" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:244" s="5" customFormat="1">
       <c r="A16" s="25">
         <v>20</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="108"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="28" t="s">
         <v>12</v>
       </c>
@@ -6177,15 +6185,15 @@
       </c>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A17" s="25">
         <v>21</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>5</v>
@@ -6195,15 +6203,15 @@
       </c>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A18" s="25">
         <v>22</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D18" s="62" t="s">
         <v>22</v>
@@ -6212,50 +6220,50 @@
         <v>2</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:244" s="122" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:244" s="105" customFormat="1" ht="28.25" customHeight="1">
+      <c r="A19" s="100">
         <v>23</v>
       </c>
-      <c r="B19" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="133" t="s">
+      <c r="B19" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="117">
         <v>1</v>
       </c>
-      <c r="F19" s="135"/>
-    </row>
-    <row r="20" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="118"/>
+    </row>
+    <row r="20" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="60" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E20" s="32">
         <v>1</v>
       </c>
       <c r="F20" s="59"/>
     </row>
-    <row r="21" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="60" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>5</v>
@@ -6265,49 +6273,49 @@
       </c>
       <c r="F21" s="59"/>
     </row>
-    <row r="22" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="60" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E22" s="32">
         <v>7</v>
       </c>
       <c r="F22" s="59"/>
     </row>
-    <row r="23" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A23" s="25">
         <v>24</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
       <c r="A24" s="25">
         <v>25</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>9</v>
@@ -6554,7 +6562,7 @@
       <c r="IH24" s="15"/>
       <c r="II24" s="15"/>
     </row>
-    <row r="25" spans="1:244" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:244" ht="28.25" customHeight="1">
       <c r="A25" s="25">
         <v>26</v>
       </c>
@@ -6562,7 +6570,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>9</v>
@@ -6572,7 +6580,7 @@
       </c>
       <c r="F25" s="58"/>
     </row>
-    <row r="26" spans="1:244" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:244" ht="28.25" customHeight="1">
       <c r="A26" s="25">
         <v>27</v>
       </c>
@@ -6580,7 +6588,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>9</v>
@@ -6589,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:244" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:244" ht="28.25" customHeight="1">
       <c r="A27" s="25">
         <v>28</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>9</v>
@@ -6609,18 +6617,18 @@
         <v>1</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1">
       <c r="A28" s="25">
         <v>29</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>9</v>
@@ -6629,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -6870,7 +6878,7 @@
       <c r="II28" s="5"/>
       <c r="IJ28" s="41"/>
     </row>
-    <row r="29" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1">
       <c r="A29" s="25">
         <v>30</v>
       </c>
@@ -6878,7 +6886,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>9</v>
@@ -6887,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -7128,7 +7136,7 @@
       <c r="II29" s="5"/>
       <c r="IJ29" s="41"/>
     </row>
-    <row r="30" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
       <c r="A30" s="25">
         <v>31</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>10</v>
@@ -7385,7 +7393,7 @@
       <c r="IH30" s="15"/>
       <c r="II30" s="15"/>
     </row>
-    <row r="31" spans="1:244" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:244" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="25">
         <v>32</v>
       </c>
@@ -7393,7 +7401,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>8</v>
@@ -7641,7 +7649,7 @@
       <c r="II31" s="38"/>
       <c r="IJ31" s="42"/>
     </row>
-    <row r="32" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
       <c r="A32" s="25">
         <v>33</v>
       </c>
@@ -7649,7 +7657,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>9</v>
@@ -7897,15 +7905,15 @@
       <c r="II32" s="3"/>
       <c r="IJ32" s="3"/>
     </row>
-    <row r="33" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
       <c r="A33" s="25">
         <v>34</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D33" s="56" t="s">
         <v>22</v>
@@ -8153,15 +8161,15 @@
       <c r="II33" s="3"/>
       <c r="IJ33" s="3"/>
     </row>
-    <row r="34" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
       <c r="A34" s="25">
         <v>35</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D34" s="84" t="s">
         <v>22</v>
@@ -8409,15 +8417,15 @@
       <c r="II34" s="3"/>
       <c r="IJ34" s="3"/>
     </row>
-    <row r="35" spans="1:244" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:244" ht="30">
       <c r="A35" s="25">
         <v>36</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="144" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>9</v>
@@ -8426,18 +8434,18 @@
         <v>2</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:244" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:244">
       <c r="A36" s="25">
         <v>37</v>
       </c>
-      <c r="B36" s="88" t="s">
-        <v>110</v>
+      <c r="B36" s="87" t="s">
+        <v>159</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D36" s="83" t="s">
         <v>22</v>
@@ -8446,19 +8454,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="IJ36" s="8"/>
     </row>
-    <row r="37" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:244">
       <c r="A37" s="25">
         <v>38</v>
       </c>
-      <c r="B37" s="88" t="s">
-        <v>112</v>
+      <c r="B37" s="87" t="s">
+        <v>102</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D37" s="83" t="s">
         <v>22</v>
@@ -8469,15 +8477,15 @@
       <c r="F37" s="59"/>
       <c r="IJ37" s="8"/>
     </row>
-    <row r="38" spans="1:244" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:244" s="43" customFormat="1">
       <c r="A38" s="25">
         <v>39</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>19</v>
@@ -8486,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
@@ -8727,7 +8735,7 @@
       <c r="II38" s="39"/>
       <c r="IJ38" s="39"/>
     </row>
-    <row r="39" spans="1:244" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:244" s="6" customFormat="1">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="82"/>
@@ -8973,7 +8981,7 @@
       <c r="II39" s="38"/>
       <c r="IJ39" s="42"/>
     </row>
-    <row r="40" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:244" s="9" customFormat="1">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="82"/>
@@ -9219,7 +9227,7 @@
       <c r="II40" s="16"/>
       <c r="IJ40" s="44"/>
     </row>
-    <row r="41" spans="1:244" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:244" s="10" customFormat="1">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="82"/>
@@ -9228,7 +9236,7 @@
       <c r="F41" s="22"/>
       <c r="IJ41" s="45"/>
     </row>
-    <row r="44" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:244" s="1" customFormat="1">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="82"/>
@@ -9474,7 +9482,7 @@
       <c r="II44" s="5"/>
       <c r="IJ44" s="41"/>
     </row>
-    <row r="45" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:244" s="9" customFormat="1">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="82"/>
@@ -9720,7 +9728,7 @@
       <c r="II45" s="16"/>
       <c r="IJ45" s="44"/>
     </row>
-    <row r="46" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:244" s="9" customFormat="1">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="82"/>
@@ -9966,7 +9974,7 @@
       <c r="II46" s="16"/>
       <c r="IJ46" s="44"/>
     </row>
-    <row r="47" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:244" s="11" customFormat="1">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="82"/>
@@ -10212,7 +10220,7 @@
       <c r="II47" s="40"/>
       <c r="IJ47" s="46"/>
     </row>
-    <row r="48" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:244" s="11" customFormat="1">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="82"/>
@@ -10458,7 +10466,7 @@
       <c r="II48" s="40"/>
       <c r="IJ48" s="46"/>
     </row>
-    <row r="49" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:244" s="11" customFormat="1">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="82"/>
@@ -10704,7 +10712,7 @@
       <c r="II49" s="40"/>
       <c r="IJ49" s="46"/>
     </row>
-    <row r="50" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:244" s="9" customFormat="1">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="82"/>
@@ -10950,7 +10958,7 @@
       <c r="II50" s="16"/>
       <c r="IJ50" s="44"/>
     </row>
-    <row r="51" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:244" s="9" customFormat="1">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="82"/>
@@ -11196,7 +11204,7 @@
       <c r="II51" s="16"/>
       <c r="IJ51" s="44"/>
     </row>
-    <row r="52" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:244" s="9" customFormat="1">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="82"/>
@@ -11442,7 +11450,7 @@
       <c r="II52" s="16"/>
       <c r="IJ52" s="44"/>
     </row>
-    <row r="53" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:244" s="9" customFormat="1">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="82"/>
@@ -11688,7 +11696,7 @@
       <c r="II53" s="16"/>
       <c r="IJ53" s="44"/>
     </row>
-    <row r="54" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:244" s="11" customFormat="1">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="82"/>
@@ -11934,7 +11942,7 @@
       <c r="II54" s="40"/>
       <c r="IJ54" s="46"/>
     </row>
-    <row r="55" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:244" s="11" customFormat="1">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="82"/>
@@ -12180,7 +12188,7 @@
       <c r="II55" s="40"/>
       <c r="IJ55" s="46"/>
     </row>
-    <row r="56" spans="1:244" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:244" s="12" customFormat="1">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="82"/>
@@ -12426,7 +12434,7 @@
       <c r="II56" s="47"/>
       <c r="IJ56" s="51"/>
     </row>
-    <row r="58" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:244" s="1" customFormat="1">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="82"/>
@@ -12672,7 +12680,7 @@
       <c r="II58" s="5"/>
       <c r="IJ58" s="41"/>
     </row>
-    <row r="59" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:244" s="9" customFormat="1">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="82"/>
@@ -12918,7 +12926,7 @@
       <c r="II59" s="16"/>
       <c r="IJ59" s="44"/>
     </row>
-    <row r="60" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:244" s="9" customFormat="1">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="82"/>
@@ -13164,7 +13172,7 @@
       <c r="II60" s="16"/>
       <c r="IJ60" s="44"/>
     </row>
-    <row r="61" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:244" s="9" customFormat="1">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="82"/>
@@ -13410,7 +13418,7 @@
       <c r="II61" s="16"/>
       <c r="IJ61" s="44"/>
     </row>
-    <row r="62" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:244" s="9" customFormat="1">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="82"/>
@@ -13656,7 +13664,7 @@
       <c r="II62" s="16"/>
       <c r="IJ62" s="44"/>
     </row>
-    <row r="63" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:244" s="9" customFormat="1">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="82"/>
@@ -13902,7 +13910,7 @@
       <c r="II63" s="16"/>
       <c r="IJ63" s="44"/>
     </row>
-    <row r="64" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:244" s="9" customFormat="1">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="82"/>
@@ -14148,7 +14156,7 @@
       <c r="II64" s="16"/>
       <c r="IJ64" s="44"/>
     </row>
-    <row r="65" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:244" s="9" customFormat="1">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="82"/>
@@ -14394,7 +14402,7 @@
       <c r="II65" s="16"/>
       <c r="IJ65" s="44"/>
     </row>
-    <row r="66" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:244" s="9" customFormat="1">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="82"/>
@@ -14640,7 +14648,7 @@
       <c r="II66" s="16"/>
       <c r="IJ66" s="44"/>
     </row>
-    <row r="67" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:244" s="9" customFormat="1">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="82"/>
@@ -14886,7 +14894,7 @@
       <c r="II67" s="16"/>
       <c r="IJ67" s="44"/>
     </row>
-    <row r="68" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:244" s="9" customFormat="1">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="82"/>
@@ -15132,7 +15140,7 @@
       <c r="II68" s="16"/>
       <c r="IJ68" s="44"/>
     </row>
-    <row r="69" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:244" s="9" customFormat="1">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="82"/>
@@ -15378,7 +15386,7 @@
       <c r="II69" s="16"/>
       <c r="IJ69" s="44"/>
     </row>
-    <row r="70" spans="1:244" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:244" s="13" customFormat="1">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="82"/>
@@ -15624,7 +15632,7 @@
       <c r="II70" s="16"/>
       <c r="IJ70" s="44"/>
     </row>
-    <row r="72" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:244" s="1" customFormat="1">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="82"/>
@@ -15870,7 +15878,7 @@
       <c r="II72" s="8"/>
       <c r="IJ72" s="23"/>
     </row>
-    <row r="73" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:244" s="4" customFormat="1">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="82"/>
@@ -16115,7 +16123,7 @@
       <c r="IH73" s="15"/>
       <c r="II73" s="15"/>
     </row>
-    <row r="74" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:244" s="4" customFormat="1">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="82"/>
@@ -16360,7 +16368,7 @@
       <c r="IH74" s="15"/>
       <c r="II74" s="15"/>
     </row>
-    <row r="75" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:244">
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -16578,7 +16586,7 @@
       <c r="II75" s="48"/>
       <c r="IJ75" s="52"/>
     </row>
-    <row r="76" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:244">
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -16796,7 +16804,7 @@
       <c r="II76" s="5"/>
       <c r="IJ76" s="41"/>
     </row>
-    <row r="77" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:244">
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -17014,7 +17022,7 @@
       <c r="II77" s="5"/>
       <c r="IJ77" s="41"/>
     </row>
-    <row r="78" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:244">
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -17232,7 +17240,7 @@
       <c r="II78" s="5"/>
       <c r="IJ78" s="41"/>
     </row>
-    <row r="79" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:244">
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -17472,7 +17480,7 @@
       <c r="II79" s="5"/>
       <c r="IJ79" s="41"/>
     </row>
-    <row r="80" spans="1:244" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:244" s="6" customFormat="1">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="82"/>
@@ -17718,7 +17726,7 @@
       <c r="II80" s="38"/>
       <c r="IJ80" s="42"/>
     </row>
-    <row r="81" spans="1:244" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:244" s="6" customFormat="1">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="82"/>
@@ -17964,7 +17972,7 @@
       <c r="II81" s="38"/>
       <c r="IJ81" s="42"/>
     </row>
-    <row r="82" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:244">
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -18204,7 +18212,7 @@
       <c r="II82" s="5"/>
       <c r="IJ82" s="41"/>
     </row>
-    <row r="83" spans="1:244" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:244" s="14" customFormat="1">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="82"/>
@@ -18450,7 +18458,7 @@
       <c r="II83" s="5"/>
       <c r="IJ83" s="41"/>
     </row>
-    <row r="84" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:244" s="1" customFormat="1">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="82"/>
@@ -18696,7 +18704,7 @@
       <c r="II84" s="5"/>
       <c r="IJ84" s="41"/>
     </row>
-    <row r="85" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:244" s="1" customFormat="1">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="82"/>
@@ -18942,7 +18950,7 @@
       <c r="II85" s="5"/>
       <c r="IJ85" s="41"/>
     </row>
-    <row r="86" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:244" s="1" customFormat="1">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="82"/>
@@ -19188,7 +19196,7 @@
       <c r="II86" s="5"/>
       <c r="IJ86" s="41"/>
     </row>
-    <row r="87" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:244" s="1" customFormat="1">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="82"/>
@@ -19434,7 +19442,7 @@
       <c r="II87" s="5"/>
       <c r="IJ87" s="41"/>
     </row>
-    <row r="88" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:244" s="1" customFormat="1">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="82"/>
@@ -19680,7 +19688,7 @@
       <c r="II88" s="8"/>
       <c r="IJ88" s="23"/>
     </row>
-    <row r="89" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:244" s="1" customFormat="1">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="82"/>
@@ -19926,7 +19934,7 @@
       <c r="II89" s="5"/>
       <c r="IJ89" s="5"/>
     </row>
-    <row r="90" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:244" s="1" customFormat="1">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="82"/>
@@ -20172,7 +20180,7 @@
       <c r="II90" s="5"/>
       <c r="IJ90" s="5"/>
     </row>
-    <row r="91" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:244" s="1" customFormat="1">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="82"/>
@@ -20418,7 +20426,7 @@
       <c r="II91" s="5"/>
       <c r="IJ91" s="5"/>
     </row>
-    <row r="92" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:244" s="1" customFormat="1">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="82"/>
@@ -20664,7 +20672,7 @@
       <c r="II92" s="5"/>
       <c r="IJ92" s="5"/>
     </row>
-    <row r="93" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:244" s="1" customFormat="1">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="82"/>
@@ -20910,7 +20918,7 @@
       <c r="II93" s="5"/>
       <c r="IJ93" s="5"/>
     </row>
-    <row r="94" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:244">
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -21150,7 +21158,7 @@
       <c r="II94" s="5"/>
       <c r="IJ94" s="5"/>
     </row>
-    <row r="95" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:244" s="5" customFormat="1">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="82"/>
@@ -21158,7 +21166,7 @@
       <c r="E95" s="20"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:244" s="5" customFormat="1">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="82"/>
@@ -21166,7 +21174,7 @@
       <c r="E96" s="20"/>
       <c r="F96" s="22"/>
     </row>
-    <row r="97" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:244" s="5" customFormat="1">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="82"/>
@@ -21174,7 +21182,7 @@
       <c r="E97" s="20"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:244" s="5" customFormat="1">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="82"/>
@@ -21182,7 +21190,7 @@
       <c r="E98" s="20"/>
       <c r="F98" s="22"/>
     </row>
-    <row r="99" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:244" s="5" customFormat="1">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="82"/>
@@ -21190,7 +21198,7 @@
       <c r="E99" s="20"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:244" s="5" customFormat="1">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="82"/>
@@ -21198,7 +21206,7 @@
       <c r="E100" s="20"/>
       <c r="F100" s="22"/>
     </row>
-    <row r="101" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:244" s="5" customFormat="1">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="82"/>
@@ -21206,7 +21214,7 @@
       <c r="E101" s="20"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:244" s="5" customFormat="1">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="82"/>
@@ -21214,7 +21222,7 @@
       <c r="E102" s="20"/>
       <c r="F102" s="22"/>
     </row>
-    <row r="103" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:244" s="5" customFormat="1">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="82"/>
@@ -21222,7 +21230,7 @@
       <c r="E103" s="20"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:244" s="5" customFormat="1">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="82"/>
@@ -21230,7 +21238,7 @@
       <c r="E104" s="20"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:244" s="5" customFormat="1">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="82"/>
@@ -21238,7 +21246,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:244" s="5" customFormat="1">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="82"/>
@@ -21246,7 +21254,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:244" s="5" customFormat="1">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="82"/>
@@ -21254,7 +21262,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:244" s="5" customFormat="1">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="82"/>
@@ -21262,7 +21270,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:244" s="5" customFormat="1">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="82"/>
@@ -21270,7 +21278,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:244" s="5" customFormat="1">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="82"/>
@@ -21279,7 +21287,7 @@
       <c r="F110" s="22"/>
       <c r="IJ110" s="41"/>
     </row>
-    <row r="111" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:244" s="5" customFormat="1">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="82"/>
@@ -21288,7 +21296,7 @@
       <c r="F111" s="22"/>
       <c r="IA111" s="41"/>
     </row>
-    <row r="112" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:244" s="5" customFormat="1">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="82"/>
@@ -21297,7 +21305,7 @@
       <c r="F112" s="22"/>
       <c r="IA112" s="41"/>
     </row>
-    <row r="113" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:244" s="5" customFormat="1">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="82"/>
@@ -21306,7 +21314,7 @@
       <c r="F113" s="22"/>
       <c r="IA113" s="41"/>
     </row>
-    <row r="114" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:244" s="5" customFormat="1">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="82"/>
@@ -21315,7 +21323,7 @@
       <c r="F114" s="22"/>
       <c r="IA114" s="41"/>
     </row>
-    <row r="115" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:244" s="1" customFormat="1">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="82"/>
@@ -21552,7 +21560,7 @@
       <c r="HZ115" s="5"/>
       <c r="IA115" s="41"/>
     </row>
-    <row r="116" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:244" s="1" customFormat="1">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="82"/>
@@ -21789,7 +21797,7 @@
       <c r="HZ116" s="5"/>
       <c r="IA116" s="41"/>
     </row>
-    <row r="117" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:244" s="1" customFormat="1">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="82"/>
@@ -22026,7 +22034,7 @@
       <c r="HZ117" s="5"/>
       <c r="IA117" s="41"/>
     </row>
-    <row r="118" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:244" s="1" customFormat="1">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="82"/>
@@ -22263,7 +22271,7 @@
       <c r="HZ118" s="5"/>
       <c r="IA118" s="41"/>
     </row>
-    <row r="119" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:244" s="1" customFormat="1">
       <c r="A119" s="20"/>
       <c r="B119" s="21"/>
       <c r="C119" s="82"/>
@@ -22500,7 +22508,7 @@
       <c r="HZ119" s="5"/>
       <c r="IA119" s="41"/>
     </row>
-    <row r="120" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:244" s="1" customFormat="1">
       <c r="A120" s="20"/>
       <c r="B120" s="21"/>
       <c r="C120" s="82"/>
@@ -22746,7 +22754,7 @@
       <c r="II120" s="5"/>
       <c r="IJ120" s="41"/>
     </row>
-    <row r="121" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:244" s="1" customFormat="1">
       <c r="A121" s="20"/>
       <c r="B121" s="21"/>
       <c r="C121" s="82"/>
@@ -22992,7 +23000,7 @@
       <c r="II121" s="5"/>
       <c r="IJ121" s="41"/>
     </row>
-    <row r="122" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:244" s="1" customFormat="1">
       <c r="A122" s="20"/>
       <c r="B122" s="21"/>
       <c r="C122" s="82"/>
@@ -23238,7 +23246,7 @@
       <c r="II122" s="5"/>
       <c r="IJ122" s="41"/>
     </row>
-    <row r="123" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:244" s="1" customFormat="1">
       <c r="A123" s="20"/>
       <c r="B123" s="21"/>
       <c r="C123" s="82"/>
@@ -23484,7 +23492,7 @@
       <c r="II123" s="5"/>
       <c r="IJ123" s="41"/>
     </row>
-    <row r="124" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:244" s="1" customFormat="1">
       <c r="A124" s="20"/>
       <c r="B124" s="21"/>
       <c r="C124" s="82"/>
@@ -23730,7 +23738,7 @@
       <c r="II124" s="5"/>
       <c r="IJ124" s="41"/>
     </row>
-    <row r="125" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:244" s="1" customFormat="1">
       <c r="A125" s="20"/>
       <c r="B125" s="21"/>
       <c r="C125" s="82"/>
@@ -23976,7 +23984,7 @@
       <c r="II125" s="5"/>
       <c r="IJ125" s="41"/>
     </row>
-    <row r="126" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:244" s="1" customFormat="1">
       <c r="A126" s="20"/>
       <c r="B126" s="21"/>
       <c r="C126" s="82"/>
@@ -24222,7 +24230,7 @@
       <c r="II126" s="5"/>
       <c r="IJ126" s="41"/>
     </row>
-    <row r="127" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:244" s="1" customFormat="1">
       <c r="A127" s="20"/>
       <c r="B127" s="21"/>
       <c r="C127" s="82"/>
@@ -24468,7 +24476,7 @@
       <c r="II127" s="39"/>
       <c r="IJ127" s="43"/>
     </row>
-    <row r="128" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:244" s="1" customFormat="1">
       <c r="A128" s="20"/>
       <c r="B128" s="21"/>
       <c r="C128" s="82"/>
@@ -24714,7 +24722,7 @@
       <c r="II128" s="39"/>
       <c r="IJ128" s="43"/>
     </row>
-    <row r="129" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:244" s="1" customFormat="1">
       <c r="A129" s="20"/>
       <c r="B129" s="21"/>
       <c r="C129" s="82"/>
@@ -24960,7 +24968,7 @@
       <c r="II129" s="39"/>
       <c r="IJ129" s="43"/>
     </row>
-    <row r="130" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:244" s="1" customFormat="1">
       <c r="A130" s="20"/>
       <c r="B130" s="21"/>
       <c r="C130" s="82"/>
@@ -25206,7 +25214,7 @@
       <c r="II130" s="39"/>
       <c r="IJ130" s="43"/>
     </row>
-    <row r="131" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:244" s="1" customFormat="1">
       <c r="A131" s="20"/>
       <c r="B131" s="21"/>
       <c r="C131" s="82"/>
@@ -25452,7 +25460,7 @@
       <c r="II131" s="39"/>
       <c r="IJ131" s="43"/>
     </row>
-    <row r="132" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:244" s="1" customFormat="1">
       <c r="A132" s="20"/>
       <c r="B132" s="21"/>
       <c r="C132" s="82"/>
@@ -25698,7 +25706,7 @@
       <c r="II132" s="53"/>
       <c r="IJ132" s="53"/>
     </row>
-    <row r="133" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:244" s="7" customFormat="1">
       <c r="A133" s="20"/>
       <c r="B133" s="21"/>
       <c r="C133" s="82"/>
@@ -25944,7 +25952,7 @@
       <c r="II133" s="15"/>
       <c r="IJ133" s="15"/>
     </row>
-    <row r="134" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:244" s="7" customFormat="1">
       <c r="A134" s="20"/>
       <c r="B134" s="21"/>
       <c r="C134" s="82"/>
@@ -26190,7 +26198,7 @@
       <c r="II134" s="15"/>
       <c r="IJ134" s="15"/>
     </row>
-    <row r="135" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:244" s="7" customFormat="1">
       <c r="A135" s="20"/>
       <c r="B135" s="21"/>
       <c r="C135" s="82"/>
@@ -26436,7 +26444,7 @@
       <c r="II135" s="15"/>
       <c r="IJ135" s="15"/>
     </row>
-    <row r="136" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:244" s="7" customFormat="1">
       <c r="A136" s="20"/>
       <c r="B136" s="21"/>
       <c r="C136" s="82"/>
@@ -26682,7 +26690,7 @@
       <c r="II136" s="15"/>
       <c r="IJ136" s="15"/>
     </row>
-    <row r="137" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:244" s="7" customFormat="1">
       <c r="A137" s="20"/>
       <c r="B137" s="21"/>
       <c r="C137" s="82"/>
@@ -26928,7 +26936,7 @@
       <c r="II137" s="15"/>
       <c r="IJ137" s="15"/>
     </row>
-    <row r="138" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:244" s="4" customFormat="1">
       <c r="A138" s="20"/>
       <c r="B138" s="21"/>
       <c r="C138" s="82"/>
@@ -27173,7 +27181,7 @@
       <c r="IH138" s="15"/>
       <c r="II138" s="15"/>
     </row>
-    <row r="139" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:244" s="15" customFormat="1">
       <c r="A139" s="20"/>
       <c r="B139" s="21"/>
       <c r="C139" s="82"/>
@@ -27181,7 +27189,7 @@
       <c r="E139" s="20"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:244" s="15" customFormat="1">
       <c r="A140" s="20"/>
       <c r="B140" s="21"/>
       <c r="C140" s="82"/>
@@ -27189,7 +27197,7 @@
       <c r="E140" s="20"/>
       <c r="F140" s="22"/>
     </row>
-    <row r="141" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:244" s="15" customFormat="1">
       <c r="A141" s="20"/>
       <c r="B141" s="21"/>
       <c r="C141" s="82"/>
@@ -27197,7 +27205,7 @@
       <c r="E141" s="20"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:244" s="15" customFormat="1">
       <c r="A142" s="20"/>
       <c r="B142" s="21"/>
       <c r="C142" s="82"/>
@@ -27205,7 +27213,7 @@
       <c r="E142" s="20"/>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:244" s="15" customFormat="1">
       <c r="A143" s="20"/>
       <c r="B143" s="21"/>
       <c r="C143" s="82"/>
@@ -27213,7 +27221,7 @@
       <c r="E143" s="20"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:244" s="15" customFormat="1">
       <c r="A144" s="20"/>
       <c r="B144" s="21"/>
       <c r="C144" s="82"/>
@@ -27221,7 +27229,7 @@
       <c r="E144" s="20"/>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:245" s="15" customFormat="1">
       <c r="A145" s="20"/>
       <c r="B145" s="21"/>
       <c r="C145" s="82"/>
@@ -27229,7 +27237,7 @@
       <c r="E145" s="20"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:245" s="15" customFormat="1">
       <c r="A146" s="20"/>
       <c r="B146" s="21"/>
       <c r="C146" s="82"/>
@@ -27237,7 +27245,7 @@
       <c r="E146" s="20"/>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:245" s="15" customFormat="1">
       <c r="A147" s="20"/>
       <c r="B147" s="21"/>
       <c r="C147" s="82"/>
@@ -27245,7 +27253,7 @@
       <c r="E147" s="20"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:245" s="15" customFormat="1">
       <c r="A148" s="20"/>
       <c r="B148" s="21"/>
       <c r="C148" s="82"/>
@@ -27253,7 +27261,7 @@
       <c r="E148" s="20"/>
       <c r="F148" s="22"/>
     </row>
-    <row r="149" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:245" s="15" customFormat="1">
       <c r="A149" s="20"/>
       <c r="B149" s="21"/>
       <c r="C149" s="82"/>
@@ -27261,7 +27269,7 @@
       <c r="E149" s="20"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:245" s="15" customFormat="1">
       <c r="A150" s="20"/>
       <c r="B150" s="21"/>
       <c r="C150" s="82"/>
@@ -27269,7 +27277,7 @@
       <c r="E150" s="20"/>
       <c r="F150" s="22"/>
     </row>
-    <row r="151" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:245" s="15" customFormat="1">
       <c r="A151" s="20"/>
       <c r="B151" s="21"/>
       <c r="C151" s="82"/>
@@ -27281,7 +27289,7 @@
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
     </row>
-    <row r="152" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:245" s="15" customFormat="1">
       <c r="A152" s="20"/>
       <c r="B152" s="21"/>
       <c r="C152" s="82"/>
@@ -27293,7 +27301,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
     </row>
-    <row r="153" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:245" s="15" customFormat="1">
       <c r="A153" s="20"/>
       <c r="B153" s="21"/>
       <c r="C153" s="82"/>
@@ -27517,7 +27525,7 @@
       <c r="II153" s="5"/>
       <c r="IJ153" s="5"/>
     </row>
-    <row r="154" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:245" s="15" customFormat="1">
       <c r="A154" s="20"/>
       <c r="B154" s="21"/>
       <c r="C154" s="82"/>
@@ -27741,7 +27749,7 @@
       <c r="II154" s="5"/>
       <c r="IJ154" s="5"/>
     </row>
-    <row r="155" spans="1:245" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:245" s="3" customFormat="1">
       <c r="A155" s="20"/>
       <c r="B155" s="21"/>
       <c r="C155" s="82"/>
@@ -27749,7 +27757,7 @@
       <c r="E155" s="20"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="1:245" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:245" s="3" customFormat="1">
       <c r="A156" s="20"/>
       <c r="B156" s="21"/>
       <c r="C156" s="82"/>
@@ -27757,7 +27765,7 @@
       <c r="E156" s="20"/>
       <c r="F156" s="22"/>
     </row>
-    <row r="157" spans="1:245" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:245" s="5" customFormat="1">
       <c r="A157" s="20"/>
       <c r="B157" s="21"/>
       <c r="C157" s="82"/>
@@ -27981,7 +27989,7 @@
       <c r="IG157" s="16"/>
       <c r="IH157" s="44"/>
     </row>
-    <row r="158" spans="1:245" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:245" s="11" customFormat="1">
       <c r="A158" s="20"/>
       <c r="B158" s="21"/>
       <c r="C158" s="82"/>
@@ -28225,7 +28233,7 @@
       <c r="IG158" s="16"/>
       <c r="IH158" s="44"/>
     </row>
-    <row r="159" spans="1:245" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:245" s="11" customFormat="1">
       <c r="A159" s="20"/>
       <c r="B159" s="21"/>
       <c r="C159" s="82"/>
@@ -28472,7 +28480,7 @@
       <c r="IJ159" s="16"/>
       <c r="IK159" s="16"/>
     </row>
-    <row r="160" spans="1:245" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:245" s="11" customFormat="1">
       <c r="A160" s="20"/>
       <c r="B160" s="21"/>
       <c r="C160" s="82"/>
@@ -28716,7 +28724,7 @@
       <c r="IG160" s="3"/>
       <c r="IH160" s="3"/>
     </row>
-    <row r="161" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:244" s="11" customFormat="1">
       <c r="A161" s="20"/>
       <c r="B161" s="21"/>
       <c r="C161" s="82"/>
@@ -28962,7 +28970,7 @@
       <c r="II161" s="16"/>
       <c r="IJ161" s="44"/>
     </row>
-    <row r="162" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:244" s="5" customFormat="1">
       <c r="A162" s="20"/>
       <c r="B162" s="21"/>
       <c r="C162" s="82"/>
@@ -29208,7 +29216,7 @@
       <c r="II162" s="16"/>
       <c r="IJ162" s="16"/>
     </row>
-    <row r="163" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:244" s="9" customFormat="1">
       <c r="A163" s="20"/>
       <c r="B163" s="21"/>
       <c r="C163" s="82"/>
@@ -29454,7 +29462,7 @@
       <c r="II163" s="16"/>
       <c r="IJ163" s="16"/>
     </row>
-    <row r="164" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:244" s="9" customFormat="1">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="82"/>
@@ -29700,7 +29708,7 @@
       <c r="II164" s="16"/>
       <c r="IJ164" s="16"/>
     </row>
-    <row r="165" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:244" s="9" customFormat="1">
       <c r="A165" s="20"/>
       <c r="B165" s="21"/>
       <c r="C165" s="82"/>
@@ -29946,7 +29954,7 @@
       <c r="II165" s="3"/>
       <c r="IJ165" s="3"/>
     </row>
-    <row r="166" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:244" s="3" customFormat="1">
       <c r="A166" s="20"/>
       <c r="B166" s="21"/>
       <c r="C166" s="82"/>
@@ -30192,7 +30200,7 @@
       <c r="II166" s="53"/>
       <c r="IJ166" s="53"/>
     </row>
-    <row r="167" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:244" s="9" customFormat="1">
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="82"/>
@@ -30438,7 +30446,7 @@
       <c r="II167" s="53"/>
       <c r="IJ167" s="53"/>
     </row>
-    <row r="168" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:244" s="16" customFormat="1">
       <c r="A168" s="20"/>
       <c r="B168" s="21"/>
       <c r="C168" s="82"/>
@@ -30473,7 +30481,7 @@
       <c r="AF168" s="53"/>
       <c r="IJ168" s="44"/>
     </row>
-    <row r="169" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:244" s="16" customFormat="1">
       <c r="A169" s="20"/>
       <c r="B169" s="21"/>
       <c r="C169" s="82"/>
@@ -30508,7 +30516,7 @@
       <c r="AF169" s="53"/>
       <c r="IJ169" s="44"/>
     </row>
-    <row r="170" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:244" s="16" customFormat="1">
       <c r="A170" s="20"/>
       <c r="B170" s="21"/>
       <c r="C170" s="82"/>
@@ -30543,7 +30551,7 @@
       <c r="AF170" s="53"/>
       <c r="IJ170" s="44"/>
     </row>
-    <row r="171" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:244" s="16" customFormat="1">
       <c r="A171" s="20"/>
       <c r="B171" s="21"/>
       <c r="C171" s="82"/>
@@ -30578,7 +30586,7 @@
       <c r="AF171" s="53"/>
       <c r="IJ171" s="44"/>
     </row>
-    <row r="172" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:244" s="16" customFormat="1">
       <c r="A172" s="20"/>
       <c r="B172" s="21"/>
       <c r="C172" s="82"/>
@@ -30613,7 +30621,7 @@
       <c r="AF172" s="53"/>
       <c r="IJ172" s="44"/>
     </row>
-    <row r="173" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:244" s="16" customFormat="1">
       <c r="A173" s="20"/>
       <c r="B173" s="21"/>
       <c r="C173" s="82"/>
@@ -30648,7 +30656,7 @@
       <c r="AF173" s="53"/>
       <c r="IJ173" s="44"/>
     </row>
-    <row r="174" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:244" s="16" customFormat="1">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="82"/>
@@ -30683,7 +30691,7 @@
       <c r="AF174" s="53"/>
       <c r="IJ174" s="44"/>
     </row>
-    <row r="175" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:244" s="3" customFormat="1">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="82"/>
@@ -30929,7 +30937,7 @@
       <c r="II175" s="16"/>
       <c r="IJ175" s="44"/>
     </row>
-    <row r="176" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:244" s="4" customFormat="1">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="82"/>
@@ -31175,7 +31183,7 @@
       <c r="II176"/>
       <c r="IJ176"/>
     </row>
-    <row r="177" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:244" s="4" customFormat="1">
       <c r="A177" s="20"/>
       <c r="B177" s="21"/>
       <c r="C177" s="82"/>
@@ -31421,7 +31429,7 @@
       <c r="II177"/>
       <c r="IJ177"/>
     </row>
-    <row r="178" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:244" s="4" customFormat="1">
       <c r="A178" s="20"/>
       <c r="B178" s="21"/>
       <c r="C178" s="82"/>
@@ -31667,7 +31675,7 @@
       <c r="II178"/>
       <c r="IJ178"/>
     </row>
-    <row r="179" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:244" s="4" customFormat="1">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="82"/>
@@ -31913,7 +31921,7 @@
       <c r="II179"/>
       <c r="IJ179"/>
     </row>
-    <row r="180" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:244" s="9" customFormat="1">
       <c r="A180" s="20"/>
       <c r="B180" s="21"/>
       <c r="C180" s="82"/>
@@ -32159,7 +32167,7 @@
       <c r="II180" s="3"/>
       <c r="IJ180" s="3"/>
     </row>
-    <row r="181" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:244" s="9" customFormat="1">
       <c r="A181" s="20"/>
       <c r="B181" s="21"/>
       <c r="C181" s="82"/>
@@ -32405,7 +32413,7 @@
       <c r="II181" s="3"/>
       <c r="IJ181" s="3"/>
     </row>
-    <row r="182" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:244" s="9" customFormat="1">
       <c r="A182" s="20"/>
       <c r="B182" s="21"/>
       <c r="C182" s="82"/>
@@ -32651,7 +32659,7 @@
       <c r="II182" s="3"/>
       <c r="IJ182" s="3"/>
     </row>
-    <row r="183" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:244">
       <c r="G183"/>
       <c r="H183"/>
       <c r="I183"/>
@@ -32891,7 +32899,7 @@
       <c r="II183" s="15"/>
       <c r="IJ183" s="15"/>
     </row>
-    <row r="184" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:244" s="4" customFormat="1">
       <c r="A184" s="20"/>
       <c r="B184" s="21"/>
       <c r="C184" s="82"/>
@@ -33137,7 +33145,7 @@
       <c r="II184" s="18"/>
       <c r="IJ184" s="18"/>
     </row>
-    <row r="185" spans="1:244" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:244">
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -33377,7 +33385,7 @@
       <c r="II185" s="18"/>
       <c r="IJ185" s="18"/>
     </row>
-    <row r="186" spans="1:244" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:244" s="17" customFormat="1">
       <c r="A186" s="20"/>
       <c r="B186" s="21"/>
       <c r="C186" s="82"/>
@@ -33623,7 +33631,7 @@
       <c r="II186" s="18"/>
       <c r="IJ186" s="18"/>
     </row>
-    <row r="187" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:244" s="3" customFormat="1">
       <c r="A187" s="20"/>
       <c r="B187" s="21"/>
       <c r="C187" s="82"/>
@@ -33869,7 +33877,7 @@
       <c r="II187" s="18"/>
       <c r="IJ187" s="18"/>
     </row>
-    <row r="188" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:244" s="15" customFormat="1">
       <c r="A188" s="20"/>
       <c r="B188" s="21"/>
       <c r="C188" s="82"/>
@@ -34115,7 +34123,7 @@
       <c r="II188" s="18"/>
       <c r="IJ188" s="18"/>
     </row>
-    <row r="189" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:244" s="18" customFormat="1">
       <c r="A189" s="20"/>
       <c r="B189" s="21"/>
       <c r="C189" s="82"/>
@@ -34339,7 +34347,7 @@
       <c r="II189" s="39"/>
       <c r="IJ189" s="43"/>
     </row>
-    <row r="190" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:244" s="18" customFormat="1">
       <c r="A190" s="20"/>
       <c r="B190" s="21"/>
       <c r="C190" s="82"/>
@@ -34563,7 +34571,7 @@
       <c r="II190" s="39"/>
       <c r="IJ190" s="43"/>
     </row>
-    <row r="191" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:244" s="15" customFormat="1">
       <c r="A191" s="20"/>
       <c r="B191" s="21"/>
       <c r="C191" s="82"/>
@@ -34809,7 +34817,7 @@
       <c r="II191" s="18"/>
       <c r="IJ191" s="18"/>
     </row>
-    <row r="192" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:244" s="18" customFormat="1">
       <c r="A192" s="20"/>
       <c r="B192" s="21"/>
       <c r="C192" s="82"/>
@@ -35033,7 +35041,7 @@
       <c r="II192" s="39"/>
       <c r="IJ192" s="43"/>
     </row>
-    <row r="193" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:244" s="18" customFormat="1">
       <c r="A193" s="20"/>
       <c r="B193" s="21"/>
       <c r="C193" s="82"/>
@@ -35257,7 +35265,7 @@
       <c r="II193" s="39"/>
       <c r="IJ193" s="43"/>
     </row>
-    <row r="194" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:244" s="18" customFormat="1">
       <c r="A194" s="20"/>
       <c r="B194" s="21"/>
       <c r="C194" s="82"/>
@@ -35481,7 +35489,7 @@
       <c r="II194" s="39"/>
       <c r="IJ194" s="43"/>
     </row>
-    <row r="195" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:244" s="18" customFormat="1">
       <c r="A195" s="20"/>
       <c r="B195" s="21"/>
       <c r="C195" s="82"/>
@@ -35727,7 +35735,7 @@
       <c r="II195" s="39"/>
       <c r="IJ195" s="39"/>
     </row>
-    <row r="196" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:244" s="9" customFormat="1">
       <c r="A196" s="20"/>
       <c r="B196" s="21"/>
       <c r="C196" s="82"/>
@@ -35973,7 +35981,7 @@
       <c r="II196" s="8"/>
       <c r="IJ196" s="8"/>
     </row>
-    <row r="197" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:244" s="9" customFormat="1">
       <c r="A197" s="20"/>
       <c r="B197" s="21"/>
       <c r="C197" s="82"/>
@@ -36219,7 +36227,7 @@
       <c r="II197" s="8"/>
       <c r="IJ197" s="8"/>
     </row>
-    <row r="198" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:244" s="18" customFormat="1">
       <c r="A198" s="20"/>
       <c r="B198" s="21"/>
       <c r="C198" s="82"/>
@@ -36465,7 +36473,7 @@
       <c r="II198" s="39"/>
       <c r="IJ198" s="39"/>
     </row>
-    <row r="199" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:244" s="9" customFormat="1">
       <c r="A199" s="20"/>
       <c r="B199" s="21"/>
       <c r="C199" s="82"/>
@@ -36711,7 +36719,7 @@
       <c r="II199" s="8"/>
       <c r="IJ199" s="8"/>
     </row>
-    <row r="200" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:244" s="9" customFormat="1">
       <c r="A200" s="20"/>
       <c r="B200" s="21"/>
       <c r="C200" s="82"/>
@@ -36957,7 +36965,7 @@
       <c r="II200" s="8"/>
       <c r="IJ200" s="8"/>
     </row>
-    <row r="201" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:244" s="9" customFormat="1">
       <c r="A201" s="20"/>
       <c r="B201" s="21"/>
       <c r="C201" s="82"/>
@@ -37203,7 +37211,7 @@
       <c r="II201" s="8"/>
       <c r="IJ201" s="8"/>
     </row>
-    <row r="202" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:244" s="7" customFormat="1">
       <c r="A202" s="20"/>
       <c r="B202" s="21"/>
       <c r="C202" s="82"/>
@@ -37449,7 +37457,7 @@
       <c r="II202" s="8"/>
       <c r="IJ202" s="8"/>
     </row>
-    <row r="203" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:244" s="7" customFormat="1">
       <c r="A203" s="20"/>
       <c r="B203" s="21"/>
       <c r="C203" s="82"/>
@@ -37695,7 +37703,7 @@
       <c r="II203" s="8"/>
       <c r="IJ203" s="8"/>
     </row>
-    <row r="204" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:244" s="7" customFormat="1">
       <c r="A204" s="20"/>
       <c r="B204" s="21"/>
       <c r="C204" s="82"/>
@@ -37941,7 +37949,7 @@
       <c r="II204" s="8"/>
       <c r="IJ204" s="8"/>
     </row>
-    <row r="205" spans="1:244" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:244" s="19" customFormat="1">
       <c r="A205" s="20"/>
       <c r="B205" s="21"/>
       <c r="C205" s="82"/>
@@ -38187,1036 +38195,1036 @@
       <c r="II205" s="8"/>
       <c r="IJ205" s="8"/>
     </row>
-    <row r="206" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:244" s="8" customFormat="1">
       <c r="A206" s="20"/>
       <c r="B206" s="21"/>
       <c r="C206" s="82"/>
       <c r="E206" s="20"/>
       <c r="F206" s="22"/>
     </row>
-    <row r="207" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:244" s="8" customFormat="1">
       <c r="A207" s="20"/>
       <c r="B207" s="21"/>
       <c r="C207" s="82"/>
       <c r="E207" s="20"/>
       <c r="F207" s="22"/>
     </row>
-    <row r="208" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:244" s="8" customFormat="1">
       <c r="A208" s="20"/>
       <c r="B208" s="21"/>
       <c r="C208" s="82"/>
       <c r="E208" s="20"/>
       <c r="F208" s="22"/>
     </row>
-    <row r="209" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" s="8" customFormat="1">
       <c r="A209" s="20"/>
       <c r="B209" s="21"/>
       <c r="C209" s="82"/>
       <c r="E209" s="20"/>
       <c r="F209" s="22"/>
     </row>
-    <row r="210" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" s="8" customFormat="1">
       <c r="A210" s="20"/>
       <c r="B210" s="21"/>
       <c r="C210" s="82"/>
       <c r="E210" s="20"/>
       <c r="F210" s="22"/>
     </row>
-    <row r="211" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" s="8" customFormat="1">
       <c r="A211" s="20"/>
       <c r="B211" s="21"/>
       <c r="C211" s="82"/>
       <c r="E211" s="20"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" s="8" customFormat="1">
       <c r="A212" s="20"/>
       <c r="B212" s="21"/>
       <c r="C212" s="82"/>
       <c r="E212" s="20"/>
       <c r="F212" s="22"/>
     </row>
-    <row r="213" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" s="8" customFormat="1">
       <c r="A213" s="20"/>
       <c r="B213" s="21"/>
       <c r="C213" s="82"/>
       <c r="E213" s="20"/>
       <c r="F213" s="22"/>
     </row>
-    <row r="214" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" s="8" customFormat="1">
       <c r="A214" s="20"/>
       <c r="B214" s="21"/>
       <c r="C214" s="82"/>
       <c r="E214" s="20"/>
       <c r="F214" s="22"/>
     </row>
-    <row r="215" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" s="8" customFormat="1">
       <c r="A215" s="20"/>
       <c r="B215" s="21"/>
       <c r="C215" s="82"/>
       <c r="E215" s="20"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" s="8" customFormat="1">
       <c r="A216" s="20"/>
       <c r="B216" s="21"/>
       <c r="C216" s="82"/>
       <c r="E216" s="20"/>
       <c r="F216" s="22"/>
     </row>
-    <row r="217" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" s="8" customFormat="1">
       <c r="A217" s="20"/>
       <c r="B217" s="21"/>
       <c r="C217" s="82"/>
       <c r="E217" s="20"/>
       <c r="F217" s="22"/>
     </row>
-    <row r="218" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" s="8" customFormat="1">
       <c r="A218" s="20"/>
       <c r="B218" s="21"/>
       <c r="C218" s="82"/>
       <c r="E218" s="20"/>
       <c r="F218" s="22"/>
     </row>
-    <row r="219" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" s="8" customFormat="1">
       <c r="A219" s="20"/>
       <c r="B219" s="21"/>
       <c r="C219" s="82"/>
       <c r="E219" s="20"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" s="8" customFormat="1">
       <c r="A220" s="20"/>
       <c r="B220" s="21"/>
       <c r="C220" s="82"/>
       <c r="E220" s="20"/>
       <c r="F220" s="22"/>
     </row>
-    <row r="221" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" s="8" customFormat="1">
       <c r="A221" s="20"/>
       <c r="B221" s="21"/>
       <c r="C221" s="82"/>
       <c r="E221" s="20"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" s="8" customFormat="1">
       <c r="A222" s="20"/>
       <c r="B222" s="21"/>
       <c r="C222" s="82"/>
       <c r="E222" s="20"/>
       <c r="F222" s="22"/>
     </row>
-    <row r="223" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" s="8" customFormat="1">
       <c r="A223" s="20"/>
       <c r="B223" s="21"/>
       <c r="C223" s="82"/>
       <c r="E223" s="20"/>
       <c r="F223" s="22"/>
     </row>
-    <row r="224" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" s="8" customFormat="1">
       <c r="A224" s="20"/>
       <c r="B224" s="21"/>
       <c r="C224" s="82"/>
       <c r="E224" s="20"/>
       <c r="F224" s="22"/>
     </row>
-    <row r="225" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" s="8" customFormat="1">
       <c r="A225" s="20"/>
       <c r="B225" s="21"/>
       <c r="C225" s="82"/>
       <c r="E225" s="20"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" s="8" customFormat="1">
       <c r="A226" s="20"/>
       <c r="B226" s="21"/>
       <c r="C226" s="82"/>
       <c r="E226" s="20"/>
       <c r="F226" s="22"/>
     </row>
-    <row r="227" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" s="8" customFormat="1">
       <c r="A227" s="20"/>
       <c r="B227" s="21"/>
       <c r="C227" s="82"/>
       <c r="E227" s="20"/>
       <c r="F227" s="22"/>
     </row>
-    <row r="228" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" s="8" customFormat="1">
       <c r="A228" s="20"/>
       <c r="B228" s="21"/>
       <c r="C228" s="82"/>
       <c r="E228" s="20"/>
       <c r="F228" s="22"/>
     </row>
-    <row r="229" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" s="8" customFormat="1">
       <c r="A229" s="20"/>
       <c r="B229" s="21"/>
       <c r="C229" s="82"/>
       <c r="E229" s="20"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" s="8" customFormat="1">
       <c r="A230" s="20"/>
       <c r="B230" s="21"/>
       <c r="C230" s="82"/>
       <c r="E230" s="20"/>
       <c r="F230" s="22"/>
     </row>
-    <row r="231" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" s="8" customFormat="1">
       <c r="A231" s="20"/>
       <c r="B231" s="21"/>
       <c r="C231" s="82"/>
       <c r="E231" s="20"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" s="8" customFormat="1">
       <c r="A232" s="20"/>
       <c r="B232" s="21"/>
       <c r="C232" s="82"/>
       <c r="E232" s="20"/>
       <c r="F232" s="22"/>
     </row>
-    <row r="233" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" s="8" customFormat="1">
       <c r="A233" s="20"/>
       <c r="B233" s="21"/>
       <c r="C233" s="82"/>
       <c r="E233" s="20"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" s="8" customFormat="1">
       <c r="A234" s="20"/>
       <c r="B234" s="21"/>
       <c r="C234" s="82"/>
       <c r="E234" s="20"/>
       <c r="F234" s="22"/>
     </row>
-    <row r="235" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" s="8" customFormat="1">
       <c r="A235" s="20"/>
       <c r="B235" s="21"/>
       <c r="C235" s="82"/>
       <c r="E235" s="20"/>
       <c r="F235" s="22"/>
     </row>
-    <row r="236" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" s="8" customFormat="1">
       <c r="A236" s="20"/>
       <c r="B236" s="21"/>
       <c r="C236" s="82"/>
       <c r="E236" s="20"/>
       <c r="F236" s="22"/>
     </row>
-    <row r="237" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" s="8" customFormat="1">
       <c r="A237" s="20"/>
       <c r="B237" s="21"/>
       <c r="C237" s="82"/>
       <c r="E237" s="20"/>
       <c r="F237" s="22"/>
     </row>
-    <row r="238" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" s="8" customFormat="1">
       <c r="A238" s="20"/>
       <c r="B238" s="21"/>
       <c r="C238" s="82"/>
       <c r="E238" s="20"/>
       <c r="F238" s="22"/>
     </row>
-    <row r="239" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" s="8" customFormat="1">
       <c r="A239" s="20"/>
       <c r="B239" s="21"/>
       <c r="C239" s="82"/>
       <c r="E239" s="20"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" s="8" customFormat="1">
       <c r="A240" s="20"/>
       <c r="B240" s="21"/>
       <c r="C240" s="82"/>
       <c r="E240" s="20"/>
       <c r="F240" s="22"/>
     </row>
-    <row r="241" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" s="8" customFormat="1">
       <c r="A241" s="20"/>
       <c r="B241" s="21"/>
       <c r="C241" s="82"/>
       <c r="E241" s="20"/>
       <c r="F241" s="22"/>
     </row>
-    <row r="242" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" s="8" customFormat="1">
       <c r="A242" s="20"/>
       <c r="B242" s="21"/>
       <c r="C242" s="82"/>
       <c r="E242" s="20"/>
       <c r="F242" s="22"/>
     </row>
-    <row r="243" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" s="8" customFormat="1">
       <c r="A243" s="20"/>
       <c r="B243" s="21"/>
       <c r="C243" s="82"/>
       <c r="E243" s="20"/>
       <c r="F243" s="22"/>
     </row>
-    <row r="244" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" s="8" customFormat="1">
       <c r="A244" s="20"/>
       <c r="B244" s="21"/>
       <c r="C244" s="82"/>
       <c r="E244" s="20"/>
       <c r="F244" s="22"/>
     </row>
-    <row r="245" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" s="8" customFormat="1">
       <c r="A245" s="20"/>
       <c r="B245" s="21"/>
       <c r="C245" s="82"/>
       <c r="E245" s="20"/>
       <c r="F245" s="22"/>
     </row>
-    <row r="246" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" s="8" customFormat="1">
       <c r="A246" s="20"/>
       <c r="B246" s="21"/>
       <c r="C246" s="82"/>
       <c r="E246" s="20"/>
       <c r="F246" s="22"/>
     </row>
-    <row r="247" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" s="8" customFormat="1">
       <c r="A247" s="20"/>
       <c r="B247" s="21"/>
       <c r="C247" s="82"/>
       <c r="E247" s="20"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" s="8" customFormat="1">
       <c r="A248" s="20"/>
       <c r="B248" s="21"/>
       <c r="C248" s="82"/>
       <c r="E248" s="20"/>
       <c r="F248" s="22"/>
     </row>
-    <row r="249" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" s="8" customFormat="1">
       <c r="A249" s="20"/>
       <c r="B249" s="21"/>
       <c r="C249" s="82"/>
       <c r="E249" s="20"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" s="8" customFormat="1">
       <c r="A250" s="20"/>
       <c r="B250" s="21"/>
       <c r="C250" s="82"/>
       <c r="E250" s="20"/>
       <c r="F250" s="22"/>
     </row>
-    <row r="251" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" s="8" customFormat="1">
       <c r="A251" s="20"/>
       <c r="B251" s="21"/>
       <c r="C251" s="82"/>
       <c r="E251" s="20"/>
       <c r="F251" s="22"/>
     </row>
-    <row r="252" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" s="8" customFormat="1">
       <c r="A252" s="20"/>
       <c r="B252" s="21"/>
       <c r="C252" s="82"/>
       <c r="E252" s="20"/>
       <c r="F252" s="22"/>
     </row>
-    <row r="253" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" s="8" customFormat="1">
       <c r="A253" s="20"/>
       <c r="B253" s="21"/>
       <c r="C253" s="82"/>
       <c r="E253" s="20"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" s="8" customFormat="1">
       <c r="A254" s="20"/>
       <c r="B254" s="21"/>
       <c r="C254" s="82"/>
       <c r="E254" s="20"/>
       <c r="F254" s="22"/>
     </row>
-    <row r="255" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" s="8" customFormat="1">
       <c r="A255" s="20"/>
       <c r="B255" s="21"/>
       <c r="C255" s="82"/>
       <c r="E255" s="20"/>
       <c r="F255" s="22"/>
     </row>
-    <row r="256" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" s="8" customFormat="1">
       <c r="A256" s="20"/>
       <c r="B256" s="21"/>
       <c r="C256" s="82"/>
       <c r="E256" s="20"/>
       <c r="F256" s="22"/>
     </row>
-    <row r="257" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" s="8" customFormat="1">
       <c r="A257" s="20"/>
       <c r="B257" s="21"/>
       <c r="C257" s="82"/>
       <c r="E257" s="20"/>
       <c r="F257" s="22"/>
     </row>
-    <row r="258" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" s="8" customFormat="1">
       <c r="A258" s="20"/>
       <c r="B258" s="21"/>
       <c r="C258" s="82"/>
       <c r="E258" s="20"/>
       <c r="F258" s="22"/>
     </row>
-    <row r="259" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" s="8" customFormat="1">
       <c r="A259" s="20"/>
       <c r="B259" s="21"/>
       <c r="C259" s="82"/>
       <c r="E259" s="20"/>
       <c r="F259" s="22"/>
     </row>
-    <row r="260" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" s="8" customFormat="1">
       <c r="A260" s="20"/>
       <c r="B260" s="21"/>
       <c r="C260" s="82"/>
       <c r="E260" s="20"/>
       <c r="F260" s="22"/>
     </row>
-    <row r="261" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" s="8" customFormat="1">
       <c r="A261" s="20"/>
       <c r="B261" s="21"/>
       <c r="C261" s="82"/>
       <c r="E261" s="20"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" s="8" customFormat="1">
       <c r="A262" s="20"/>
       <c r="B262" s="21"/>
       <c r="C262" s="82"/>
       <c r="E262" s="20"/>
       <c r="F262" s="22"/>
     </row>
-    <row r="263" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" s="8" customFormat="1">
       <c r="A263" s="20"/>
       <c r="B263" s="21"/>
       <c r="C263" s="82"/>
       <c r="E263" s="20"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" s="8" customFormat="1">
       <c r="A264" s="20"/>
       <c r="B264" s="21"/>
       <c r="C264" s="82"/>
       <c r="E264" s="20"/>
       <c r="F264" s="22"/>
     </row>
-    <row r="265" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" s="8" customFormat="1">
       <c r="A265" s="20"/>
       <c r="B265" s="21"/>
       <c r="C265" s="82"/>
       <c r="E265" s="20"/>
       <c r="F265" s="22"/>
     </row>
-    <row r="266" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" s="8" customFormat="1">
       <c r="A266" s="20"/>
       <c r="B266" s="21"/>
       <c r="C266" s="82"/>
       <c r="E266" s="20"/>
       <c r="F266" s="22"/>
     </row>
-    <row r="267" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" s="8" customFormat="1">
       <c r="A267" s="20"/>
       <c r="B267" s="21"/>
       <c r="C267" s="82"/>
       <c r="E267" s="20"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" s="8" customFormat="1">
       <c r="A268" s="20"/>
       <c r="B268" s="21"/>
       <c r="C268" s="82"/>
       <c r="E268" s="20"/>
       <c r="F268" s="22"/>
     </row>
-    <row r="269" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" s="8" customFormat="1">
       <c r="A269" s="20"/>
       <c r="B269" s="21"/>
       <c r="C269" s="82"/>
       <c r="E269" s="20"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" s="8" customFormat="1">
       <c r="A270" s="20"/>
       <c r="B270" s="21"/>
       <c r="C270" s="82"/>
       <c r="E270" s="20"/>
       <c r="F270" s="22"/>
     </row>
-    <row r="271" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" s="8" customFormat="1">
       <c r="A271" s="20"/>
       <c r="B271" s="21"/>
       <c r="C271" s="82"/>
       <c r="E271" s="20"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" s="8" customFormat="1">
       <c r="A272" s="20"/>
       <c r="B272" s="21"/>
       <c r="C272" s="82"/>
       <c r="E272" s="20"/>
       <c r="F272" s="22"/>
     </row>
-    <row r="273" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" s="8" customFormat="1">
       <c r="A273" s="20"/>
       <c r="B273" s="21"/>
       <c r="C273" s="82"/>
       <c r="E273" s="20"/>
       <c r="F273" s="22"/>
     </row>
-    <row r="274" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" s="8" customFormat="1">
       <c r="A274" s="20"/>
       <c r="B274" s="21"/>
       <c r="C274" s="82"/>
       <c r="E274" s="20"/>
       <c r="F274" s="22"/>
     </row>
-    <row r="275" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" s="8" customFormat="1">
       <c r="A275" s="20"/>
       <c r="B275" s="21"/>
       <c r="C275" s="82"/>
       <c r="E275" s="20"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" s="8" customFormat="1">
       <c r="A276" s="20"/>
       <c r="B276" s="21"/>
       <c r="C276" s="82"/>
       <c r="E276" s="20"/>
       <c r="F276" s="22"/>
     </row>
-    <row r="277" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" s="8" customFormat="1">
       <c r="A277" s="20"/>
       <c r="B277" s="21"/>
       <c r="C277" s="82"/>
       <c r="E277" s="20"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" s="8" customFormat="1">
       <c r="A278" s="20"/>
       <c r="B278" s="21"/>
       <c r="C278" s="82"/>
       <c r="E278" s="20"/>
       <c r="F278" s="22"/>
     </row>
-    <row r="279" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" s="8" customFormat="1">
       <c r="A279" s="20"/>
       <c r="B279" s="21"/>
       <c r="C279" s="82"/>
       <c r="E279" s="20"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" s="8" customFormat="1">
       <c r="A280" s="20"/>
       <c r="B280" s="21"/>
       <c r="C280" s="82"/>
       <c r="E280" s="20"/>
       <c r="F280" s="22"/>
     </row>
-    <row r="281" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" s="8" customFormat="1">
       <c r="A281" s="20"/>
       <c r="B281" s="21"/>
       <c r="C281" s="82"/>
       <c r="E281" s="20"/>
       <c r="F281" s="22"/>
     </row>
-    <row r="282" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" s="8" customFormat="1">
       <c r="A282" s="20"/>
       <c r="B282" s="21"/>
       <c r="C282" s="82"/>
       <c r="E282" s="20"/>
       <c r="F282" s="22"/>
     </row>
-    <row r="283" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" s="8" customFormat="1">
       <c r="A283" s="20"/>
       <c r="B283" s="21"/>
       <c r="C283" s="82"/>
       <c r="E283" s="20"/>
       <c r="F283" s="22"/>
     </row>
-    <row r="284" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" s="8" customFormat="1">
       <c r="A284" s="20"/>
       <c r="B284" s="21"/>
       <c r="C284" s="82"/>
       <c r="E284" s="20"/>
       <c r="F284" s="22"/>
     </row>
-    <row r="285" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" s="8" customFormat="1">
       <c r="A285" s="20"/>
       <c r="B285" s="21"/>
       <c r="C285" s="82"/>
       <c r="E285" s="20"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" s="8" customFormat="1">
       <c r="A286" s="20"/>
       <c r="B286" s="21"/>
       <c r="C286" s="82"/>
       <c r="E286" s="20"/>
       <c r="F286" s="22"/>
     </row>
-    <row r="287" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" s="8" customFormat="1">
       <c r="A287" s="20"/>
       <c r="B287" s="21"/>
       <c r="C287" s="82"/>
       <c r="E287" s="20"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" s="8" customFormat="1">
       <c r="A288" s="20"/>
       <c r="B288" s="21"/>
       <c r="C288" s="82"/>
       <c r="E288" s="20"/>
       <c r="F288" s="22"/>
     </row>
-    <row r="289" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" s="8" customFormat="1">
       <c r="A289" s="20"/>
       <c r="B289" s="21"/>
       <c r="C289" s="82"/>
       <c r="E289" s="20"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" s="8" customFormat="1">
       <c r="A290" s="20"/>
       <c r="B290" s="21"/>
       <c r="C290" s="82"/>
       <c r="E290" s="20"/>
       <c r="F290" s="22"/>
     </row>
-    <row r="291" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" s="8" customFormat="1">
       <c r="A291" s="20"/>
       <c r="B291" s="21"/>
       <c r="C291" s="82"/>
       <c r="E291" s="20"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" s="8" customFormat="1">
       <c r="A292" s="20"/>
       <c r="B292" s="21"/>
       <c r="C292" s="82"/>
       <c r="E292" s="20"/>
       <c r="F292" s="22"/>
     </row>
-    <row r="293" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" s="8" customFormat="1">
       <c r="A293" s="20"/>
       <c r="B293" s="21"/>
       <c r="C293" s="82"/>
       <c r="E293" s="20"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" s="8" customFormat="1">
       <c r="A294" s="20"/>
       <c r="B294" s="21"/>
       <c r="C294" s="82"/>
       <c r="E294" s="20"/>
       <c r="F294" s="22"/>
     </row>
-    <row r="295" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" s="8" customFormat="1">
       <c r="A295" s="20"/>
       <c r="B295" s="21"/>
       <c r="C295" s="82"/>
       <c r="E295" s="20"/>
       <c r="F295" s="22"/>
     </row>
-    <row r="296" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" s="8" customFormat="1">
       <c r="A296" s="20"/>
       <c r="B296" s="21"/>
       <c r="C296" s="82"/>
       <c r="E296" s="20"/>
       <c r="F296" s="22"/>
     </row>
-    <row r="297" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" s="8" customFormat="1">
       <c r="A297" s="20"/>
       <c r="B297" s="21"/>
       <c r="C297" s="82"/>
       <c r="E297" s="20"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" s="8" customFormat="1">
       <c r="A298" s="20"/>
       <c r="B298" s="21"/>
       <c r="C298" s="82"/>
       <c r="E298" s="20"/>
       <c r="F298" s="22"/>
     </row>
-    <row r="299" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" s="8" customFormat="1">
       <c r="A299" s="20"/>
       <c r="B299" s="21"/>
       <c r="C299" s="82"/>
       <c r="E299" s="20"/>
       <c r="F299" s="22"/>
     </row>
-    <row r="300" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" s="8" customFormat="1">
       <c r="A300" s="20"/>
       <c r="B300" s="21"/>
       <c r="C300" s="82"/>
       <c r="E300" s="20"/>
       <c r="F300" s="22"/>
     </row>
-    <row r="301" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" s="8" customFormat="1">
       <c r="A301" s="20"/>
       <c r="B301" s="21"/>
       <c r="C301" s="82"/>
       <c r="E301" s="20"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" s="8" customFormat="1">
       <c r="A302" s="20"/>
       <c r="B302" s="21"/>
       <c r="C302" s="82"/>
       <c r="E302" s="20"/>
       <c r="F302" s="22"/>
     </row>
-    <row r="303" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" s="8" customFormat="1">
       <c r="A303" s="20"/>
       <c r="B303" s="21"/>
       <c r="C303" s="82"/>
       <c r="E303" s="20"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" s="8" customFormat="1">
       <c r="A304" s="20"/>
       <c r="B304" s="21"/>
       <c r="C304" s="82"/>
       <c r="E304" s="20"/>
       <c r="F304" s="22"/>
     </row>
-    <row r="305" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" s="8" customFormat="1">
       <c r="A305" s="20"/>
       <c r="B305" s="21"/>
       <c r="C305" s="82"/>
       <c r="E305" s="20"/>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" s="8" customFormat="1">
       <c r="A306" s="20"/>
       <c r="B306" s="21"/>
       <c r="C306" s="82"/>
       <c r="E306" s="20"/>
       <c r="F306" s="22"/>
     </row>
-    <row r="307" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" s="8" customFormat="1">
       <c r="A307" s="20"/>
       <c r="B307" s="21"/>
       <c r="C307" s="82"/>
       <c r="E307" s="20"/>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" s="8" customFormat="1">
       <c r="A308" s="20"/>
       <c r="B308" s="21"/>
       <c r="C308" s="82"/>
       <c r="E308" s="20"/>
       <c r="F308" s="22"/>
     </row>
-    <row r="309" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" s="8" customFormat="1">
       <c r="A309" s="20"/>
       <c r="B309" s="21"/>
       <c r="C309" s="82"/>
       <c r="E309" s="20"/>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" s="8" customFormat="1">
       <c r="A310" s="20"/>
       <c r="B310" s="21"/>
       <c r="C310" s="82"/>
       <c r="E310" s="20"/>
       <c r="F310" s="22"/>
     </row>
-    <row r="311" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" s="8" customFormat="1">
       <c r="A311" s="20"/>
       <c r="B311" s="21"/>
       <c r="C311" s="82"/>
       <c r="E311" s="20"/>
       <c r="F311" s="22"/>
     </row>
-    <row r="312" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" s="8" customFormat="1">
       <c r="A312" s="20"/>
       <c r="B312" s="21"/>
       <c r="C312" s="82"/>
       <c r="E312" s="20"/>
       <c r="F312" s="22"/>
     </row>
-    <row r="313" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" s="8" customFormat="1">
       <c r="A313" s="20"/>
       <c r="B313" s="21"/>
       <c r="C313" s="82"/>
       <c r="E313" s="20"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" s="8" customFormat="1">
       <c r="A314" s="20"/>
       <c r="B314" s="21"/>
       <c r="C314" s="82"/>
       <c r="E314" s="20"/>
       <c r="F314" s="22"/>
     </row>
-    <row r="315" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" s="8" customFormat="1">
       <c r="A315" s="20"/>
       <c r="B315" s="21"/>
       <c r="C315" s="82"/>
       <c r="E315" s="20"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" s="8" customFormat="1">
       <c r="A316" s="20"/>
       <c r="B316" s="21"/>
       <c r="C316" s="82"/>
       <c r="E316" s="20"/>
       <c r="F316" s="22"/>
     </row>
-    <row r="317" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" s="8" customFormat="1">
       <c r="A317" s="20"/>
       <c r="B317" s="21"/>
       <c r="C317" s="82"/>
       <c r="E317" s="20"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" s="8" customFormat="1">
       <c r="A318" s="20"/>
       <c r="B318" s="21"/>
       <c r="C318" s="82"/>
       <c r="E318" s="20"/>
       <c r="F318" s="22"/>
     </row>
-    <row r="319" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" s="8" customFormat="1">
       <c r="A319" s="20"/>
       <c r="B319" s="21"/>
       <c r="C319" s="82"/>
       <c r="E319" s="20"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" s="8" customFormat="1">
       <c r="A320" s="20"/>
       <c r="B320" s="21"/>
       <c r="C320" s="82"/>
       <c r="E320" s="20"/>
       <c r="F320" s="22"/>
     </row>
-    <row r="321" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" s="8" customFormat="1">
       <c r="A321" s="20"/>
       <c r="B321" s="21"/>
       <c r="C321" s="82"/>
       <c r="E321" s="20"/>
       <c r="F321" s="22"/>
     </row>
-    <row r="322" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" s="8" customFormat="1">
       <c r="A322" s="20"/>
       <c r="B322" s="21"/>
       <c r="C322" s="82"/>
       <c r="E322" s="20"/>
       <c r="F322" s="22"/>
     </row>
-    <row r="323" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" s="8" customFormat="1">
       <c r="A323" s="20"/>
       <c r="B323" s="21"/>
       <c r="C323" s="82"/>
       <c r="E323" s="20"/>
       <c r="F323" s="22"/>
     </row>
-    <row r="324" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" s="8" customFormat="1">
       <c r="A324" s="20"/>
       <c r="B324" s="21"/>
       <c r="C324" s="82"/>
       <c r="E324" s="20"/>
       <c r="F324" s="22"/>
     </row>
-    <row r="325" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" s="8" customFormat="1">
       <c r="A325" s="20"/>
       <c r="B325" s="21"/>
       <c r="C325" s="82"/>
       <c r="E325" s="20"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" s="8" customFormat="1">
       <c r="A326" s="20"/>
       <c r="B326" s="21"/>
       <c r="C326" s="82"/>
       <c r="E326" s="20"/>
       <c r="F326" s="22"/>
     </row>
-    <row r="327" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" s="8" customFormat="1">
       <c r="A327" s="20"/>
       <c r="B327" s="21"/>
       <c r="C327" s="82"/>
       <c r="E327" s="20"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" s="8" customFormat="1">
       <c r="A328" s="20"/>
       <c r="B328" s="21"/>
       <c r="C328" s="82"/>
       <c r="E328" s="20"/>
       <c r="F328" s="22"/>
     </row>
-    <row r="329" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" s="8" customFormat="1">
       <c r="A329" s="20"/>
       <c r="B329" s="21"/>
       <c r="C329" s="82"/>
       <c r="E329" s="20"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" s="8" customFormat="1">
       <c r="A330" s="20"/>
       <c r="B330" s="21"/>
       <c r="C330" s="82"/>
       <c r="E330" s="20"/>
       <c r="F330" s="22"/>
     </row>
-    <row r="331" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" s="8" customFormat="1">
       <c r="A331" s="20"/>
       <c r="B331" s="21"/>
       <c r="C331" s="82"/>
       <c r="E331" s="20"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" s="8" customFormat="1">
       <c r="A332" s="20"/>
       <c r="B332" s="21"/>
       <c r="C332" s="82"/>
       <c r="E332" s="20"/>
       <c r="F332" s="22"/>
     </row>
-    <row r="333" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" s="8" customFormat="1">
       <c r="A333" s="20"/>
       <c r="B333" s="21"/>
       <c r="C333" s="82"/>
       <c r="E333" s="20"/>
       <c r="F333" s="22"/>
     </row>
-    <row r="334" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" s="8" customFormat="1">
       <c r="A334" s="20"/>
       <c r="B334" s="21"/>
       <c r="C334" s="82"/>
       <c r="E334" s="20"/>
       <c r="F334" s="22"/>
     </row>
-    <row r="335" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" s="8" customFormat="1">
       <c r="A335" s="20"/>
       <c r="B335" s="21"/>
       <c r="C335" s="82"/>
       <c r="E335" s="20"/>
       <c r="F335" s="22"/>
     </row>
-    <row r="336" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" s="8" customFormat="1">
       <c r="A336" s="20"/>
       <c r="B336" s="21"/>
       <c r="C336" s="82"/>
       <c r="E336" s="20"/>
       <c r="F336" s="22"/>
     </row>
-    <row r="337" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" s="8" customFormat="1">
       <c r="A337" s="20"/>
       <c r="B337" s="21"/>
       <c r="C337" s="82"/>
       <c r="E337" s="20"/>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" s="8" customFormat="1">
       <c r="A338" s="20"/>
       <c r="B338" s="21"/>
       <c r="C338" s="82"/>
       <c r="E338" s="20"/>
       <c r="F338" s="22"/>
     </row>
-    <row r="339" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" s="8" customFormat="1">
       <c r="A339" s="20"/>
       <c r="B339" s="21"/>
       <c r="C339" s="82"/>
       <c r="E339" s="20"/>
       <c r="F339" s="22"/>
     </row>
-    <row r="340" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" s="8" customFormat="1">
       <c r="A340" s="20"/>
       <c r="B340" s="21"/>
       <c r="C340" s="82"/>
       <c r="E340" s="20"/>
       <c r="F340" s="22"/>
     </row>
-    <row r="341" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" s="8" customFormat="1">
       <c r="A341" s="20"/>
       <c r="B341" s="21"/>
       <c r="C341" s="82"/>
       <c r="E341" s="20"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" s="8" customFormat="1">
       <c r="A342" s="20"/>
       <c r="B342" s="21"/>
       <c r="C342" s="82"/>
       <c r="E342" s="20"/>
       <c r="F342" s="22"/>
     </row>
-    <row r="343" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" s="8" customFormat="1">
       <c r="A343" s="20"/>
       <c r="B343" s="21"/>
       <c r="C343" s="82"/>
       <c r="E343" s="20"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" s="8" customFormat="1">
       <c r="A344" s="20"/>
       <c r="B344" s="21"/>
       <c r="C344" s="82"/>
       <c r="E344" s="20"/>
       <c r="F344" s="22"/>
     </row>
-    <row r="345" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" s="8" customFormat="1">
       <c r="A345" s="20"/>
       <c r="B345" s="21"/>
       <c r="C345" s="82"/>
       <c r="E345" s="20"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" s="8" customFormat="1">
       <c r="A346" s="20"/>
       <c r="B346" s="21"/>
       <c r="C346" s="82"/>
       <c r="E346" s="20"/>
       <c r="F346" s="22"/>
     </row>
-    <row r="347" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" s="8" customFormat="1">
       <c r="A347" s="20"/>
       <c r="B347" s="21"/>
       <c r="C347" s="82"/>
       <c r="E347" s="20"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" s="8" customFormat="1">
       <c r="A348" s="20"/>
       <c r="B348" s="21"/>
       <c r="C348" s="82"/>
       <c r="E348" s="20"/>
       <c r="F348" s="22"/>
     </row>
-    <row r="349" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" s="8" customFormat="1">
       <c r="A349" s="20"/>
       <c r="B349" s="21"/>
       <c r="C349" s="82"/>
       <c r="E349" s="20"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" s="8" customFormat="1">
       <c r="A350" s="20"/>
       <c r="B350" s="21"/>
       <c r="C350" s="82"/>
       <c r="E350" s="20"/>
       <c r="F350" s="22"/>
     </row>
-    <row r="351" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" s="8" customFormat="1">
       <c r="A351" s="20"/>
       <c r="B351" s="21"/>
       <c r="C351" s="82"/>
       <c r="E351" s="20"/>
       <c r="F351" s="22"/>
     </row>
-    <row r="352" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" s="8" customFormat="1">
       <c r="A352" s="20"/>
       <c r="B352" s="21"/>
       <c r="C352" s="82"/>
       <c r="E352" s="20"/>
       <c r="F352" s="22"/>
     </row>
-    <row r="353" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:244" s="8" customFormat="1">
       <c r="A353" s="20"/>
       <c r="B353" s="21"/>
       <c r="C353" s="82"/>
@@ -39224,7 +39232,7 @@
       <c r="F353" s="22"/>
       <c r="IJ353" s="23"/>
     </row>
-    <row r="354" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:244" s="8" customFormat="1">
       <c r="A354" s="20"/>
       <c r="B354" s="21"/>
       <c r="C354" s="82"/>
@@ -39232,7 +39240,7 @@
       <c r="F354" s="22"/>
       <c r="IJ354" s="23"/>
     </row>
-    <row r="355" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:244" s="8" customFormat="1">
       <c r="A355" s="20"/>
       <c r="B355" s="21"/>
       <c r="C355" s="82"/>
@@ -39240,7 +39248,7 @@
       <c r="F355" s="22"/>
       <c r="IJ355" s="23"/>
     </row>
-    <row r="356" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:244" s="8" customFormat="1">
       <c r="A356" s="20"/>
       <c r="B356" s="21"/>
       <c r="C356" s="82"/>
@@ -39248,7 +39256,7 @@
       <c r="F356" s="22"/>
       <c r="IJ356" s="23"/>
     </row>
-    <row r="357" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:244" s="8" customFormat="1">
       <c r="A357" s="20"/>
       <c r="B357" s="21"/>
       <c r="C357" s="82"/>
@@ -39256,7 +39264,7 @@
       <c r="F357" s="22"/>
       <c r="IJ357" s="23"/>
     </row>
-    <row r="358" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:244" s="8" customFormat="1">
       <c r="A358" s="20"/>
       <c r="B358" s="21"/>
       <c r="C358" s="82"/>
@@ -39278,319 +39286,324 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="89"/>
+    <col min="1" max="1" width="8.83203125" style="88"/>
     <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="89"/>
+    <col min="3" max="4" width="8.83203125" style="88"/>
+    <col min="5" max="5" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="89">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="89">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="121" customFormat="1">
+      <c r="A4" s="119">
+        <v>3</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="89">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="89">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="89">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="89">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="121" customFormat="1">
+      <c r="A9" s="119">
+        <v>8</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="121" customFormat="1">
+      <c r="A10" s="119">
+        <v>9</v>
+      </c>
+      <c r="B10" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="90" t="s">
+      <c r="C10" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="89">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="90">
+      <c r="C12" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="89">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="90">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="138" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="136">
-        <v>3</v>
-      </c>
-      <c r="B4" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="90">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="90">
+      <c r="C13" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="89">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="90">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="90">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="138" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="136">
-        <v>8</v>
-      </c>
-      <c r="B9" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="138" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="136">
-        <v>9</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="90">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="90">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="89"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89">
         <f>SUM(D2:D13)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="90">
+    <row r="15" spans="1:5" ht="100" customHeight="1">
+      <c r="A15" s="89">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="143">
+        <v>16</v>
+      </c>
+      <c r="E15" s="142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="124" customFormat="1" ht="17">
+      <c r="A16" s="122"/>
+      <c r="B16" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122">
+        <v>1</v>
+      </c>
+      <c r="E16" s="141"/>
+    </row>
+    <row r="17" spans="1:5" s="124" customFormat="1" ht="17">
+      <c r="A17" s="122">
+        <v>15</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="122">
+        <v>1</v>
+      </c>
+      <c r="E17" s="141"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="89">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="89">
+        <v>6</v>
+      </c>
+      <c r="E18" s="141"/>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="89">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="89">
+        <v>10</v>
+      </c>
+      <c r="E19" s="141"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="89">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="89">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="90">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="141" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="139"/>
-      <c r="B16" s="140" t="s">
+      <c r="C21" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="89">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139">
-        <v>1</v>
-      </c>
-      <c r="E16" s="141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="141" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="139">
-        <v>15</v>
-      </c>
-      <c r="B17" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="90">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C22" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="89">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="90">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="90">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="90">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="90">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="90">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="90">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="90">
+      <c r="C23" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="89">
         <v>4</v>
       </c>
     </row>

--- a/装修中期/桃源小镇6-3-301主材购买清单-於工lyk修改.xlsx
+++ b/装修中期/桃源小镇6-3-301主材购买清单-於工lyk修改.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzilan/MyGit/MarkdownPhotos/装修中期/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2879AF-3815-E84C-9C1A-CFF54A03C26E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BED49-C9D0-164B-A6FF-66610A21D9C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1080" windowWidth="23200" windowHeight="16920" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="1080" windowWidth="23200" windowHeight="16920" tabRatio="563" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="电器+软装" sheetId="4" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>序号</t>
   </si>
@@ -639,14 +639,6 @@
     <t>4分三角阀</t>
   </si>
   <si>
-    <t>1.马桶上水口―――1个单冷 * 2 = 2。（2个双口角阀，配喷枪）
-2.洗脸盆上水口――1冷1热 * 2 = 4。
-3.水槽上水口―――1冷1热 * 3 = 6。（中厨，西厨，阳台）
-4.热水器上水口――1冷1热 = 2
-共14个
-5 小厨宝</t>
-  </si>
-  <si>
     <t>生料带</t>
   </si>
   <si>
@@ -702,6 +694,18 @@
   </si>
   <si>
     <t>浴室扶手</t>
+  </si>
+  <si>
+    <t>洗碗机，洗衣机</t>
+  </si>
+  <si>
+    <t>1.马桶上水口―――1个单冷 * 2 = 2。（2个双口角阀，配喷枪）
+2.洗脸盆上水口――1冷1热 * 2 = 4。
+3.水槽上水口―――1冷1热 * 3 = 6。（中厨，西厨，阳台）
+4.热水器上水口――1冷1热 = 2
+共14个
+5 小厨宝 1个
+共15个</t>
   </si>
 </sst>
 </file>
@@ -1391,6 +1395,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1438,16 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1745,17 +1749,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="63" customFormat="1" ht="41" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="128"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="42" customHeight="1">
       <c r="A2" s="64" t="s">
@@ -1787,17 +1791,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="125"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="67">
@@ -1876,17 +1880,17 @@
       <c r="I7" s="97"/>
     </row>
     <row r="8" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="125"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="67">
@@ -1927,17 +1931,17 @@
       <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="125"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="129"/>
     </row>
     <row r="12" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A12" s="67">
@@ -1978,17 +1982,17 @@
       <c r="I13" s="69"/>
     </row>
     <row r="14" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="125"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="67">
@@ -2010,17 +2014,17 @@
       <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="125"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="95">
@@ -2326,7 +2330,7 @@
       <c r="A1" s="75">
         <v>8</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="134" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="73" t="s">
@@ -2344,7 +2348,7 @@
       <c r="A2" s="75">
         <v>9</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="73" t="s">
         <v>69</v>
       </c>
@@ -2360,7 +2364,7 @@
       <c r="A3" s="92">
         <v>10</v>
       </c>
-      <c r="B3" s="131"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="93" t="s">
         <v>70</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="A4" s="75">
         <v>11</v>
       </c>
-      <c r="B4" s="132"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="73" t="s">
         <v>71</v>
       </c>
@@ -2392,7 +2396,7 @@
       <c r="A5" s="75">
         <v>12</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="134" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -2410,7 +2414,7 @@
       <c r="A6" s="75">
         <v>13</v>
       </c>
-      <c r="B6" s="131"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="73" t="s">
         <v>69</v>
       </c>
@@ -2426,7 +2430,7 @@
       <c r="A7" s="92">
         <v>14</v>
       </c>
-      <c r="B7" s="131"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="93" t="s">
         <v>70</v>
       </c>
@@ -2442,7 +2446,7 @@
       <c r="A8" s="75">
         <v>15</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="73" t="s">
         <v>73</v>
       </c>
@@ -2458,7 +2462,7 @@
       <c r="A9" s="75">
         <v>16</v>
       </c>
-      <c r="B9" s="132"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="73" t="s">
         <v>65</v>
       </c>
@@ -2474,7 +2478,7 @@
       <c r="A10" s="75">
         <v>17</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="134" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="73" t="s">
@@ -2492,7 +2496,7 @@
       <c r="A11" s="75">
         <v>18</v>
       </c>
-      <c r="B11" s="131"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="73" t="s">
         <v>69</v>
       </c>
@@ -2508,7 +2512,7 @@
       <c r="A12" s="92">
         <v>19</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="93" t="s">
         <v>70</v>
       </c>
@@ -2524,7 +2528,7 @@
       <c r="A13" s="75">
         <v>20</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="135"/>
       <c r="C13" s="73" t="s">
         <v>73</v>
       </c>
@@ -2540,7 +2544,7 @@
       <c r="A14" s="75">
         <v>21</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="73" t="s">
         <v>65</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="102" t="s">
         <v>78</v>
@@ -3612,9 +3616,9 @@
         <v>9</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="133" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="137" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -3867,9 +3871,9 @@
         <v>10</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="134"/>
+        <v>148</v>
+      </c>
+      <c r="C6" s="138"/>
       <c r="D6" s="109" t="s">
         <v>29</v>
       </c>
@@ -4120,9 +4124,9 @@
         <v>11</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="134"/>
+        <v>149</v>
+      </c>
+      <c r="C7" s="138"/>
       <c r="D7" s="114" t="s">
         <v>6</v>
       </c>
@@ -4375,7 +4379,7 @@
       <c r="B8" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="115" t="s">
         <v>22</v>
       </c>
@@ -4628,7 +4632,7 @@
       <c r="B9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
@@ -4883,7 +4887,7 @@
       <c r="B10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="140" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="55" t="s">
@@ -5139,7 +5143,7 @@
       <c r="B11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="137"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="55" t="s">
         <v>26</v>
       </c>
@@ -5155,7 +5159,7 @@
       <c r="B12" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="137"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
@@ -5409,7 +5413,7 @@
       <c r="B13" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="137"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="34" t="s">
         <v>10</v>
       </c>
@@ -5663,7 +5667,7 @@
       <c r="B14" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="81" t="s">
         <v>22</v>
       </c>
@@ -5919,7 +5923,7 @@
       <c r="B15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="143" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -5929,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6176,7 +6180,7 @@
       <c r="B16" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="28" t="s">
         <v>12</v>
       </c>
@@ -6244,7 +6248,7 @@
     <row r="20" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>105</v>
@@ -6260,7 +6264,7 @@
     <row r="21" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>105</v>
@@ -6276,7 +6280,7 @@
     <row r="22" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>105</v>
@@ -6294,7 +6298,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="61" t="s">
         <v>91</v>
@@ -6312,7 +6316,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>92</v>
@@ -7910,7 +7914,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="77" t="s">
         <v>80</v>
@@ -8166,7 +8170,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="77" t="s">
         <v>80</v>
@@ -8421,7 +8425,7 @@
       <c r="A35" s="25">
         <v>36</v>
       </c>
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="128" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="83" t="s">
@@ -8442,7 +8446,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="83" t="s">
         <v>101</v>
@@ -39289,8 +39293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -39488,11 +39492,11 @@
       <c r="C15" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="127">
         <v>16</v>
       </c>
-      <c r="E15" s="142" t="s">
-        <v>140</v>
+      <c r="E15" s="126" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="124" customFormat="1" ht="17">
@@ -39504,7 +39508,7 @@
       <c r="D16" s="122">
         <v>1</v>
       </c>
-      <c r="E16" s="141"/>
+      <c r="E16" s="125"/>
     </row>
     <row r="17" spans="1:5" s="124" customFormat="1" ht="17">
       <c r="A17" s="122">
@@ -39517,16 +39521,18 @@
         <v>66</v>
       </c>
       <c r="D17" s="122">
-        <v>1</v>
-      </c>
-      <c r="E17" s="141"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="125" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="17">
       <c r="A18" s="89">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>126</v>
@@ -39534,14 +39540,14 @@
       <c r="D18" s="89">
         <v>6</v>
       </c>
-      <c r="E18" s="141"/>
+      <c r="E18" s="125"/>
     </row>
     <row r="19" spans="1:5" ht="17">
       <c r="A19" s="89">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="89" t="s">
         <v>31</v>
@@ -39549,14 +39555,14 @@
       <c r="D19" s="89">
         <v>10</v>
       </c>
-      <c r="E19" s="141"/>
+      <c r="E19" s="125"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="89">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="89" t="s">
         <v>130</v>
@@ -39570,7 +39576,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="89" t="s">
         <v>130</v>
@@ -39584,7 +39590,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>125</v>
@@ -39598,7 +39604,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>126</v>

--- a/装修中期/桃源小镇6-3-301主材购买清单-於工lyk修改.xlsx
+++ b/装修中期/桃源小镇6-3-301主材购买清单-於工lyk修改.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11015"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzilan/MyGit/MarkdownPhotos/装修中期/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuankun/MyOwnGit/Indoor-Decoration-Knowlege/装修中期/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BED49-C9D0-164B-A6FF-66610A21D9C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1080" windowWidth="23200" windowHeight="16920" tabRatio="563" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29940" yWindow="10960" windowWidth="23200" windowHeight="16920" tabRatio="563" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="电器+软装" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="主材配套清单" sheetId="6" r:id="rId3"/>
     <sheet name="开关、插座面板清单" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -711,13 +710,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1727,14 +1726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="66"/>
     <col min="2" max="2" width="17.1640625" style="63" customWidth="1"/>
@@ -1748,7 +1747,7 @@
     <col min="10" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="63" customFormat="1" ht="41" customHeight="1">
+    <row r="1" spans="1:9" s="63" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="132" t="s">
         <v>35</v>
       </c>
@@ -1761,7 +1760,7 @@
       <c r="H1" s="133"/>
       <c r="I1" s="132"/>
     </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1">
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="64" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="3" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="129" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1802,7 @@
       <c r="H3" s="131"/>
       <c r="I3" s="129"/>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="67">
         <v>1</v>
       </c>
@@ -1822,7 +1821,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="5" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="67">
         <v>2</v>
       </c>
@@ -1841,7 +1840,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="6" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="67">
         <v>3</v>
       </c>
@@ -1860,7 +1859,7 @@
       <c r="H6" s="68"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+    <row r="7" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="95">
         <v>4</v>
       </c>
@@ -1879,7 +1878,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="97"/>
     </row>
-    <row r="8" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="8" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="129" t="s">
         <v>47</v>
       </c>
@@ -1892,7 +1891,7 @@
       <c r="H8" s="131"/>
       <c r="I8" s="129"/>
     </row>
-    <row r="9" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="9" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67">
         <v>1</v>
       </c>
@@ -1911,7 +1910,7 @@
       <c r="H9" s="68"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="10" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="67">
         <v>2</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="H10" s="68"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="11" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="129" t="s">
         <v>59</v>
       </c>
@@ -1943,7 +1942,7 @@
       <c r="H11" s="131"/>
       <c r="I11" s="129"/>
     </row>
-    <row r="12" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="12" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67">
         <v>1</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="13" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="67">
         <v>2</v>
       </c>
@@ -1981,7 +1980,7 @@
       <c r="H13" s="68"/>
       <c r="I13" s="69"/>
     </row>
-    <row r="14" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="14" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="129" t="s">
         <v>51</v>
       </c>
@@ -1994,7 +1993,7 @@
       <c r="H14" s="131"/>
       <c r="I14" s="129"/>
     </row>
-    <row r="15" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="15" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67">
         <v>1</v>
       </c>
@@ -2013,7 +2012,7 @@
       <c r="H15" s="68"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="16" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="129" t="s">
         <v>53</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="H16" s="131"/>
       <c r="I16" s="129"/>
     </row>
-    <row r="17" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+    <row r="17" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="95">
         <v>1</v>
       </c>
@@ -2045,7 +2044,7 @@
       <c r="H17" s="96"/>
       <c r="I17" s="97"/>
     </row>
-    <row r="18" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+    <row r="18" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95">
         <v>2</v>
       </c>
@@ -2064,7 +2063,7 @@
       <c r="H18" s="96"/>
       <c r="I18" s="97"/>
     </row>
-    <row r="19" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+    <row r="19" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="95">
         <v>3</v>
       </c>
@@ -2083,7 +2082,7 @@
       <c r="H19" s="96"/>
       <c r="I19" s="97"/>
     </row>
-    <row r="20" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="20" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="90">
         <v>4</v>
       </c>
@@ -2102,7 +2101,7 @@
       <c r="H20" s="68"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="21" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="90">
         <v>5</v>
       </c>
@@ -2121,7 +2120,7 @@
       <c r="H21" s="68"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="22" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="90">
         <v>6</v>
       </c>
@@ -2140,7 +2139,7 @@
       <c r="H22" s="68"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="23" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="90">
         <v>7</v>
       </c>
@@ -2159,7 +2158,7 @@
       <c r="H23" s="68"/>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+    <row r="24" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="95">
         <v>8</v>
       </c>
@@ -2178,7 +2177,7 @@
       <c r="H24" s="96"/>
       <c r="I24" s="97"/>
     </row>
-    <row r="25" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="25" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="90">
         <v>9</v>
       </c>
@@ -2197,7 +2196,7 @@
       <c r="H25" s="91"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="26" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="90">
         <v>10</v>
       </c>
@@ -2216,7 +2215,7 @@
       <c r="H26" s="91"/>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="27" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="90">
         <v>11</v>
       </c>
@@ -2235,7 +2234,7 @@
       <c r="H27" s="68"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1">
+    <row r="28" spans="1:9" s="98" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="95">
         <v>12</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="H28" s="96"/>
       <c r="I28" s="97"/>
     </row>
-    <row r="29" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1">
+    <row r="29" spans="1:9" s="63" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="67"/>
       <c r="B29" s="67" t="s">
         <v>54</v>
@@ -2270,25 +2269,25 @@
       <c r="H29" s="68"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" s="63" customFormat="1">
+    <row r="30" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="66"/>
       <c r="F30" s="66"/>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
     </row>
-    <row r="31" spans="1:9" s="63" customFormat="1">
+    <row r="31" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="66"/>
       <c r="F31" s="66"/>
       <c r="G31" s="70"/>
       <c r="H31" s="70"/>
     </row>
-    <row r="32" spans="1:9" s="63" customFormat="1">
+    <row r="32" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="66"/>
       <c r="F32" s="66"/>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
     </row>
-    <row r="33" spans="3:8" s="63" customFormat="1">
+    <row r="33" spans="3:8" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="66"/>
       <c r="F33" s="66"/>
       <c r="G33" s="70"/>
@@ -2309,14 +2308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="71"/>
     <col min="2" max="2" width="8.83203125" style="74"/>
@@ -2326,7 +2325,7 @@
     <col min="7" max="16384" width="8.83203125" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="75">
         <v>8</v>
       </c>
@@ -2344,7 +2343,7 @@
       </c>
       <c r="F1" s="73"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="75">
         <v>9</v>
       </c>
@@ -2360,7 +2359,7 @@
       </c>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" s="94" customFormat="1">
+    <row r="3" spans="1:6" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="92">
         <v>10</v>
       </c>
@@ -2376,7 +2375,7 @@
       </c>
       <c r="F3" s="93"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="75">
         <v>11</v>
       </c>
@@ -2392,7 +2391,7 @@
       </c>
       <c r="F4" s="73"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="75">
         <v>12</v>
       </c>
@@ -2410,7 +2409,7 @@
       </c>
       <c r="F5" s="73"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="75">
         <v>13</v>
       </c>
@@ -2426,7 +2425,7 @@
       </c>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" s="94" customFormat="1">
+    <row r="7" spans="1:6" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="92">
         <v>14</v>
       </c>
@@ -2442,7 +2441,7 @@
       </c>
       <c r="F7" s="93"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="75">
         <v>15</v>
       </c>
@@ -2458,7 +2457,7 @@
       </c>
       <c r="F8" s="73"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="75">
         <v>16</v>
       </c>
@@ -2474,7 +2473,7 @@
       </c>
       <c r="F9" s="73"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="75">
         <v>17</v>
       </c>
@@ -2492,7 +2491,7 @@
       </c>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="75">
         <v>18</v>
       </c>
@@ -2508,7 +2507,7 @@
       </c>
       <c r="F11" s="73"/>
     </row>
-    <row r="12" spans="1:6" s="94" customFormat="1">
+    <row r="12" spans="1:6" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="92">
         <v>19</v>
       </c>
@@ -2524,7 +2523,7 @@
       </c>
       <c r="F12" s="93"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="75">
         <v>20</v>
       </c>
@@ -2540,7 +2539,7 @@
       </c>
       <c r="F13" s="73"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>21</v>
       </c>
@@ -2569,14 +2568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IK358"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" style="21" customWidth="1"/>
@@ -2588,7 +2587,7 @@
     <col min="244" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:244" s="1" customFormat="1">
+    <row r="1" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2845,7 @@
       <c r="II1" s="5"/>
       <c r="IJ1" s="41"/>
     </row>
-    <row r="2" spans="1:244" s="1" customFormat="1">
+    <row r="2" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
       <c r="B2" s="86" t="s">
         <v>103</v>
@@ -3100,7 +3099,7 @@
       <c r="II2" s="5"/>
       <c r="IJ2" s="41"/>
     </row>
-    <row r="3" spans="1:244" s="107" customFormat="1">
+    <row r="3" spans="1:244" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="100">
         <v>7</v>
       </c>
@@ -3356,7 +3355,7 @@
       <c r="II3" s="105"/>
       <c r="IJ3" s="106"/>
     </row>
-    <row r="4" spans="1:244" s="106" customFormat="1">
+    <row r="4" spans="1:244" s="106" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="100">
         <v>8</v>
       </c>
@@ -3611,7 +3610,7 @@
       <c r="IH4" s="105"/>
       <c r="II4" s="105"/>
     </row>
-    <row r="5" spans="1:244" s="2" customFormat="1">
+    <row r="5" spans="1:244" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>9</v>
       </c>
@@ -3866,7 +3865,7 @@
       <c r="IH5" s="20"/>
       <c r="II5" s="20"/>
     </row>
-    <row r="6" spans="1:244" s="112" customFormat="1">
+    <row r="6" spans="1:244" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="100">
         <v>10</v>
       </c>
@@ -4119,7 +4118,7 @@
       <c r="IH6" s="111"/>
       <c r="II6" s="111"/>
     </row>
-    <row r="7" spans="1:244" s="112" customFormat="1">
+    <row r="7" spans="1:244" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="100">
         <v>11</v>
       </c>
@@ -4372,7 +4371,7 @@
       <c r="IH7" s="111"/>
       <c r="II7" s="111"/>
     </row>
-    <row r="8" spans="1:244" s="112" customFormat="1">
+    <row r="8" spans="1:244" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="100">
         <v>12</v>
       </c>
@@ -4625,7 +4624,7 @@
       <c r="IH8" s="111"/>
       <c r="II8" s="111"/>
     </row>
-    <row r="9" spans="1:244" s="2" customFormat="1">
+    <row r="9" spans="1:244" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>13</v>
       </c>
@@ -4880,7 +4879,7 @@
       <c r="IH9" s="20"/>
       <c r="II9" s="20"/>
     </row>
-    <row r="10" spans="1:244" s="1" customFormat="1">
+    <row r="10" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>14</v>
       </c>
@@ -5136,7 +5135,7 @@
       <c r="II10" s="5"/>
       <c r="IJ10" s="41"/>
     </row>
-    <row r="11" spans="1:244" s="5" customFormat="1">
+    <row r="11" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>15</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:244" s="3" customFormat="1">
+    <row r="12" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>16</v>
       </c>
@@ -5406,7 +5405,7 @@
       <c r="II12"/>
       <c r="IJ12"/>
     </row>
-    <row r="13" spans="1:244" s="3" customFormat="1">
+    <row r="13" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>17</v>
       </c>
@@ -5660,7 +5659,7 @@
       <c r="II13"/>
       <c r="IJ13"/>
     </row>
-    <row r="14" spans="1:244" s="3" customFormat="1">
+    <row r="14" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>18</v>
       </c>
@@ -5916,7 +5915,7 @@
       <c r="II14"/>
       <c r="IJ14"/>
     </row>
-    <row r="15" spans="1:244" s="4" customFormat="1">
+    <row r="15" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>19</v>
       </c>
@@ -6173,7 +6172,7 @@
       <c r="IH15" s="15"/>
       <c r="II15" s="15"/>
     </row>
-    <row r="16" spans="1:244" s="5" customFormat="1">
+    <row r="16" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>20</v>
       </c>
@@ -6189,7 +6188,7 @@
       </c>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
+    <row r="17" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>21</v>
       </c>
@@ -6207,7 +6206,7 @@
       </c>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
+    <row r="18" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>22</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:244" s="105" customFormat="1" ht="28.25" customHeight="1">
+    <row r="19" spans="1:244" s="105" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="100">
         <v>23</v>
       </c>
@@ -6245,7 +6244,7 @@
       </c>
       <c r="F19" s="118"/>
     </row>
-    <row r="20" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
+    <row r="20" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25"/>
       <c r="B20" s="60" t="s">
         <v>152</v>
@@ -6261,7 +6260,7 @@
       </c>
       <c r="F20" s="59"/>
     </row>
-    <row r="21" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
+    <row r="21" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25"/>
       <c r="B21" s="60" t="s">
         <v>151</v>
@@ -6277,7 +6276,7 @@
       </c>
       <c r="F21" s="59"/>
     </row>
-    <row r="22" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
+    <row r="22" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25"/>
       <c r="B22" s="60" t="s">
         <v>153</v>
@@ -6293,7 +6292,7 @@
       </c>
       <c r="F22" s="59"/>
     </row>
-    <row r="23" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1">
+    <row r="23" spans="1:244" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>24</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
+    <row r="24" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>25</v>
       </c>
@@ -6566,7 +6565,7 @@
       <c r="IH24" s="15"/>
       <c r="II24" s="15"/>
     </row>
-    <row r="25" spans="1:244" ht="28.25" customHeight="1">
+    <row r="25" spans="1:244" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>26</v>
       </c>
@@ -6584,7 +6583,7 @@
       </c>
       <c r="F25" s="58"/>
     </row>
-    <row r="26" spans="1:244" ht="28.25" customHeight="1">
+    <row r="26" spans="1:244" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>27</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:244" ht="28.25" customHeight="1">
+    <row r="27" spans="1:244" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>28</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1">
+    <row r="28" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>29</v>
       </c>
@@ -6882,7 +6881,7 @@
       <c r="II28" s="5"/>
       <c r="IJ28" s="41"/>
     </row>
-    <row r="29" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1">
+    <row r="29" spans="1:244" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>30</v>
       </c>
@@ -7140,7 +7139,7 @@
       <c r="II29" s="5"/>
       <c r="IJ29" s="41"/>
     </row>
-    <row r="30" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
+    <row r="30" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>31</v>
       </c>
@@ -7397,7 +7396,7 @@
       <c r="IH30" s="15"/>
       <c r="II30" s="15"/>
     </row>
-    <row r="31" spans="1:244" s="6" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:244" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>32</v>
       </c>
@@ -7653,7 +7652,7 @@
       <c r="II31" s="38"/>
       <c r="IJ31" s="42"/>
     </row>
-    <row r="32" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
+    <row r="32" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>33</v>
       </c>
@@ -7909,7 +7908,7 @@
       <c r="II32" s="3"/>
       <c r="IJ32" s="3"/>
     </row>
-    <row r="33" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
+    <row r="33" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>34</v>
       </c>
@@ -8165,7 +8164,7 @@
       <c r="II33" s="3"/>
       <c r="IJ33" s="3"/>
     </row>
-    <row r="34" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1">
+    <row r="34" spans="1:244" s="4" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25">
         <v>35</v>
       </c>
@@ -8421,7 +8420,7 @@
       <c r="II34" s="3"/>
       <c r="IJ34" s="3"/>
     </row>
-    <row r="35" spans="1:244" ht="30">
+    <row r="35" spans="1:244" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="25">
         <v>36</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:244">
+    <row r="36" spans="1:244" x14ac:dyDescent="0.15">
       <c r="A36" s="25">
         <v>37</v>
       </c>
@@ -8462,7 +8461,7 @@
       </c>
       <c r="IJ36" s="8"/>
     </row>
-    <row r="37" spans="1:244">
+    <row r="37" spans="1:244" x14ac:dyDescent="0.15">
       <c r="A37" s="25">
         <v>38</v>
       </c>
@@ -8481,7 +8480,7 @@
       <c r="F37" s="59"/>
       <c r="IJ37" s="8"/>
     </row>
-    <row r="38" spans="1:244" s="43" customFormat="1">
+    <row r="38" spans="1:244" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="25">
         <v>39</v>
       </c>
@@ -8739,7 +8738,7 @@
       <c r="II38" s="39"/>
       <c r="IJ38" s="39"/>
     </row>
-    <row r="39" spans="1:244" s="6" customFormat="1">
+    <row r="39" spans="1:244" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="82"/>
@@ -8985,7 +8984,7 @@
       <c r="II39" s="38"/>
       <c r="IJ39" s="42"/>
     </row>
-    <row r="40" spans="1:244" s="9" customFormat="1">
+    <row r="40" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="82"/>
@@ -9231,7 +9230,7 @@
       <c r="II40" s="16"/>
       <c r="IJ40" s="44"/>
     </row>
-    <row r="41" spans="1:244" s="10" customFormat="1">
+    <row r="41" spans="1:244" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="82"/>
@@ -9240,7 +9239,7 @@
       <c r="F41" s="22"/>
       <c r="IJ41" s="45"/>
     </row>
-    <row r="44" spans="1:244" s="1" customFormat="1">
+    <row r="44" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="82"/>
@@ -9486,7 +9485,7 @@
       <c r="II44" s="5"/>
       <c r="IJ44" s="41"/>
     </row>
-    <row r="45" spans="1:244" s="9" customFormat="1">
+    <row r="45" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="82"/>
@@ -9732,7 +9731,7 @@
       <c r="II45" s="16"/>
       <c r="IJ45" s="44"/>
     </row>
-    <row r="46" spans="1:244" s="9" customFormat="1">
+    <row r="46" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="82"/>
@@ -9978,7 +9977,7 @@
       <c r="II46" s="16"/>
       <c r="IJ46" s="44"/>
     </row>
-    <row r="47" spans="1:244" s="11" customFormat="1">
+    <row r="47" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="82"/>
@@ -10224,7 +10223,7 @@
       <c r="II47" s="40"/>
       <c r="IJ47" s="46"/>
     </row>
-    <row r="48" spans="1:244" s="11" customFormat="1">
+    <row r="48" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="82"/>
@@ -10470,7 +10469,7 @@
       <c r="II48" s="40"/>
       <c r="IJ48" s="46"/>
     </row>
-    <row r="49" spans="1:244" s="11" customFormat="1">
+    <row r="49" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="82"/>
@@ -10716,7 +10715,7 @@
       <c r="II49" s="40"/>
       <c r="IJ49" s="46"/>
     </row>
-    <row r="50" spans="1:244" s="9" customFormat="1">
+    <row r="50" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="82"/>
@@ -10962,7 +10961,7 @@
       <c r="II50" s="16"/>
       <c r="IJ50" s="44"/>
     </row>
-    <row r="51" spans="1:244" s="9" customFormat="1">
+    <row r="51" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="82"/>
@@ -11208,7 +11207,7 @@
       <c r="II51" s="16"/>
       <c r="IJ51" s="44"/>
     </row>
-    <row r="52" spans="1:244" s="9" customFormat="1">
+    <row r="52" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
       <c r="C52" s="82"/>
@@ -11454,7 +11453,7 @@
       <c r="II52" s="16"/>
       <c r="IJ52" s="44"/>
     </row>
-    <row r="53" spans="1:244" s="9" customFormat="1">
+    <row r="53" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="82"/>
@@ -11700,7 +11699,7 @@
       <c r="II53" s="16"/>
       <c r="IJ53" s="44"/>
     </row>
-    <row r="54" spans="1:244" s="11" customFormat="1">
+    <row r="54" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="82"/>
@@ -11946,7 +11945,7 @@
       <c r="II54" s="40"/>
       <c r="IJ54" s="46"/>
     </row>
-    <row r="55" spans="1:244" s="11" customFormat="1">
+    <row r="55" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="20"/>
       <c r="B55" s="21"/>
       <c r="C55" s="82"/>
@@ -12192,7 +12191,7 @@
       <c r="II55" s="40"/>
       <c r="IJ55" s="46"/>
     </row>
-    <row r="56" spans="1:244" s="12" customFormat="1">
+    <row r="56" spans="1:244" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
       <c r="C56" s="82"/>
@@ -12438,7 +12437,7 @@
       <c r="II56" s="47"/>
       <c r="IJ56" s="51"/>
     </row>
-    <row r="58" spans="1:244" s="1" customFormat="1">
+    <row r="58" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="82"/>
@@ -12684,7 +12683,7 @@
       <c r="II58" s="5"/>
       <c r="IJ58" s="41"/>
     </row>
-    <row r="59" spans="1:244" s="9" customFormat="1">
+    <row r="59" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="82"/>
@@ -12930,7 +12929,7 @@
       <c r="II59" s="16"/>
       <c r="IJ59" s="44"/>
     </row>
-    <row r="60" spans="1:244" s="9" customFormat="1">
+    <row r="60" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="82"/>
@@ -13176,7 +13175,7 @@
       <c r="II60" s="16"/>
       <c r="IJ60" s="44"/>
     </row>
-    <row r="61" spans="1:244" s="9" customFormat="1">
+    <row r="61" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="82"/>
@@ -13422,7 +13421,7 @@
       <c r="II61" s="16"/>
       <c r="IJ61" s="44"/>
     </row>
-    <row r="62" spans="1:244" s="9" customFormat="1">
+    <row r="62" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="82"/>
@@ -13668,7 +13667,7 @@
       <c r="II62" s="16"/>
       <c r="IJ62" s="44"/>
     </row>
-    <row r="63" spans="1:244" s="9" customFormat="1">
+    <row r="63" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="82"/>
@@ -13914,7 +13913,7 @@
       <c r="II63" s="16"/>
       <c r="IJ63" s="44"/>
     </row>
-    <row r="64" spans="1:244" s="9" customFormat="1">
+    <row r="64" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="82"/>
@@ -14160,7 +14159,7 @@
       <c r="II64" s="16"/>
       <c r="IJ64" s="44"/>
     </row>
-    <row r="65" spans="1:244" s="9" customFormat="1">
+    <row r="65" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="82"/>
@@ -14406,7 +14405,7 @@
       <c r="II65" s="16"/>
       <c r="IJ65" s="44"/>
     </row>
-    <row r="66" spans="1:244" s="9" customFormat="1">
+    <row r="66" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="82"/>
@@ -14652,7 +14651,7 @@
       <c r="II66" s="16"/>
       <c r="IJ66" s="44"/>
     </row>
-    <row r="67" spans="1:244" s="9" customFormat="1">
+    <row r="67" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="82"/>
@@ -14898,7 +14897,7 @@
       <c r="II67" s="16"/>
       <c r="IJ67" s="44"/>
     </row>
-    <row r="68" spans="1:244" s="9" customFormat="1">
+    <row r="68" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="82"/>
@@ -15144,7 +15143,7 @@
       <c r="II68" s="16"/>
       <c r="IJ68" s="44"/>
     </row>
-    <row r="69" spans="1:244" s="9" customFormat="1">
+    <row r="69" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="82"/>
@@ -15390,7 +15389,7 @@
       <c r="II69" s="16"/>
       <c r="IJ69" s="44"/>
     </row>
-    <row r="70" spans="1:244" s="13" customFormat="1">
+    <row r="70" spans="1:244" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="82"/>
@@ -15636,7 +15635,7 @@
       <c r="II70" s="16"/>
       <c r="IJ70" s="44"/>
     </row>
-    <row r="72" spans="1:244" s="1" customFormat="1">
+    <row r="72" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="82"/>
@@ -15882,7 +15881,7 @@
       <c r="II72" s="8"/>
       <c r="IJ72" s="23"/>
     </row>
-    <row r="73" spans="1:244" s="4" customFormat="1">
+    <row r="73" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="82"/>
@@ -16127,7 +16126,7 @@
       <c r="IH73" s="15"/>
       <c r="II73" s="15"/>
     </row>
-    <row r="74" spans="1:244" s="4" customFormat="1">
+    <row r="74" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="82"/>
@@ -16372,7 +16371,7 @@
       <c r="IH74" s="15"/>
       <c r="II74" s="15"/>
     </row>
-    <row r="75" spans="1:244">
+    <row r="75" spans="1:244" x14ac:dyDescent="0.15">
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -16590,7 +16589,7 @@
       <c r="II75" s="48"/>
       <c r="IJ75" s="52"/>
     </row>
-    <row r="76" spans="1:244">
+    <row r="76" spans="1:244" x14ac:dyDescent="0.15">
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -16808,7 +16807,7 @@
       <c r="II76" s="5"/>
       <c r="IJ76" s="41"/>
     </row>
-    <row r="77" spans="1:244">
+    <row r="77" spans="1:244" x14ac:dyDescent="0.15">
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -17026,7 +17025,7 @@
       <c r="II77" s="5"/>
       <c r="IJ77" s="41"/>
     </row>
-    <row r="78" spans="1:244">
+    <row r="78" spans="1:244" x14ac:dyDescent="0.15">
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -17244,7 +17243,7 @@
       <c r="II78" s="5"/>
       <c r="IJ78" s="41"/>
     </row>
-    <row r="79" spans="1:244">
+    <row r="79" spans="1:244" x14ac:dyDescent="0.15">
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -17484,7 +17483,7 @@
       <c r="II79" s="5"/>
       <c r="IJ79" s="41"/>
     </row>
-    <row r="80" spans="1:244" s="6" customFormat="1">
+    <row r="80" spans="1:244" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="82"/>
@@ -17730,7 +17729,7 @@
       <c r="II80" s="38"/>
       <c r="IJ80" s="42"/>
     </row>
-    <row r="81" spans="1:244" s="6" customFormat="1">
+    <row r="81" spans="1:244" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="82"/>
@@ -17976,7 +17975,7 @@
       <c r="II81" s="38"/>
       <c r="IJ81" s="42"/>
     </row>
-    <row r="82" spans="1:244">
+    <row r="82" spans="1:244" x14ac:dyDescent="0.15">
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -18216,7 +18215,7 @@
       <c r="II82" s="5"/>
       <c r="IJ82" s="41"/>
     </row>
-    <row r="83" spans="1:244" s="14" customFormat="1">
+    <row r="83" spans="1:244" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="82"/>
@@ -18462,7 +18461,7 @@
       <c r="II83" s="5"/>
       <c r="IJ83" s="41"/>
     </row>
-    <row r="84" spans="1:244" s="1" customFormat="1">
+    <row r="84" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="82"/>
@@ -18708,7 +18707,7 @@
       <c r="II84" s="5"/>
       <c r="IJ84" s="41"/>
     </row>
-    <row r="85" spans="1:244" s="1" customFormat="1">
+    <row r="85" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="82"/>
@@ -18954,7 +18953,7 @@
       <c r="II85" s="5"/>
       <c r="IJ85" s="41"/>
     </row>
-    <row r="86" spans="1:244" s="1" customFormat="1">
+    <row r="86" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="82"/>
@@ -19200,7 +19199,7 @@
       <c r="II86" s="5"/>
       <c r="IJ86" s="41"/>
     </row>
-    <row r="87" spans="1:244" s="1" customFormat="1">
+    <row r="87" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="82"/>
@@ -19446,7 +19445,7 @@
       <c r="II87" s="5"/>
       <c r="IJ87" s="41"/>
     </row>
-    <row r="88" spans="1:244" s="1" customFormat="1">
+    <row r="88" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="82"/>
@@ -19692,7 +19691,7 @@
       <c r="II88" s="8"/>
       <c r="IJ88" s="23"/>
     </row>
-    <row r="89" spans="1:244" s="1" customFormat="1">
+    <row r="89" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="82"/>
@@ -19938,7 +19937,7 @@
       <c r="II89" s="5"/>
       <c r="IJ89" s="5"/>
     </row>
-    <row r="90" spans="1:244" s="1" customFormat="1">
+    <row r="90" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="82"/>
@@ -20184,7 +20183,7 @@
       <c r="II90" s="5"/>
       <c r="IJ90" s="5"/>
     </row>
-    <row r="91" spans="1:244" s="1" customFormat="1">
+    <row r="91" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="82"/>
@@ -20430,7 +20429,7 @@
       <c r="II91" s="5"/>
       <c r="IJ91" s="5"/>
     </row>
-    <row r="92" spans="1:244" s="1" customFormat="1">
+    <row r="92" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="82"/>
@@ -20676,7 +20675,7 @@
       <c r="II92" s="5"/>
       <c r="IJ92" s="5"/>
     </row>
-    <row r="93" spans="1:244" s="1" customFormat="1">
+    <row r="93" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="82"/>
@@ -20922,7 +20921,7 @@
       <c r="II93" s="5"/>
       <c r="IJ93" s="5"/>
     </row>
-    <row r="94" spans="1:244">
+    <row r="94" spans="1:244" x14ac:dyDescent="0.15">
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -21162,7 +21161,7 @@
       <c r="II94" s="5"/>
       <c r="IJ94" s="5"/>
     </row>
-    <row r="95" spans="1:244" s="5" customFormat="1">
+    <row r="95" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="82"/>
@@ -21170,7 +21169,7 @@
       <c r="E95" s="20"/>
       <c r="F95" s="22"/>
     </row>
-    <row r="96" spans="1:244" s="5" customFormat="1">
+    <row r="96" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="82"/>
@@ -21178,7 +21177,7 @@
       <c r="E96" s="20"/>
       <c r="F96" s="22"/>
     </row>
-    <row r="97" spans="1:244" s="5" customFormat="1">
+    <row r="97" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="82"/>
@@ -21186,7 +21185,7 @@
       <c r="E97" s="20"/>
       <c r="F97" s="22"/>
     </row>
-    <row r="98" spans="1:244" s="5" customFormat="1">
+    <row r="98" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="82"/>
@@ -21194,7 +21193,7 @@
       <c r="E98" s="20"/>
       <c r="F98" s="22"/>
     </row>
-    <row r="99" spans="1:244" s="5" customFormat="1">
+    <row r="99" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="82"/>
@@ -21202,7 +21201,7 @@
       <c r="E99" s="20"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="1:244" s="5" customFormat="1">
+    <row r="100" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="82"/>
@@ -21210,7 +21209,7 @@
       <c r="E100" s="20"/>
       <c r="F100" s="22"/>
     </row>
-    <row r="101" spans="1:244" s="5" customFormat="1">
+    <row r="101" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="82"/>
@@ -21218,7 +21217,7 @@
       <c r="E101" s="20"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="1:244" s="5" customFormat="1">
+    <row r="102" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="82"/>
@@ -21226,7 +21225,7 @@
       <c r="E102" s="20"/>
       <c r="F102" s="22"/>
     </row>
-    <row r="103" spans="1:244" s="5" customFormat="1">
+    <row r="103" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="82"/>
@@ -21234,7 +21233,7 @@
       <c r="E103" s="20"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="1:244" s="5" customFormat="1">
+    <row r="104" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="82"/>
@@ -21242,7 +21241,7 @@
       <c r="E104" s="20"/>
       <c r="F104" s="22"/>
     </row>
-    <row r="105" spans="1:244" s="5" customFormat="1">
+    <row r="105" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="82"/>
@@ -21250,7 +21249,7 @@
       <c r="E105" s="20"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:244" s="5" customFormat="1">
+    <row r="106" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="82"/>
@@ -21258,7 +21257,7 @@
       <c r="E106" s="20"/>
       <c r="F106" s="22"/>
     </row>
-    <row r="107" spans="1:244" s="5" customFormat="1">
+    <row r="107" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="82"/>
@@ -21266,7 +21265,7 @@
       <c r="E107" s="20"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:244" s="5" customFormat="1">
+    <row r="108" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="82"/>
@@ -21274,7 +21273,7 @@
       <c r="E108" s="20"/>
       <c r="F108" s="22"/>
     </row>
-    <row r="109" spans="1:244" s="5" customFormat="1">
+    <row r="109" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="82"/>
@@ -21282,7 +21281,7 @@
       <c r="E109" s="20"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:244" s="5" customFormat="1">
+    <row r="110" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="82"/>
@@ -21291,7 +21290,7 @@
       <c r="F110" s="22"/>
       <c r="IJ110" s="41"/>
     </row>
-    <row r="111" spans="1:244" s="5" customFormat="1">
+    <row r="111" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="82"/>
@@ -21300,7 +21299,7 @@
       <c r="F111" s="22"/>
       <c r="IA111" s="41"/>
     </row>
-    <row r="112" spans="1:244" s="5" customFormat="1">
+    <row r="112" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="82"/>
@@ -21309,7 +21308,7 @@
       <c r="F112" s="22"/>
       <c r="IA112" s="41"/>
     </row>
-    <row r="113" spans="1:244" s="5" customFormat="1">
+    <row r="113" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="82"/>
@@ -21318,7 +21317,7 @@
       <c r="F113" s="22"/>
       <c r="IA113" s="41"/>
     </row>
-    <row r="114" spans="1:244" s="5" customFormat="1">
+    <row r="114" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="82"/>
@@ -21327,7 +21326,7 @@
       <c r="F114" s="22"/>
       <c r="IA114" s="41"/>
     </row>
-    <row r="115" spans="1:244" s="1" customFormat="1">
+    <row r="115" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="82"/>
@@ -21564,7 +21563,7 @@
       <c r="HZ115" s="5"/>
       <c r="IA115" s="41"/>
     </row>
-    <row r="116" spans="1:244" s="1" customFormat="1">
+    <row r="116" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="82"/>
@@ -21801,7 +21800,7 @@
       <c r="HZ116" s="5"/>
       <c r="IA116" s="41"/>
     </row>
-    <row r="117" spans="1:244" s="1" customFormat="1">
+    <row r="117" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="82"/>
@@ -22038,7 +22037,7 @@
       <c r="HZ117" s="5"/>
       <c r="IA117" s="41"/>
     </row>
-    <row r="118" spans="1:244" s="1" customFormat="1">
+    <row r="118" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="82"/>
@@ -22275,7 +22274,7 @@
       <c r="HZ118" s="5"/>
       <c r="IA118" s="41"/>
     </row>
-    <row r="119" spans="1:244" s="1" customFormat="1">
+    <row r="119" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="20"/>
       <c r="B119" s="21"/>
       <c r="C119" s="82"/>
@@ -22512,7 +22511,7 @@
       <c r="HZ119" s="5"/>
       <c r="IA119" s="41"/>
     </row>
-    <row r="120" spans="1:244" s="1" customFormat="1">
+    <row r="120" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="20"/>
       <c r="B120" s="21"/>
       <c r="C120" s="82"/>
@@ -22758,7 +22757,7 @@
       <c r="II120" s="5"/>
       <c r="IJ120" s="41"/>
     </row>
-    <row r="121" spans="1:244" s="1" customFormat="1">
+    <row r="121" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="20"/>
       <c r="B121" s="21"/>
       <c r="C121" s="82"/>
@@ -23004,7 +23003,7 @@
       <c r="II121" s="5"/>
       <c r="IJ121" s="41"/>
     </row>
-    <row r="122" spans="1:244" s="1" customFormat="1">
+    <row r="122" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="20"/>
       <c r="B122" s="21"/>
       <c r="C122" s="82"/>
@@ -23250,7 +23249,7 @@
       <c r="II122" s="5"/>
       <c r="IJ122" s="41"/>
     </row>
-    <row r="123" spans="1:244" s="1" customFormat="1">
+    <row r="123" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="20"/>
       <c r="B123" s="21"/>
       <c r="C123" s="82"/>
@@ -23496,7 +23495,7 @@
       <c r="II123" s="5"/>
       <c r="IJ123" s="41"/>
     </row>
-    <row r="124" spans="1:244" s="1" customFormat="1">
+    <row r="124" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="20"/>
       <c r="B124" s="21"/>
       <c r="C124" s="82"/>
@@ -23742,7 +23741,7 @@
       <c r="II124" s="5"/>
       <c r="IJ124" s="41"/>
     </row>
-    <row r="125" spans="1:244" s="1" customFormat="1">
+    <row r="125" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="20"/>
       <c r="B125" s="21"/>
       <c r="C125" s="82"/>
@@ -23988,7 +23987,7 @@
       <c r="II125" s="5"/>
       <c r="IJ125" s="41"/>
     </row>
-    <row r="126" spans="1:244" s="1" customFormat="1">
+    <row r="126" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="20"/>
       <c r="B126" s="21"/>
       <c r="C126" s="82"/>
@@ -24234,7 +24233,7 @@
       <c r="II126" s="5"/>
       <c r="IJ126" s="41"/>
     </row>
-    <row r="127" spans="1:244" s="1" customFormat="1">
+    <row r="127" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="20"/>
       <c r="B127" s="21"/>
       <c r="C127" s="82"/>
@@ -24480,7 +24479,7 @@
       <c r="II127" s="39"/>
       <c r="IJ127" s="43"/>
     </row>
-    <row r="128" spans="1:244" s="1" customFormat="1">
+    <row r="128" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="20"/>
       <c r="B128" s="21"/>
       <c r="C128" s="82"/>
@@ -24726,7 +24725,7 @@
       <c r="II128" s="39"/>
       <c r="IJ128" s="43"/>
     </row>
-    <row r="129" spans="1:244" s="1" customFormat="1">
+    <row r="129" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="20"/>
       <c r="B129" s="21"/>
       <c r="C129" s="82"/>
@@ -24972,7 +24971,7 @@
       <c r="II129" s="39"/>
       <c r="IJ129" s="43"/>
     </row>
-    <row r="130" spans="1:244" s="1" customFormat="1">
+    <row r="130" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="20"/>
       <c r="B130" s="21"/>
       <c r="C130" s="82"/>
@@ -25218,7 +25217,7 @@
       <c r="II130" s="39"/>
       <c r="IJ130" s="43"/>
     </row>
-    <row r="131" spans="1:244" s="1" customFormat="1">
+    <row r="131" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="20"/>
       <c r="B131" s="21"/>
       <c r="C131" s="82"/>
@@ -25464,7 +25463,7 @@
       <c r="II131" s="39"/>
       <c r="IJ131" s="43"/>
     </row>
-    <row r="132" spans="1:244" s="1" customFormat="1">
+    <row r="132" spans="1:244" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="20"/>
       <c r="B132" s="21"/>
       <c r="C132" s="82"/>
@@ -25710,7 +25709,7 @@
       <c r="II132" s="53"/>
       <c r="IJ132" s="53"/>
     </row>
-    <row r="133" spans="1:244" s="7" customFormat="1">
+    <row r="133" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="20"/>
       <c r="B133" s="21"/>
       <c r="C133" s="82"/>
@@ -25956,7 +25955,7 @@
       <c r="II133" s="15"/>
       <c r="IJ133" s="15"/>
     </row>
-    <row r="134" spans="1:244" s="7" customFormat="1">
+    <row r="134" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="20"/>
       <c r="B134" s="21"/>
       <c r="C134" s="82"/>
@@ -26202,7 +26201,7 @@
       <c r="II134" s="15"/>
       <c r="IJ134" s="15"/>
     </row>
-    <row r="135" spans="1:244" s="7" customFormat="1">
+    <row r="135" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="20"/>
       <c r="B135" s="21"/>
       <c r="C135" s="82"/>
@@ -26448,7 +26447,7 @@
       <c r="II135" s="15"/>
       <c r="IJ135" s="15"/>
     </row>
-    <row r="136" spans="1:244" s="7" customFormat="1">
+    <row r="136" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="20"/>
       <c r="B136" s="21"/>
       <c r="C136" s="82"/>
@@ -26694,7 +26693,7 @@
       <c r="II136" s="15"/>
       <c r="IJ136" s="15"/>
     </row>
-    <row r="137" spans="1:244" s="7" customFormat="1">
+    <row r="137" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="20"/>
       <c r="B137" s="21"/>
       <c r="C137" s="82"/>
@@ -26940,7 +26939,7 @@
       <c r="II137" s="15"/>
       <c r="IJ137" s="15"/>
     </row>
-    <row r="138" spans="1:244" s="4" customFormat="1">
+    <row r="138" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="20"/>
       <c r="B138" s="21"/>
       <c r="C138" s="82"/>
@@ -27185,7 +27184,7 @@
       <c r="IH138" s="15"/>
       <c r="II138" s="15"/>
     </row>
-    <row r="139" spans="1:244" s="15" customFormat="1">
+    <row r="139" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="20"/>
       <c r="B139" s="21"/>
       <c r="C139" s="82"/>
@@ -27193,7 +27192,7 @@
       <c r="E139" s="20"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="1:244" s="15" customFormat="1">
+    <row r="140" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="20"/>
       <c r="B140" s="21"/>
       <c r="C140" s="82"/>
@@ -27201,7 +27200,7 @@
       <c r="E140" s="20"/>
       <c r="F140" s="22"/>
     </row>
-    <row r="141" spans="1:244" s="15" customFormat="1">
+    <row r="141" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="20"/>
       <c r="B141" s="21"/>
       <c r="C141" s="82"/>
@@ -27209,7 +27208,7 @@
       <c r="E141" s="20"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="1:244" s="15" customFormat="1">
+    <row r="142" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="20"/>
       <c r="B142" s="21"/>
       <c r="C142" s="82"/>
@@ -27217,7 +27216,7 @@
       <c r="E142" s="20"/>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="1:244" s="15" customFormat="1">
+    <row r="143" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="20"/>
       <c r="B143" s="21"/>
       <c r="C143" s="82"/>
@@ -27225,7 +27224,7 @@
       <c r="E143" s="20"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="1:244" s="15" customFormat="1">
+    <row r="144" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="20"/>
       <c r="B144" s="21"/>
       <c r="C144" s="82"/>
@@ -27233,7 +27232,7 @@
       <c r="E144" s="20"/>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="1:245" s="15" customFormat="1">
+    <row r="145" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="20"/>
       <c r="B145" s="21"/>
       <c r="C145" s="82"/>
@@ -27241,7 +27240,7 @@
       <c r="E145" s="20"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="1:245" s="15" customFormat="1">
+    <row r="146" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="20"/>
       <c r="B146" s="21"/>
       <c r="C146" s="82"/>
@@ -27249,7 +27248,7 @@
       <c r="E146" s="20"/>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="1:245" s="15" customFormat="1">
+    <row r="147" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="20"/>
       <c r="B147" s="21"/>
       <c r="C147" s="82"/>
@@ -27257,7 +27256,7 @@
       <c r="E147" s="20"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="1:245" s="15" customFormat="1">
+    <row r="148" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="20"/>
       <c r="B148" s="21"/>
       <c r="C148" s="82"/>
@@ -27265,7 +27264,7 @@
       <c r="E148" s="20"/>
       <c r="F148" s="22"/>
     </row>
-    <row r="149" spans="1:245" s="15" customFormat="1">
+    <row r="149" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="20"/>
       <c r="B149" s="21"/>
       <c r="C149" s="82"/>
@@ -27273,7 +27272,7 @@
       <c r="E149" s="20"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="1:245" s="15" customFormat="1">
+    <row r="150" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="20"/>
       <c r="B150" s="21"/>
       <c r="C150" s="82"/>
@@ -27281,7 +27280,7 @@
       <c r="E150" s="20"/>
       <c r="F150" s="22"/>
     </row>
-    <row r="151" spans="1:245" s="15" customFormat="1">
+    <row r="151" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="20"/>
       <c r="B151" s="21"/>
       <c r="C151" s="82"/>
@@ -27293,7 +27292,7 @@
       <c r="AC151" s="5"/>
       <c r="AD151" s="5"/>
     </row>
-    <row r="152" spans="1:245" s="15" customFormat="1">
+    <row r="152" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="20"/>
       <c r="B152" s="21"/>
       <c r="C152" s="82"/>
@@ -27305,7 +27304,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
     </row>
-    <row r="153" spans="1:245" s="15" customFormat="1">
+    <row r="153" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="20"/>
       <c r="B153" s="21"/>
       <c r="C153" s="82"/>
@@ -27529,7 +27528,7 @@
       <c r="II153" s="5"/>
       <c r="IJ153" s="5"/>
     </row>
-    <row r="154" spans="1:245" s="15" customFormat="1">
+    <row r="154" spans="1:245" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="20"/>
       <c r="B154" s="21"/>
       <c r="C154" s="82"/>
@@ -27753,7 +27752,7 @@
       <c r="II154" s="5"/>
       <c r="IJ154" s="5"/>
     </row>
-    <row r="155" spans="1:245" s="3" customFormat="1">
+    <row r="155" spans="1:245" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="20"/>
       <c r="B155" s="21"/>
       <c r="C155" s="82"/>
@@ -27761,7 +27760,7 @@
       <c r="E155" s="20"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="1:245" s="3" customFormat="1">
+    <row r="156" spans="1:245" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="20"/>
       <c r="B156" s="21"/>
       <c r="C156" s="82"/>
@@ -27769,7 +27768,7 @@
       <c r="E156" s="20"/>
       <c r="F156" s="22"/>
     </row>
-    <row r="157" spans="1:245" s="5" customFormat="1">
+    <row r="157" spans="1:245" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="20"/>
       <c r="B157" s="21"/>
       <c r="C157" s="82"/>
@@ -27993,7 +27992,7 @@
       <c r="IG157" s="16"/>
       <c r="IH157" s="44"/>
     </row>
-    <row r="158" spans="1:245" s="11" customFormat="1">
+    <row r="158" spans="1:245" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="20"/>
       <c r="B158" s="21"/>
       <c r="C158" s="82"/>
@@ -28237,7 +28236,7 @@
       <c r="IG158" s="16"/>
       <c r="IH158" s="44"/>
     </row>
-    <row r="159" spans="1:245" s="11" customFormat="1">
+    <row r="159" spans="1:245" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="20"/>
       <c r="B159" s="21"/>
       <c r="C159" s="82"/>
@@ -28484,7 +28483,7 @@
       <c r="IJ159" s="16"/>
       <c r="IK159" s="16"/>
     </row>
-    <row r="160" spans="1:245" s="11" customFormat="1">
+    <row r="160" spans="1:245" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="20"/>
       <c r="B160" s="21"/>
       <c r="C160" s="82"/>
@@ -28728,7 +28727,7 @@
       <c r="IG160" s="3"/>
       <c r="IH160" s="3"/>
     </row>
-    <row r="161" spans="1:244" s="11" customFormat="1">
+    <row r="161" spans="1:244" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="20"/>
       <c r="B161" s="21"/>
       <c r="C161" s="82"/>
@@ -28974,7 +28973,7 @@
       <c r="II161" s="16"/>
       <c r="IJ161" s="44"/>
     </row>
-    <row r="162" spans="1:244" s="5" customFormat="1">
+    <row r="162" spans="1:244" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="20"/>
       <c r="B162" s="21"/>
       <c r="C162" s="82"/>
@@ -29220,7 +29219,7 @@
       <c r="II162" s="16"/>
       <c r="IJ162" s="16"/>
     </row>
-    <row r="163" spans="1:244" s="9" customFormat="1">
+    <row r="163" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="20"/>
       <c r="B163" s="21"/>
       <c r="C163" s="82"/>
@@ -29466,7 +29465,7 @@
       <c r="II163" s="16"/>
       <c r="IJ163" s="16"/>
     </row>
-    <row r="164" spans="1:244" s="9" customFormat="1">
+    <row r="164" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="82"/>
@@ -29712,7 +29711,7 @@
       <c r="II164" s="16"/>
       <c r="IJ164" s="16"/>
     </row>
-    <row r="165" spans="1:244" s="9" customFormat="1">
+    <row r="165" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="20"/>
       <c r="B165" s="21"/>
       <c r="C165" s="82"/>
@@ -29958,7 +29957,7 @@
       <c r="II165" s="3"/>
       <c r="IJ165" s="3"/>
     </row>
-    <row r="166" spans="1:244" s="3" customFormat="1">
+    <row r="166" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="20"/>
       <c r="B166" s="21"/>
       <c r="C166" s="82"/>
@@ -30204,7 +30203,7 @@
       <c r="II166" s="53"/>
       <c r="IJ166" s="53"/>
     </row>
-    <row r="167" spans="1:244" s="9" customFormat="1">
+    <row r="167" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="82"/>
@@ -30450,7 +30449,7 @@
       <c r="II167" s="53"/>
       <c r="IJ167" s="53"/>
     </row>
-    <row r="168" spans="1:244" s="16" customFormat="1">
+    <row r="168" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="20"/>
       <c r="B168" s="21"/>
       <c r="C168" s="82"/>
@@ -30485,7 +30484,7 @@
       <c r="AF168" s="53"/>
       <c r="IJ168" s="44"/>
     </row>
-    <row r="169" spans="1:244" s="16" customFormat="1">
+    <row r="169" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="20"/>
       <c r="B169" s="21"/>
       <c r="C169" s="82"/>
@@ -30520,7 +30519,7 @@
       <c r="AF169" s="53"/>
       <c r="IJ169" s="44"/>
     </row>
-    <row r="170" spans="1:244" s="16" customFormat="1">
+    <row r="170" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="20"/>
       <c r="B170" s="21"/>
       <c r="C170" s="82"/>
@@ -30555,7 +30554,7 @@
       <c r="AF170" s="53"/>
       <c r="IJ170" s="44"/>
     </row>
-    <row r="171" spans="1:244" s="16" customFormat="1">
+    <row r="171" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="20"/>
       <c r="B171" s="21"/>
       <c r="C171" s="82"/>
@@ -30590,7 +30589,7 @@
       <c r="AF171" s="53"/>
       <c r="IJ171" s="44"/>
     </row>
-    <row r="172" spans="1:244" s="16" customFormat="1">
+    <row r="172" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="20"/>
       <c r="B172" s="21"/>
       <c r="C172" s="82"/>
@@ -30625,7 +30624,7 @@
       <c r="AF172" s="53"/>
       <c r="IJ172" s="44"/>
     </row>
-    <row r="173" spans="1:244" s="16" customFormat="1">
+    <row r="173" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="20"/>
       <c r="B173" s="21"/>
       <c r="C173" s="82"/>
@@ -30660,7 +30659,7 @@
       <c r="AF173" s="53"/>
       <c r="IJ173" s="44"/>
     </row>
-    <row r="174" spans="1:244" s="16" customFormat="1">
+    <row r="174" spans="1:244" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="82"/>
@@ -30695,7 +30694,7 @@
       <c r="AF174" s="53"/>
       <c r="IJ174" s="44"/>
     </row>
-    <row r="175" spans="1:244" s="3" customFormat="1">
+    <row r="175" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="82"/>
@@ -30941,7 +30940,7 @@
       <c r="II175" s="16"/>
       <c r="IJ175" s="44"/>
     </row>
-    <row r="176" spans="1:244" s="4" customFormat="1">
+    <row r="176" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="82"/>
@@ -31187,7 +31186,7 @@
       <c r="II176"/>
       <c r="IJ176"/>
     </row>
-    <row r="177" spans="1:244" s="4" customFormat="1">
+    <row r="177" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="20"/>
       <c r="B177" s="21"/>
       <c r="C177" s="82"/>
@@ -31433,7 +31432,7 @@
       <c r="II177"/>
       <c r="IJ177"/>
     </row>
-    <row r="178" spans="1:244" s="4" customFormat="1">
+    <row r="178" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="20"/>
       <c r="B178" s="21"/>
       <c r="C178" s="82"/>
@@ -31679,7 +31678,7 @@
       <c r="II178"/>
       <c r="IJ178"/>
     </row>
-    <row r="179" spans="1:244" s="4" customFormat="1">
+    <row r="179" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="82"/>
@@ -31925,7 +31924,7 @@
       <c r="II179"/>
       <c r="IJ179"/>
     </row>
-    <row r="180" spans="1:244" s="9" customFormat="1">
+    <row r="180" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="20"/>
       <c r="B180" s="21"/>
       <c r="C180" s="82"/>
@@ -32171,7 +32170,7 @@
       <c r="II180" s="3"/>
       <c r="IJ180" s="3"/>
     </row>
-    <row r="181" spans="1:244" s="9" customFormat="1">
+    <row r="181" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="20"/>
       <c r="B181" s="21"/>
       <c r="C181" s="82"/>
@@ -32417,7 +32416,7 @@
       <c r="II181" s="3"/>
       <c r="IJ181" s="3"/>
     </row>
-    <row r="182" spans="1:244" s="9" customFormat="1">
+    <row r="182" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="20"/>
       <c r="B182" s="21"/>
       <c r="C182" s="82"/>
@@ -32663,7 +32662,7 @@
       <c r="II182" s="3"/>
       <c r="IJ182" s="3"/>
     </row>
-    <row r="183" spans="1:244">
+    <row r="183" spans="1:244" x14ac:dyDescent="0.15">
       <c r="G183"/>
       <c r="H183"/>
       <c r="I183"/>
@@ -32903,7 +32902,7 @@
       <c r="II183" s="15"/>
       <c r="IJ183" s="15"/>
     </row>
-    <row r="184" spans="1:244" s="4" customFormat="1">
+    <row r="184" spans="1:244" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="20"/>
       <c r="B184" s="21"/>
       <c r="C184" s="82"/>
@@ -33149,7 +33148,7 @@
       <c r="II184" s="18"/>
       <c r="IJ184" s="18"/>
     </row>
-    <row r="185" spans="1:244">
+    <row r="185" spans="1:244" x14ac:dyDescent="0.15">
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -33389,7 +33388,7 @@
       <c r="II185" s="18"/>
       <c r="IJ185" s="18"/>
     </row>
-    <row r="186" spans="1:244" s="17" customFormat="1">
+    <row r="186" spans="1:244" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="20"/>
       <c r="B186" s="21"/>
       <c r="C186" s="82"/>
@@ -33635,7 +33634,7 @@
       <c r="II186" s="18"/>
       <c r="IJ186" s="18"/>
     </row>
-    <row r="187" spans="1:244" s="3" customFormat="1">
+    <row r="187" spans="1:244" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="20"/>
       <c r="B187" s="21"/>
       <c r="C187" s="82"/>
@@ -33881,7 +33880,7 @@
       <c r="II187" s="18"/>
       <c r="IJ187" s="18"/>
     </row>
-    <row r="188" spans="1:244" s="15" customFormat="1">
+    <row r="188" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="20"/>
       <c r="B188" s="21"/>
       <c r="C188" s="82"/>
@@ -34127,7 +34126,7 @@
       <c r="II188" s="18"/>
       <c r="IJ188" s="18"/>
     </row>
-    <row r="189" spans="1:244" s="18" customFormat="1">
+    <row r="189" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="20"/>
       <c r="B189" s="21"/>
       <c r="C189" s="82"/>
@@ -34351,7 +34350,7 @@
       <c r="II189" s="39"/>
       <c r="IJ189" s="43"/>
     </row>
-    <row r="190" spans="1:244" s="18" customFormat="1">
+    <row r="190" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="20"/>
       <c r="B190" s="21"/>
       <c r="C190" s="82"/>
@@ -34575,7 +34574,7 @@
       <c r="II190" s="39"/>
       <c r="IJ190" s="43"/>
     </row>
-    <row r="191" spans="1:244" s="15" customFormat="1">
+    <row r="191" spans="1:244" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="20"/>
       <c r="B191" s="21"/>
       <c r="C191" s="82"/>
@@ -34821,7 +34820,7 @@
       <c r="II191" s="18"/>
       <c r="IJ191" s="18"/>
     </row>
-    <row r="192" spans="1:244" s="18" customFormat="1">
+    <row r="192" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="20"/>
       <c r="B192" s="21"/>
       <c r="C192" s="82"/>
@@ -35045,7 +35044,7 @@
       <c r="II192" s="39"/>
       <c r="IJ192" s="43"/>
     </row>
-    <row r="193" spans="1:244" s="18" customFormat="1">
+    <row r="193" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="20"/>
       <c r="B193" s="21"/>
       <c r="C193" s="82"/>
@@ -35269,7 +35268,7 @@
       <c r="II193" s="39"/>
       <c r="IJ193" s="43"/>
     </row>
-    <row r="194" spans="1:244" s="18" customFormat="1">
+    <row r="194" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="20"/>
       <c r="B194" s="21"/>
       <c r="C194" s="82"/>
@@ -35493,7 +35492,7 @@
       <c r="II194" s="39"/>
       <c r="IJ194" s="43"/>
     </row>
-    <row r="195" spans="1:244" s="18" customFormat="1">
+    <row r="195" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="20"/>
       <c r="B195" s="21"/>
       <c r="C195" s="82"/>
@@ -35739,7 +35738,7 @@
       <c r="II195" s="39"/>
       <c r="IJ195" s="39"/>
     </row>
-    <row r="196" spans="1:244" s="9" customFormat="1">
+    <row r="196" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="20"/>
       <c r="B196" s="21"/>
       <c r="C196" s="82"/>
@@ -35985,7 +35984,7 @@
       <c r="II196" s="8"/>
       <c r="IJ196" s="8"/>
     </row>
-    <row r="197" spans="1:244" s="9" customFormat="1">
+    <row r="197" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="20"/>
       <c r="B197" s="21"/>
       <c r="C197" s="82"/>
@@ -36231,7 +36230,7 @@
       <c r="II197" s="8"/>
       <c r="IJ197" s="8"/>
     </row>
-    <row r="198" spans="1:244" s="18" customFormat="1">
+    <row r="198" spans="1:244" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="20"/>
       <c r="B198" s="21"/>
       <c r="C198" s="82"/>
@@ -36477,7 +36476,7 @@
       <c r="II198" s="39"/>
       <c r="IJ198" s="39"/>
     </row>
-    <row r="199" spans="1:244" s="9" customFormat="1">
+    <row r="199" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="20"/>
       <c r="B199" s="21"/>
       <c r="C199" s="82"/>
@@ -36723,7 +36722,7 @@
       <c r="II199" s="8"/>
       <c r="IJ199" s="8"/>
     </row>
-    <row r="200" spans="1:244" s="9" customFormat="1">
+    <row r="200" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="20"/>
       <c r="B200" s="21"/>
       <c r="C200" s="82"/>
@@ -36969,7 +36968,7 @@
       <c r="II200" s="8"/>
       <c r="IJ200" s="8"/>
     </row>
-    <row r="201" spans="1:244" s="9" customFormat="1">
+    <row r="201" spans="1:244" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="20"/>
       <c r="B201" s="21"/>
       <c r="C201" s="82"/>
@@ -37215,7 +37214,7 @@
       <c r="II201" s="8"/>
       <c r="IJ201" s="8"/>
     </row>
-    <row r="202" spans="1:244" s="7" customFormat="1">
+    <row r="202" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="20"/>
       <c r="B202" s="21"/>
       <c r="C202" s="82"/>
@@ -37461,7 +37460,7 @@
       <c r="II202" s="8"/>
       <c r="IJ202" s="8"/>
     </row>
-    <row r="203" spans="1:244" s="7" customFormat="1">
+    <row r="203" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="20"/>
       <c r="B203" s="21"/>
       <c r="C203" s="82"/>
@@ -37707,7 +37706,7 @@
       <c r="II203" s="8"/>
       <c r="IJ203" s="8"/>
     </row>
-    <row r="204" spans="1:244" s="7" customFormat="1">
+    <row r="204" spans="1:244" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="20"/>
       <c r="B204" s="21"/>
       <c r="C204" s="82"/>
@@ -37953,7 +37952,7 @@
       <c r="II204" s="8"/>
       <c r="IJ204" s="8"/>
     </row>
-    <row r="205" spans="1:244" s="19" customFormat="1">
+    <row r="205" spans="1:244" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="20"/>
       <c r="B205" s="21"/>
       <c r="C205" s="82"/>
@@ -38199,1036 +38198,1036 @@
       <c r="II205" s="8"/>
       <c r="IJ205" s="8"/>
     </row>
-    <row r="206" spans="1:244" s="8" customFormat="1">
+    <row r="206" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="20"/>
       <c r="B206" s="21"/>
       <c r="C206" s="82"/>
       <c r="E206" s="20"/>
       <c r="F206" s="22"/>
     </row>
-    <row r="207" spans="1:244" s="8" customFormat="1">
+    <row r="207" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="20"/>
       <c r="B207" s="21"/>
       <c r="C207" s="82"/>
       <c r="E207" s="20"/>
       <c r="F207" s="22"/>
     </row>
-    <row r="208" spans="1:244" s="8" customFormat="1">
+    <row r="208" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="20"/>
       <c r="B208" s="21"/>
       <c r="C208" s="82"/>
       <c r="E208" s="20"/>
       <c r="F208" s="22"/>
     </row>
-    <row r="209" spans="1:6" s="8" customFormat="1">
+    <row r="209" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="20"/>
       <c r="B209" s="21"/>
       <c r="C209" s="82"/>
       <c r="E209" s="20"/>
       <c r="F209" s="22"/>
     </row>
-    <row r="210" spans="1:6" s="8" customFormat="1">
+    <row r="210" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="20"/>
       <c r="B210" s="21"/>
       <c r="C210" s="82"/>
       <c r="E210" s="20"/>
       <c r="F210" s="22"/>
     </row>
-    <row r="211" spans="1:6" s="8" customFormat="1">
+    <row r="211" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="20"/>
       <c r="B211" s="21"/>
       <c r="C211" s="82"/>
       <c r="E211" s="20"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="1:6" s="8" customFormat="1">
+    <row r="212" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="20"/>
       <c r="B212" s="21"/>
       <c r="C212" s="82"/>
       <c r="E212" s="20"/>
       <c r="F212" s="22"/>
     </row>
-    <row r="213" spans="1:6" s="8" customFormat="1">
+    <row r="213" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="20"/>
       <c r="B213" s="21"/>
       <c r="C213" s="82"/>
       <c r="E213" s="20"/>
       <c r="F213" s="22"/>
     </row>
-    <row r="214" spans="1:6" s="8" customFormat="1">
+    <row r="214" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="20"/>
       <c r="B214" s="21"/>
       <c r="C214" s="82"/>
       <c r="E214" s="20"/>
       <c r="F214" s="22"/>
     </row>
-    <row r="215" spans="1:6" s="8" customFormat="1">
+    <row r="215" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="20"/>
       <c r="B215" s="21"/>
       <c r="C215" s="82"/>
       <c r="E215" s="20"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="1:6" s="8" customFormat="1">
+    <row r="216" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="20"/>
       <c r="B216" s="21"/>
       <c r="C216" s="82"/>
       <c r="E216" s="20"/>
       <c r="F216" s="22"/>
     </row>
-    <row r="217" spans="1:6" s="8" customFormat="1">
+    <row r="217" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="20"/>
       <c r="B217" s="21"/>
       <c r="C217" s="82"/>
       <c r="E217" s="20"/>
       <c r="F217" s="22"/>
     </row>
-    <row r="218" spans="1:6" s="8" customFormat="1">
+    <row r="218" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="20"/>
       <c r="B218" s="21"/>
       <c r="C218" s="82"/>
       <c r="E218" s="20"/>
       <c r="F218" s="22"/>
     </row>
-    <row r="219" spans="1:6" s="8" customFormat="1">
+    <row r="219" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="20"/>
       <c r="B219" s="21"/>
       <c r="C219" s="82"/>
       <c r="E219" s="20"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="1:6" s="8" customFormat="1">
+    <row r="220" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="20"/>
       <c r="B220" s="21"/>
       <c r="C220" s="82"/>
       <c r="E220" s="20"/>
       <c r="F220" s="22"/>
     </row>
-    <row r="221" spans="1:6" s="8" customFormat="1">
+    <row r="221" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="20"/>
       <c r="B221" s="21"/>
       <c r="C221" s="82"/>
       <c r="E221" s="20"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="1:6" s="8" customFormat="1">
+    <row r="222" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="20"/>
       <c r="B222" s="21"/>
       <c r="C222" s="82"/>
       <c r="E222" s="20"/>
       <c r="F222" s="22"/>
     </row>
-    <row r="223" spans="1:6" s="8" customFormat="1">
+    <row r="223" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="20"/>
       <c r="B223" s="21"/>
       <c r="C223" s="82"/>
       <c r="E223" s="20"/>
       <c r="F223" s="22"/>
     </row>
-    <row r="224" spans="1:6" s="8" customFormat="1">
+    <row r="224" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="20"/>
       <c r="B224" s="21"/>
       <c r="C224" s="82"/>
       <c r="E224" s="20"/>
       <c r="F224" s="22"/>
     </row>
-    <row r="225" spans="1:6" s="8" customFormat="1">
+    <row r="225" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="20"/>
       <c r="B225" s="21"/>
       <c r="C225" s="82"/>
       <c r="E225" s="20"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="1:6" s="8" customFormat="1">
+    <row r="226" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="20"/>
       <c r="B226" s="21"/>
       <c r="C226" s="82"/>
       <c r="E226" s="20"/>
       <c r="F226" s="22"/>
     </row>
-    <row r="227" spans="1:6" s="8" customFormat="1">
+    <row r="227" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="20"/>
       <c r="B227" s="21"/>
       <c r="C227" s="82"/>
       <c r="E227" s="20"/>
       <c r="F227" s="22"/>
     </row>
-    <row r="228" spans="1:6" s="8" customFormat="1">
+    <row r="228" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="20"/>
       <c r="B228" s="21"/>
       <c r="C228" s="82"/>
       <c r="E228" s="20"/>
       <c r="F228" s="22"/>
     </row>
-    <row r="229" spans="1:6" s="8" customFormat="1">
+    <row r="229" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="20"/>
       <c r="B229" s="21"/>
       <c r="C229" s="82"/>
       <c r="E229" s="20"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="1:6" s="8" customFormat="1">
+    <row r="230" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="20"/>
       <c r="B230" s="21"/>
       <c r="C230" s="82"/>
       <c r="E230" s="20"/>
       <c r="F230" s="22"/>
     </row>
-    <row r="231" spans="1:6" s="8" customFormat="1">
+    <row r="231" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="20"/>
       <c r="B231" s="21"/>
       <c r="C231" s="82"/>
       <c r="E231" s="20"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="1:6" s="8" customFormat="1">
+    <row r="232" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="20"/>
       <c r="B232" s="21"/>
       <c r="C232" s="82"/>
       <c r="E232" s="20"/>
       <c r="F232" s="22"/>
     </row>
-    <row r="233" spans="1:6" s="8" customFormat="1">
+    <row r="233" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="20"/>
       <c r="B233" s="21"/>
       <c r="C233" s="82"/>
       <c r="E233" s="20"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="1:6" s="8" customFormat="1">
+    <row r="234" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="20"/>
       <c r="B234" s="21"/>
       <c r="C234" s="82"/>
       <c r="E234" s="20"/>
       <c r="F234" s="22"/>
     </row>
-    <row r="235" spans="1:6" s="8" customFormat="1">
+    <row r="235" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="20"/>
       <c r="B235" s="21"/>
       <c r="C235" s="82"/>
       <c r="E235" s="20"/>
       <c r="F235" s="22"/>
     </row>
-    <row r="236" spans="1:6" s="8" customFormat="1">
+    <row r="236" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="20"/>
       <c r="B236" s="21"/>
       <c r="C236" s="82"/>
       <c r="E236" s="20"/>
       <c r="F236" s="22"/>
     </row>
-    <row r="237" spans="1:6" s="8" customFormat="1">
+    <row r="237" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="20"/>
       <c r="B237" s="21"/>
       <c r="C237" s="82"/>
       <c r="E237" s="20"/>
       <c r="F237" s="22"/>
     </row>
-    <row r="238" spans="1:6" s="8" customFormat="1">
+    <row r="238" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="20"/>
       <c r="B238" s="21"/>
       <c r="C238" s="82"/>
       <c r="E238" s="20"/>
       <c r="F238" s="22"/>
     </row>
-    <row r="239" spans="1:6" s="8" customFormat="1">
+    <row r="239" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="20"/>
       <c r="B239" s="21"/>
       <c r="C239" s="82"/>
       <c r="E239" s="20"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="1:6" s="8" customFormat="1">
+    <row r="240" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="20"/>
       <c r="B240" s="21"/>
       <c r="C240" s="82"/>
       <c r="E240" s="20"/>
       <c r="F240" s="22"/>
     </row>
-    <row r="241" spans="1:6" s="8" customFormat="1">
+    <row r="241" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="20"/>
       <c r="B241" s="21"/>
       <c r="C241" s="82"/>
       <c r="E241" s="20"/>
       <c r="F241" s="22"/>
     </row>
-    <row r="242" spans="1:6" s="8" customFormat="1">
+    <row r="242" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="20"/>
       <c r="B242" s="21"/>
       <c r="C242" s="82"/>
       <c r="E242" s="20"/>
       <c r="F242" s="22"/>
     </row>
-    <row r="243" spans="1:6" s="8" customFormat="1">
+    <row r="243" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="20"/>
       <c r="B243" s="21"/>
       <c r="C243" s="82"/>
       <c r="E243" s="20"/>
       <c r="F243" s="22"/>
     </row>
-    <row r="244" spans="1:6" s="8" customFormat="1">
+    <row r="244" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="20"/>
       <c r="B244" s="21"/>
       <c r="C244" s="82"/>
       <c r="E244" s="20"/>
       <c r="F244" s="22"/>
     </row>
-    <row r="245" spans="1:6" s="8" customFormat="1">
+    <row r="245" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="20"/>
       <c r="B245" s="21"/>
       <c r="C245" s="82"/>
       <c r="E245" s="20"/>
       <c r="F245" s="22"/>
     </row>
-    <row r="246" spans="1:6" s="8" customFormat="1">
+    <row r="246" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="20"/>
       <c r="B246" s="21"/>
       <c r="C246" s="82"/>
       <c r="E246" s="20"/>
       <c r="F246" s="22"/>
     </row>
-    <row r="247" spans="1:6" s="8" customFormat="1">
+    <row r="247" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="20"/>
       <c r="B247" s="21"/>
       <c r="C247" s="82"/>
       <c r="E247" s="20"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="1:6" s="8" customFormat="1">
+    <row r="248" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="20"/>
       <c r="B248" s="21"/>
       <c r="C248" s="82"/>
       <c r="E248" s="20"/>
       <c r="F248" s="22"/>
     </row>
-    <row r="249" spans="1:6" s="8" customFormat="1">
+    <row r="249" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="20"/>
       <c r="B249" s="21"/>
       <c r="C249" s="82"/>
       <c r="E249" s="20"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="1:6" s="8" customFormat="1">
+    <row r="250" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="20"/>
       <c r="B250" s="21"/>
       <c r="C250" s="82"/>
       <c r="E250" s="20"/>
       <c r="F250" s="22"/>
     </row>
-    <row r="251" spans="1:6" s="8" customFormat="1">
+    <row r="251" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="20"/>
       <c r="B251" s="21"/>
       <c r="C251" s="82"/>
       <c r="E251" s="20"/>
       <c r="F251" s="22"/>
     </row>
-    <row r="252" spans="1:6" s="8" customFormat="1">
+    <row r="252" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="20"/>
       <c r="B252" s="21"/>
       <c r="C252" s="82"/>
       <c r="E252" s="20"/>
       <c r="F252" s="22"/>
     </row>
-    <row r="253" spans="1:6" s="8" customFormat="1">
+    <row r="253" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="20"/>
       <c r="B253" s="21"/>
       <c r="C253" s="82"/>
       <c r="E253" s="20"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="1:6" s="8" customFormat="1">
+    <row r="254" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="20"/>
       <c r="B254" s="21"/>
       <c r="C254" s="82"/>
       <c r="E254" s="20"/>
       <c r="F254" s="22"/>
     </row>
-    <row r="255" spans="1:6" s="8" customFormat="1">
+    <row r="255" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="20"/>
       <c r="B255" s="21"/>
       <c r="C255" s="82"/>
       <c r="E255" s="20"/>
       <c r="F255" s="22"/>
     </row>
-    <row r="256" spans="1:6" s="8" customFormat="1">
+    <row r="256" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="20"/>
       <c r="B256" s="21"/>
       <c r="C256" s="82"/>
       <c r="E256" s="20"/>
       <c r="F256" s="22"/>
     </row>
-    <row r="257" spans="1:6" s="8" customFormat="1">
+    <row r="257" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="20"/>
       <c r="B257" s="21"/>
       <c r="C257" s="82"/>
       <c r="E257" s="20"/>
       <c r="F257" s="22"/>
     </row>
-    <row r="258" spans="1:6" s="8" customFormat="1">
+    <row r="258" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A258" s="20"/>
       <c r="B258" s="21"/>
       <c r="C258" s="82"/>
       <c r="E258" s="20"/>
       <c r="F258" s="22"/>
     </row>
-    <row r="259" spans="1:6" s="8" customFormat="1">
+    <row r="259" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A259" s="20"/>
       <c r="B259" s="21"/>
       <c r="C259" s="82"/>
       <c r="E259" s="20"/>
       <c r="F259" s="22"/>
     </row>
-    <row r="260" spans="1:6" s="8" customFormat="1">
+    <row r="260" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A260" s="20"/>
       <c r="B260" s="21"/>
       <c r="C260" s="82"/>
       <c r="E260" s="20"/>
       <c r="F260" s="22"/>
     </row>
-    <row r="261" spans="1:6" s="8" customFormat="1">
+    <row r="261" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A261" s="20"/>
       <c r="B261" s="21"/>
       <c r="C261" s="82"/>
       <c r="E261" s="20"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="1:6" s="8" customFormat="1">
+    <row r="262" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A262" s="20"/>
       <c r="B262" s="21"/>
       <c r="C262" s="82"/>
       <c r="E262" s="20"/>
       <c r="F262" s="22"/>
     </row>
-    <row r="263" spans="1:6" s="8" customFormat="1">
+    <row r="263" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A263" s="20"/>
       <c r="B263" s="21"/>
       <c r="C263" s="82"/>
       <c r="E263" s="20"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="1:6" s="8" customFormat="1">
+    <row r="264" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="20"/>
       <c r="B264" s="21"/>
       <c r="C264" s="82"/>
       <c r="E264" s="20"/>
       <c r="F264" s="22"/>
     </row>
-    <row r="265" spans="1:6" s="8" customFormat="1">
+    <row r="265" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A265" s="20"/>
       <c r="B265" s="21"/>
       <c r="C265" s="82"/>
       <c r="E265" s="20"/>
       <c r="F265" s="22"/>
     </row>
-    <row r="266" spans="1:6" s="8" customFormat="1">
+    <row r="266" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A266" s="20"/>
       <c r="B266" s="21"/>
       <c r="C266" s="82"/>
       <c r="E266" s="20"/>
       <c r="F266" s="22"/>
     </row>
-    <row r="267" spans="1:6" s="8" customFormat="1">
+    <row r="267" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A267" s="20"/>
       <c r="B267" s="21"/>
       <c r="C267" s="82"/>
       <c r="E267" s="20"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="1:6" s="8" customFormat="1">
+    <row r="268" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A268" s="20"/>
       <c r="B268" s="21"/>
       <c r="C268" s="82"/>
       <c r="E268" s="20"/>
       <c r="F268" s="22"/>
     </row>
-    <row r="269" spans="1:6" s="8" customFormat="1">
+    <row r="269" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A269" s="20"/>
       <c r="B269" s="21"/>
       <c r="C269" s="82"/>
       <c r="E269" s="20"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="1:6" s="8" customFormat="1">
+    <row r="270" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A270" s="20"/>
       <c r="B270" s="21"/>
       <c r="C270" s="82"/>
       <c r="E270" s="20"/>
       <c r="F270" s="22"/>
     </row>
-    <row r="271" spans="1:6" s="8" customFormat="1">
+    <row r="271" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A271" s="20"/>
       <c r="B271" s="21"/>
       <c r="C271" s="82"/>
       <c r="E271" s="20"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="1:6" s="8" customFormat="1">
+    <row r="272" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A272" s="20"/>
       <c r="B272" s="21"/>
       <c r="C272" s="82"/>
       <c r="E272" s="20"/>
       <c r="F272" s="22"/>
     </row>
-    <row r="273" spans="1:6" s="8" customFormat="1">
+    <row r="273" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="20"/>
       <c r="B273" s="21"/>
       <c r="C273" s="82"/>
       <c r="E273" s="20"/>
       <c r="F273" s="22"/>
     </row>
-    <row r="274" spans="1:6" s="8" customFormat="1">
+    <row r="274" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="20"/>
       <c r="B274" s="21"/>
       <c r="C274" s="82"/>
       <c r="E274" s="20"/>
       <c r="F274" s="22"/>
     </row>
-    <row r="275" spans="1:6" s="8" customFormat="1">
+    <row r="275" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A275" s="20"/>
       <c r="B275" s="21"/>
       <c r="C275" s="82"/>
       <c r="E275" s="20"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="1:6" s="8" customFormat="1">
+    <row r="276" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A276" s="20"/>
       <c r="B276" s="21"/>
       <c r="C276" s="82"/>
       <c r="E276" s="20"/>
       <c r="F276" s="22"/>
     </row>
-    <row r="277" spans="1:6" s="8" customFormat="1">
+    <row r="277" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A277" s="20"/>
       <c r="B277" s="21"/>
       <c r="C277" s="82"/>
       <c r="E277" s="20"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="1:6" s="8" customFormat="1">
+    <row r="278" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="20"/>
       <c r="B278" s="21"/>
       <c r="C278" s="82"/>
       <c r="E278" s="20"/>
       <c r="F278" s="22"/>
     </row>
-    <row r="279" spans="1:6" s="8" customFormat="1">
+    <row r="279" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="20"/>
       <c r="B279" s="21"/>
       <c r="C279" s="82"/>
       <c r="E279" s="20"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="1:6" s="8" customFormat="1">
+    <row r="280" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="20"/>
       <c r="B280" s="21"/>
       <c r="C280" s="82"/>
       <c r="E280" s="20"/>
       <c r="F280" s="22"/>
     </row>
-    <row r="281" spans="1:6" s="8" customFormat="1">
+    <row r="281" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="20"/>
       <c r="B281" s="21"/>
       <c r="C281" s="82"/>
       <c r="E281" s="20"/>
       <c r="F281" s="22"/>
     </row>
-    <row r="282" spans="1:6" s="8" customFormat="1">
+    <row r="282" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="20"/>
       <c r="B282" s="21"/>
       <c r="C282" s="82"/>
       <c r="E282" s="20"/>
       <c r="F282" s="22"/>
     </row>
-    <row r="283" spans="1:6" s="8" customFormat="1">
+    <row r="283" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="20"/>
       <c r="B283" s="21"/>
       <c r="C283" s="82"/>
       <c r="E283" s="20"/>
       <c r="F283" s="22"/>
     </row>
-    <row r="284" spans="1:6" s="8" customFormat="1">
+    <row r="284" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="20"/>
       <c r="B284" s="21"/>
       <c r="C284" s="82"/>
       <c r="E284" s="20"/>
       <c r="F284" s="22"/>
     </row>
-    <row r="285" spans="1:6" s="8" customFormat="1">
+    <row r="285" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="20"/>
       <c r="B285" s="21"/>
       <c r="C285" s="82"/>
       <c r="E285" s="20"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="1:6" s="8" customFormat="1">
+    <row r="286" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="20"/>
       <c r="B286" s="21"/>
       <c r="C286" s="82"/>
       <c r="E286" s="20"/>
       <c r="F286" s="22"/>
     </row>
-    <row r="287" spans="1:6" s="8" customFormat="1">
+    <row r="287" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="20"/>
       <c r="B287" s="21"/>
       <c r="C287" s="82"/>
       <c r="E287" s="20"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="1:6" s="8" customFormat="1">
+    <row r="288" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="20"/>
       <c r="B288" s="21"/>
       <c r="C288" s="82"/>
       <c r="E288" s="20"/>
       <c r="F288" s="22"/>
     </row>
-    <row r="289" spans="1:6" s="8" customFormat="1">
+    <row r="289" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="20"/>
       <c r="B289" s="21"/>
       <c r="C289" s="82"/>
       <c r="E289" s="20"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="1:6" s="8" customFormat="1">
+    <row r="290" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="20"/>
       <c r="B290" s="21"/>
       <c r="C290" s="82"/>
       <c r="E290" s="20"/>
       <c r="F290" s="22"/>
     </row>
-    <row r="291" spans="1:6" s="8" customFormat="1">
+    <row r="291" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="20"/>
       <c r="B291" s="21"/>
       <c r="C291" s="82"/>
       <c r="E291" s="20"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="1:6" s="8" customFormat="1">
+    <row r="292" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="20"/>
       <c r="B292" s="21"/>
       <c r="C292" s="82"/>
       <c r="E292" s="20"/>
       <c r="F292" s="22"/>
     </row>
-    <row r="293" spans="1:6" s="8" customFormat="1">
+    <row r="293" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="20"/>
       <c r="B293" s="21"/>
       <c r="C293" s="82"/>
       <c r="E293" s="20"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="1:6" s="8" customFormat="1">
+    <row r="294" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A294" s="20"/>
       <c r="B294" s="21"/>
       <c r="C294" s="82"/>
       <c r="E294" s="20"/>
       <c r="F294" s="22"/>
     </row>
-    <row r="295" spans="1:6" s="8" customFormat="1">
+    <row r="295" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="20"/>
       <c r="B295" s="21"/>
       <c r="C295" s="82"/>
       <c r="E295" s="20"/>
       <c r="F295" s="22"/>
     </row>
-    <row r="296" spans="1:6" s="8" customFormat="1">
+    <row r="296" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="20"/>
       <c r="B296" s="21"/>
       <c r="C296" s="82"/>
       <c r="E296" s="20"/>
       <c r="F296" s="22"/>
     </row>
-    <row r="297" spans="1:6" s="8" customFormat="1">
+    <row r="297" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A297" s="20"/>
       <c r="B297" s="21"/>
       <c r="C297" s="82"/>
       <c r="E297" s="20"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="1:6" s="8" customFormat="1">
+    <row r="298" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A298" s="20"/>
       <c r="B298" s="21"/>
       <c r="C298" s="82"/>
       <c r="E298" s="20"/>
       <c r="F298" s="22"/>
     </row>
-    <row r="299" spans="1:6" s="8" customFormat="1">
+    <row r="299" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="20"/>
       <c r="B299" s="21"/>
       <c r="C299" s="82"/>
       <c r="E299" s="20"/>
       <c r="F299" s="22"/>
     </row>
-    <row r="300" spans="1:6" s="8" customFormat="1">
+    <row r="300" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A300" s="20"/>
       <c r="B300" s="21"/>
       <c r="C300" s="82"/>
       <c r="E300" s="20"/>
       <c r="F300" s="22"/>
     </row>
-    <row r="301" spans="1:6" s="8" customFormat="1">
+    <row r="301" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A301" s="20"/>
       <c r="B301" s="21"/>
       <c r="C301" s="82"/>
       <c r="E301" s="20"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="1:6" s="8" customFormat="1">
+    <row r="302" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A302" s="20"/>
       <c r="B302" s="21"/>
       <c r="C302" s="82"/>
       <c r="E302" s="20"/>
       <c r="F302" s="22"/>
     </row>
-    <row r="303" spans="1:6" s="8" customFormat="1">
+    <row r="303" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="20"/>
       <c r="B303" s="21"/>
       <c r="C303" s="82"/>
       <c r="E303" s="20"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="1:6" s="8" customFormat="1">
+    <row r="304" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A304" s="20"/>
       <c r="B304" s="21"/>
       <c r="C304" s="82"/>
       <c r="E304" s="20"/>
       <c r="F304" s="22"/>
     </row>
-    <row r="305" spans="1:6" s="8" customFormat="1">
+    <row r="305" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A305" s="20"/>
       <c r="B305" s="21"/>
       <c r="C305" s="82"/>
       <c r="E305" s="20"/>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="1:6" s="8" customFormat="1">
+    <row r="306" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="20"/>
       <c r="B306" s="21"/>
       <c r="C306" s="82"/>
       <c r="E306" s="20"/>
       <c r="F306" s="22"/>
     </row>
-    <row r="307" spans="1:6" s="8" customFormat="1">
+    <row r="307" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="20"/>
       <c r="B307" s="21"/>
       <c r="C307" s="82"/>
       <c r="E307" s="20"/>
       <c r="F307" s="22"/>
     </row>
-    <row r="308" spans="1:6" s="8" customFormat="1">
+    <row r="308" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A308" s="20"/>
       <c r="B308" s="21"/>
       <c r="C308" s="82"/>
       <c r="E308" s="20"/>
       <c r="F308" s="22"/>
     </row>
-    <row r="309" spans="1:6" s="8" customFormat="1">
+    <row r="309" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="20"/>
       <c r="B309" s="21"/>
       <c r="C309" s="82"/>
       <c r="E309" s="20"/>
       <c r="F309" s="22"/>
     </row>
-    <row r="310" spans="1:6" s="8" customFormat="1">
+    <row r="310" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A310" s="20"/>
       <c r="B310" s="21"/>
       <c r="C310" s="82"/>
       <c r="E310" s="20"/>
       <c r="F310" s="22"/>
     </row>
-    <row r="311" spans="1:6" s="8" customFormat="1">
+    <row r="311" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="20"/>
       <c r="B311" s="21"/>
       <c r="C311" s="82"/>
       <c r="E311" s="20"/>
       <c r="F311" s="22"/>
     </row>
-    <row r="312" spans="1:6" s="8" customFormat="1">
+    <row r="312" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A312" s="20"/>
       <c r="B312" s="21"/>
       <c r="C312" s="82"/>
       <c r="E312" s="20"/>
       <c r="F312" s="22"/>
     </row>
-    <row r="313" spans="1:6" s="8" customFormat="1">
+    <row r="313" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A313" s="20"/>
       <c r="B313" s="21"/>
       <c r="C313" s="82"/>
       <c r="E313" s="20"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="1:6" s="8" customFormat="1">
+    <row r="314" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="20"/>
       <c r="B314" s="21"/>
       <c r="C314" s="82"/>
       <c r="E314" s="20"/>
       <c r="F314" s="22"/>
     </row>
-    <row r="315" spans="1:6" s="8" customFormat="1">
+    <row r="315" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="20"/>
       <c r="B315" s="21"/>
       <c r="C315" s="82"/>
       <c r="E315" s="20"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="1:6" s="8" customFormat="1">
+    <row r="316" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A316" s="20"/>
       <c r="B316" s="21"/>
       <c r="C316" s="82"/>
       <c r="E316" s="20"/>
       <c r="F316" s="22"/>
     </row>
-    <row r="317" spans="1:6" s="8" customFormat="1">
+    <row r="317" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A317" s="20"/>
       <c r="B317" s="21"/>
       <c r="C317" s="82"/>
       <c r="E317" s="20"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="1:6" s="8" customFormat="1">
+    <row r="318" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A318" s="20"/>
       <c r="B318" s="21"/>
       <c r="C318" s="82"/>
       <c r="E318" s="20"/>
       <c r="F318" s="22"/>
     </row>
-    <row r="319" spans="1:6" s="8" customFormat="1">
+    <row r="319" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A319" s="20"/>
       <c r="B319" s="21"/>
       <c r="C319" s="82"/>
       <c r="E319" s="20"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="1:6" s="8" customFormat="1">
+    <row r="320" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A320" s="20"/>
       <c r="B320" s="21"/>
       <c r="C320" s="82"/>
       <c r="E320" s="20"/>
       <c r="F320" s="22"/>
     </row>
-    <row r="321" spans="1:6" s="8" customFormat="1">
+    <row r="321" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A321" s="20"/>
       <c r="B321" s="21"/>
       <c r="C321" s="82"/>
       <c r="E321" s="20"/>
       <c r="F321" s="22"/>
     </row>
-    <row r="322" spans="1:6" s="8" customFormat="1">
+    <row r="322" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A322" s="20"/>
       <c r="B322" s="21"/>
       <c r="C322" s="82"/>
       <c r="E322" s="20"/>
       <c r="F322" s="22"/>
     </row>
-    <row r="323" spans="1:6" s="8" customFormat="1">
+    <row r="323" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A323" s="20"/>
       <c r="B323" s="21"/>
       <c r="C323" s="82"/>
       <c r="E323" s="20"/>
       <c r="F323" s="22"/>
     </row>
-    <row r="324" spans="1:6" s="8" customFormat="1">
+    <row r="324" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A324" s="20"/>
       <c r="B324" s="21"/>
       <c r="C324" s="82"/>
       <c r="E324" s="20"/>
       <c r="F324" s="22"/>
     </row>
-    <row r="325" spans="1:6" s="8" customFormat="1">
+    <row r="325" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A325" s="20"/>
       <c r="B325" s="21"/>
       <c r="C325" s="82"/>
       <c r="E325" s="20"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="1:6" s="8" customFormat="1">
+    <row r="326" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A326" s="20"/>
       <c r="B326" s="21"/>
       <c r="C326" s="82"/>
       <c r="E326" s="20"/>
       <c r="F326" s="22"/>
     </row>
-    <row r="327" spans="1:6" s="8" customFormat="1">
+    <row r="327" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A327" s="20"/>
       <c r="B327" s="21"/>
       <c r="C327" s="82"/>
       <c r="E327" s="20"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="1:6" s="8" customFormat="1">
+    <row r="328" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A328" s="20"/>
       <c r="B328" s="21"/>
       <c r="C328" s="82"/>
       <c r="E328" s="20"/>
       <c r="F328" s="22"/>
     </row>
-    <row r="329" spans="1:6" s="8" customFormat="1">
+    <row r="329" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A329" s="20"/>
       <c r="B329" s="21"/>
       <c r="C329" s="82"/>
       <c r="E329" s="20"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="1:6" s="8" customFormat="1">
+    <row r="330" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A330" s="20"/>
       <c r="B330" s="21"/>
       <c r="C330" s="82"/>
       <c r="E330" s="20"/>
       <c r="F330" s="22"/>
     </row>
-    <row r="331" spans="1:6" s="8" customFormat="1">
+    <row r="331" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A331" s="20"/>
       <c r="B331" s="21"/>
       <c r="C331" s="82"/>
       <c r="E331" s="20"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="1:6" s="8" customFormat="1">
+    <row r="332" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A332" s="20"/>
       <c r="B332" s="21"/>
       <c r="C332" s="82"/>
       <c r="E332" s="20"/>
       <c r="F332" s="22"/>
     </row>
-    <row r="333" spans="1:6" s="8" customFormat="1">
+    <row r="333" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A333" s="20"/>
       <c r="B333" s="21"/>
       <c r="C333" s="82"/>
       <c r="E333" s="20"/>
       <c r="F333" s="22"/>
     </row>
-    <row r="334" spans="1:6" s="8" customFormat="1">
+    <row r="334" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A334" s="20"/>
       <c r="B334" s="21"/>
       <c r="C334" s="82"/>
       <c r="E334" s="20"/>
       <c r="F334" s="22"/>
     </row>
-    <row r="335" spans="1:6" s="8" customFormat="1">
+    <row r="335" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A335" s="20"/>
       <c r="B335" s="21"/>
       <c r="C335" s="82"/>
       <c r="E335" s="20"/>
       <c r="F335" s="22"/>
     </row>
-    <row r="336" spans="1:6" s="8" customFormat="1">
+    <row r="336" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A336" s="20"/>
       <c r="B336" s="21"/>
       <c r="C336" s="82"/>
       <c r="E336" s="20"/>
       <c r="F336" s="22"/>
     </row>
-    <row r="337" spans="1:6" s="8" customFormat="1">
+    <row r="337" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A337" s="20"/>
       <c r="B337" s="21"/>
       <c r="C337" s="82"/>
       <c r="E337" s="20"/>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="1:6" s="8" customFormat="1">
+    <row r="338" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A338" s="20"/>
       <c r="B338" s="21"/>
       <c r="C338" s="82"/>
       <c r="E338" s="20"/>
       <c r="F338" s="22"/>
     </row>
-    <row r="339" spans="1:6" s="8" customFormat="1">
+    <row r="339" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="20"/>
       <c r="B339" s="21"/>
       <c r="C339" s="82"/>
       <c r="E339" s="20"/>
       <c r="F339" s="22"/>
     </row>
-    <row r="340" spans="1:6" s="8" customFormat="1">
+    <row r="340" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A340" s="20"/>
       <c r="B340" s="21"/>
       <c r="C340" s="82"/>
       <c r="E340" s="20"/>
       <c r="F340" s="22"/>
     </row>
-    <row r="341" spans="1:6" s="8" customFormat="1">
+    <row r="341" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A341" s="20"/>
       <c r="B341" s="21"/>
       <c r="C341" s="82"/>
       <c r="E341" s="20"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="1:6" s="8" customFormat="1">
+    <row r="342" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342" s="20"/>
       <c r="B342" s="21"/>
       <c r="C342" s="82"/>
       <c r="E342" s="20"/>
       <c r="F342" s="22"/>
     </row>
-    <row r="343" spans="1:6" s="8" customFormat="1">
+    <row r="343" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="20"/>
       <c r="B343" s="21"/>
       <c r="C343" s="82"/>
       <c r="E343" s="20"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="1:6" s="8" customFormat="1">
+    <row r="344" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A344" s="20"/>
       <c r="B344" s="21"/>
       <c r="C344" s="82"/>
       <c r="E344" s="20"/>
       <c r="F344" s="22"/>
     </row>
-    <row r="345" spans="1:6" s="8" customFormat="1">
+    <row r="345" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A345" s="20"/>
       <c r="B345" s="21"/>
       <c r="C345" s="82"/>
       <c r="E345" s="20"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="1:6" s="8" customFormat="1">
+    <row r="346" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="20"/>
       <c r="B346" s="21"/>
       <c r="C346" s="82"/>
       <c r="E346" s="20"/>
       <c r="F346" s="22"/>
     </row>
-    <row r="347" spans="1:6" s="8" customFormat="1">
+    <row r="347" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A347" s="20"/>
       <c r="B347" s="21"/>
       <c r="C347" s="82"/>
       <c r="E347" s="20"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="1:6" s="8" customFormat="1">
+    <row r="348" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="20"/>
       <c r="B348" s="21"/>
       <c r="C348" s="82"/>
       <c r="E348" s="20"/>
       <c r="F348" s="22"/>
     </row>
-    <row r="349" spans="1:6" s="8" customFormat="1">
+    <row r="349" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349" s="20"/>
       <c r="B349" s="21"/>
       <c r="C349" s="82"/>
       <c r="E349" s="20"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="1:6" s="8" customFormat="1">
+    <row r="350" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A350" s="20"/>
       <c r="B350" s="21"/>
       <c r="C350" s="82"/>
       <c r="E350" s="20"/>
       <c r="F350" s="22"/>
     </row>
-    <row r="351" spans="1:6" s="8" customFormat="1">
+    <row r="351" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A351" s="20"/>
       <c r="B351" s="21"/>
       <c r="C351" s="82"/>
       <c r="E351" s="20"/>
       <c r="F351" s="22"/>
     </row>
-    <row r="352" spans="1:6" s="8" customFormat="1">
+    <row r="352" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352" s="20"/>
       <c r="B352" s="21"/>
       <c r="C352" s="82"/>
       <c r="E352" s="20"/>
       <c r="F352" s="22"/>
     </row>
-    <row r="353" spans="1:244" s="8" customFormat="1">
+    <row r="353" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A353" s="20"/>
       <c r="B353" s="21"/>
       <c r="C353" s="82"/>
@@ -39236,7 +39235,7 @@
       <c r="F353" s="22"/>
       <c r="IJ353" s="23"/>
     </row>
-    <row r="354" spans="1:244" s="8" customFormat="1">
+    <row r="354" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A354" s="20"/>
       <c r="B354" s="21"/>
       <c r="C354" s="82"/>
@@ -39244,7 +39243,7 @@
       <c r="F354" s="22"/>
       <c r="IJ354" s="23"/>
     </row>
-    <row r="355" spans="1:244" s="8" customFormat="1">
+    <row r="355" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A355" s="20"/>
       <c r="B355" s="21"/>
       <c r="C355" s="82"/>
@@ -39252,7 +39251,7 @@
       <c r="F355" s="22"/>
       <c r="IJ355" s="23"/>
     </row>
-    <row r="356" spans="1:244" s="8" customFormat="1">
+    <row r="356" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A356" s="20"/>
       <c r="B356" s="21"/>
       <c r="C356" s="82"/>
@@ -39260,7 +39259,7 @@
       <c r="F356" s="22"/>
       <c r="IJ356" s="23"/>
     </row>
-    <row r="357" spans="1:244" s="8" customFormat="1">
+    <row r="357" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357" s="20"/>
       <c r="B357" s="21"/>
       <c r="C357" s="82"/>
@@ -39268,7 +39267,7 @@
       <c r="F357" s="22"/>
       <c r="IJ357" s="23"/>
     </row>
-    <row r="358" spans="1:244" s="8" customFormat="1">
+    <row r="358" spans="1:244" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="20"/>
       <c r="B358" s="21"/>
       <c r="C358" s="82"/>
@@ -39290,14 +39289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="88"/>
     <col min="2" max="2" width="28.83203125" customWidth="1"/>
@@ -39305,7 +39304,7 @@
     <col min="5" max="5" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="89" t="s">
         <v>111</v>
       </c>
@@ -39319,7 +39318,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="89">
         <v>1</v>
       </c>
@@ -39333,7 +39332,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="89">
         <v>2</v>
       </c>
@@ -39347,7 +39346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="121" customFormat="1">
+    <row r="4" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="119">
         <v>3</v>
       </c>
@@ -39361,7 +39360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="89">
         <v>4</v>
       </c>
@@ -39375,7 +39374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="89">
         <v>5</v>
       </c>
@@ -39389,7 +39388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="89">
         <v>6</v>
       </c>
@@ -39403,7 +39402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="89">
         <v>7</v>
       </c>
@@ -39417,7 +39416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="121" customFormat="1">
+    <row r="9" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="119">
         <v>8</v>
       </c>
@@ -39431,7 +39430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="121" customFormat="1">
+    <row r="10" spans="1:5" s="121" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="119">
         <v>9</v>
       </c>
@@ -39445,7 +39444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="89">
         <v>12</v>
       </c>
@@ -39459,7 +39458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="89">
         <v>13</v>
       </c>
@@ -39473,7 +39472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
       <c r="B14" s="1"/>
       <c r="C14" s="89"/>
@@ -39482,7 +39481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="100" customHeight="1">
+    <row r="15" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="89">
         <v>14</v>
       </c>
@@ -39499,7 +39498,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="124" customFormat="1" ht="17">
+    <row r="16" spans="1:5" s="124" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
         <v>129</v>
@@ -39510,7 +39509,7 @@
       </c>
       <c r="E16" s="125"/>
     </row>
-    <row r="17" spans="1:5" s="124" customFormat="1" ht="17">
+    <row r="17" spans="1:5" s="124" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="122">
         <v>15</v>
       </c>
@@ -39527,7 +39526,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="89">
         <v>16</v>
       </c>
@@ -39542,7 +39541,7 @@
       </c>
       <c r="E18" s="125"/>
     </row>
-    <row r="19" spans="1:5" ht="17">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="89">
         <v>17</v>
       </c>
@@ -39557,7 +39556,7 @@
       </c>
       <c r="E19" s="125"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="89">
         <v>18</v>
       </c>
@@ -39571,7 +39570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="89">
         <v>19</v>
       </c>
@@ -39585,7 +39584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="89">
         <v>10</v>
       </c>
@@ -39599,7 +39598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="89">
         <v>11</v>
       </c>
